--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -1347,10 +1347,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1385,9 +1385,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1396,6 +1404,37 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1414,24 +1453,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,16 +1475,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1468,13 +1505,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1483,39 +1513,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1542,13 +1542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,7 +1560,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,7 +1584,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,7 +1662,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,121 +1716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,21 +1786,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1825,17 +1810,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1855,44 +1869,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1904,130 +1904,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2393,10 +2393,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A250" sqref="$A250:$XFD250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -7530,72 +7530,50 @@
       </c>
       <c r="H249" s="7"/>
     </row>
-    <row r="250" s="4" customFormat="1" spans="1:8">
-      <c r="A250" s="6">
-        <v>249</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D250" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E250" s="6"/>
-      <c r="F250" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G250" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H250" s="6"/>
+    <row r="250" spans="1:8">
+      <c r="A250" s="7">
+        <v>250</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E250" s="7"/>
+      <c r="F250" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G250" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H250" s="7"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="7">
-        <v>250</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D251" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="E251" s="7"/>
-      <c r="F251" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G251" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H251" s="7"/>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252" s="8">
+      <c r="A251" s="8">
         <v>251</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B251" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C252" s="6"/>
-      <c r="D252" s="6"/>
-      <c r="E252" s="6">
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6">
         <v>4</v>
       </c>
-      <c r="F252" s="6"/>
-      <c r="G252" s="6"/>
-      <c r="H252" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142 B173 B174 B179 B212 B213 B216 B217 B218 B219 B250 B1:B141 B143:B144 B145:B146 B154:B163 B164:B172 B175:B176 B177:B178 B180:B181 B182:B183 B184:B185 B193:B202 B203:B211 B214:B215 B220:B221 B222:B223 B231:B240 B241:B249 B251:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142 B173 B174 B179 B212 B213 B216 B217 B218 B219 B1:B141 B143:B144 B145:B146 B154:B163 B164:B172 B175:B176 B177:B178 B180:B181 B182:B183 B184:B185 B193:B202 B203:B211 B214:B215 B220:B221 B222:B223 B231:B240 B241:B249 B250:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C173 C179 C180 C212 C218 C219 C250 C1:C141 C142:C144 C145:C146 C154:C163 C164:C172 C174:C176 C177:C178 C182:C183 C184:C185 C193:C202 C203:C211 C213:C215 C216:C217 C220:C221 C222:C223 C231:C240 C241:C249 C251:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C173 C179 C180 C212 C218 C219 C1:C141 C142:C144 C145:C146 C154:C163 C164:C172 C174:C176 C177:C178 C182:C183 C184:C185 C193:C202 C203:C211 C213:C215 C216:C217 C220:C221 C222:C223 C231:C240 C241:C249 C250:C1048576">
       <formula1>DataList!$A$2:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B147:B153 B186:B192 B224:B230">

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419">
   <si>
     <t>Step No</t>
   </si>
@@ -892,57 +892,6 @@
     <t>Create Expenditure clicked</t>
   </si>
   <si>
-    <t>CLAIM_SEARCH_PROVIDER</t>
-  </si>
-  <si>
-    <t>1.Existing provider search</t>
-  </si>
-  <si>
-    <t>NAME_TAB_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_STATE</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Select State from the search popup</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_LASTNAME</t>
-  </si>
-  <si>
-    <t>Heller</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH</t>
-  </si>
-  <si>
-    <t>Click Search button</t>
-  </si>
-  <si>
-    <t>Search clicked</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH_FIRST</t>
-  </si>
-  <si>
-    <t>Select first provider</t>
-  </si>
-  <si>
-    <t>Provier selected</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>Click Add Provider</t>
-  </si>
-  <si>
-    <t>Provider added</t>
-  </si>
-  <si>
     <t>EXPE_DATE_OF_SERVICE_FROM</t>
   </si>
   <si>
@@ -967,6 +916,9 @@
     <t>EXPE_ELECTRONIC_SIGN</t>
   </si>
   <si>
+    <t>1. Payable to Provider submitted</t>
+  </si>
+  <si>
     <t>Click ok to Pcase alert</t>
   </si>
   <si>
@@ -1040,15 +992,6 @@
   </si>
   <si>
     <t>CLAIM_PAYABLE_STATE</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
   </si>
   <si>
     <t>Actions</t>
@@ -1347,10 +1290,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1377,8 +1320,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1399,32 +1420,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1439,83 +1451,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1542,13 +1485,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,7 +1545,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,61 +1605,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,73 +1641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1722,12 +1659,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1773,24 +1716,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1806,41 +1751,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1869,6 +1779,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1883,16 +1802,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1904,134 +1834,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2040,7 +1970,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2393,10 +2322,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H251"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A250" sqref="$A250:$XFD250"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -5430,7 +5359,7 @@
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" s="4" customFormat="1" spans="1:8">
       <c r="A143" s="7">
         <v>142</v>
       </c>
@@ -5438,32 +5367,36 @@
         <v>14</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>288</v>
       </c>
       <c r="E143" s="7"/>
-      <c r="F143" s="7" t="s">
-        <v>289</v>
-      </c>
+      <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" s="4" customFormat="1" spans="1:8">
       <c r="A144" s="6">
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6">
-        <v>3</v>
-      </c>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="H144" s="6"/>
     </row>
     <row r="145" s="4" customFormat="1" spans="1:8">
@@ -5489,130 +5422,126 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6">
-        <v>1</v>
-      </c>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" s="4" customFormat="1" spans="1:8">
       <c r="A147" s="7">
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E147" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F147" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>105</v>
-      </c>
+      <c r="E147" s="7">
+        <v>200</v>
+      </c>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" s="4" customFormat="1" spans="1:8">
       <c r="A148" s="6">
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>295</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="H148" s="6"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" s="4" customFormat="1" spans="1:8">
       <c r="A149" s="7">
         <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>298</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7">
+        <v>3</v>
+      </c>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" s="4" customFormat="1" spans="1:8">
       <c r="A150" s="6">
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6">
-        <v>4</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" s="4" customFormat="1" spans="1:8">
       <c r="A151" s="7">
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E151" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>273</v>
+      </c>
       <c r="F151" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" s="4" customFormat="1" spans="1:8">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -5623,18 +5552,18 @@
         <v>35</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6" t="s">
-        <v>303</v>
+        <v>92</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>304</v>
+        <v>93</v>
       </c>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" s="4" customFormat="1" spans="1:8">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -5644,7 +5573,7 @@
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
@@ -5661,7 +5590,7 @@
         <v>35</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -5673,21 +5602,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>176</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
       <c r="H155" s="7"/>
     </row>
     <row r="156" s="4" customFormat="1" spans="1:8">
@@ -5701,10 +5628,12 @@
         <v>35</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
+      <c r="F156" s="6" t="s">
+        <v>296</v>
+      </c>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
@@ -5713,21 +5642,15 @@
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>176</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7">
+        <v>10</v>
+      </c>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
       <c r="H157" s="7"/>
     </row>
     <row r="158" s="4" customFormat="1" spans="1:8">
@@ -5735,19 +5658,17 @@
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E158" s="6">
-        <v>200</v>
-      </c>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
+        <v>278</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>298</v>
+      </c>
       <c r="H158" s="6"/>
     </row>
     <row r="159" s="4" customFormat="1" spans="1:8">
@@ -5755,21 +5676,15 @@
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>93</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7">
+        <v>10</v>
+      </c>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
       <c r="H159" s="7"/>
     </row>
     <row r="160" s="4" customFormat="1" spans="1:8">
@@ -5777,15 +5692,21 @@
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6">
-        <v>3</v>
-      </c>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
+        <v>233</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>301</v>
+      </c>
       <c r="H160" s="6"/>
     </row>
     <row r="161" s="4" customFormat="1" spans="1:8">
@@ -5793,19 +5714,21 @@
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>67</v>
+        <v>302</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
+        <v>303</v>
+      </c>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="H161" s="7"/>
     </row>
     <row r="162" s="4" customFormat="1" spans="1:8">
@@ -5813,22 +5736,20 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>273</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="E162" s="6"/>
       <c r="F162" s="6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H162" s="6"/>
     </row>
@@ -5837,21 +5758,15 @@
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>93</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7">
+        <v>5</v>
+      </c>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
       <c r="H163" s="7"/>
     </row>
     <row r="164" s="4" customFormat="1" spans="1:8">
@@ -5859,15 +5774,23 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6">
-        <v>2</v>
-      </c>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="H164" s="6"/>
     </row>
     <row r="165" s="4" customFormat="1" spans="1:8">
@@ -5878,10 +5801,10 @@
         <v>14</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
@@ -5893,16 +5816,12 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>99</v>
+        <v>11</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6">
+        <v>1</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
@@ -5913,15 +5832,17 @@
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>14</v>
+        <v>311</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="E167" s="7"/>
+        <v>312</v>
+      </c>
+      <c r="E167" s="7">
+        <v>10002</v>
+      </c>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
@@ -5931,13 +5852,15 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
@@ -5947,17 +5870,15 @@
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="E169" s="7">
+        <v>1</v>
+      </c>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
       <c r="H169" s="7"/>
     </row>
     <row r="170" s="4" customFormat="1" spans="1:8">
@@ -5965,13 +5886,15 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6">
-        <v>10</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
@@ -5981,21 +5904,17 @@
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="E171" s="7"/>
-      <c r="F171" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
       <c r="H171" s="7"/>
     </row>
     <row r="172" s="4" customFormat="1" spans="1:8">
@@ -6003,20 +5922,20 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>318</v>
+        <v>14</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6" t="s">
-        <v>320</v>
+        <v>175</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>321</v>
+        <v>176</v>
       </c>
       <c r="H172" s="6"/>
     </row>
@@ -6031,15 +5950,11 @@
         <v>35</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E173" s="7"/>
-      <c r="F173" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>287</v>
-      </c>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
       <c r="H173" s="7"/>
     </row>
     <row r="174" s="4" customFormat="1" spans="1:8">
@@ -6047,15 +5962,21 @@
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6">
-        <v>5</v>
-      </c>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="H174" s="6"/>
     </row>
     <row r="175" s="4" customFormat="1" spans="1:8">
@@ -6063,23 +5984,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>325</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="E175" s="7">
+        <v>200</v>
+      </c>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
       <c r="H175" s="7"/>
     </row>
     <row r="176" s="4" customFormat="1" spans="1:8">
@@ -6090,14 +6007,18 @@
         <v>14</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
+      <c r="F176" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="H176" s="6"/>
     </row>
     <row r="177" s="4" customFormat="1" spans="1:8">
@@ -6110,7 +6031,7 @@
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
@@ -6121,16 +6042,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>327</v>
+        <v>67</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="E178" s="6">
-        <v>10002</v>
+        <v>263</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
@@ -6141,17 +6062,23 @@
         <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="H179" s="7"/>
     </row>
     <row r="180" s="4" customFormat="1" spans="1:8">
@@ -6159,15 +6086,21 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6">
-        <v>1</v>
-      </c>
-      <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="H180" s="6"/>
     </row>
     <row r="181" s="4" customFormat="1" spans="1:8">
@@ -6175,15 +6108,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="E181" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7">
+        <v>2</v>
+      </c>
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
@@ -6196,15 +6127,13 @@
         <v>14</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E182" s="6"/>
-      <c r="F182" s="6" t="s">
-        <v>289</v>
-      </c>
+      <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
@@ -6213,12 +6142,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7">
-        <v>3</v>
+        <v>67</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
@@ -6235,7 +6168,7 @@
         <v>35</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
@@ -6252,7 +6185,7 @@
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
@@ -6263,22 +6196,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>292</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
       <c r="F186" s="6" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>105</v>
+        <v>298</v>
       </c>
       <c r="H186" s="6"/>
     </row>
@@ -6287,23 +6214,15 @@
         <v>186</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7">
+        <v>10</v>
+      </c>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
       <c r="H187" s="7"/>
     </row>
     <row r="188" s="4" customFormat="1" spans="1:8">
@@ -6311,20 +6230,20 @@
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>14</v>
+        <v>302</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H188" s="6"/>
     </row>
@@ -6333,18 +6252,20 @@
         <v>188</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E189" s="7"/>
       <c r="F189" s="7" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>13</v>
+        <v>287</v>
       </c>
       <c r="H189" s="7"/>
     </row>
@@ -6353,21 +6274,15 @@
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G190" s="6" t="s">
-        <v>301</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6">
+        <v>5</v>
+      </c>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
       <c r="H190" s="6"/>
     </row>
     <row r="191" s="4" customFormat="1" spans="1:8">
@@ -6375,20 +6290,22 @@
         <v>190</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="E191" s="7"/>
+        <v>306</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="F191" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H191" s="7"/>
     </row>
@@ -6397,12 +6314,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -6413,15 +6334,17 @@
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E193" s="7"/>
+        <v>317</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
@@ -6431,21 +6354,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E194" s="6"/>
-      <c r="F194" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G194" s="6" t="s">
-        <v>176</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
       <c r="H194" s="6"/>
     </row>
     <row r="195" s="4" customFormat="1" spans="1:8">
@@ -6453,15 +6374,17 @@
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E195" s="7"/>
+        <v>321</v>
+      </c>
+      <c r="E195" s="7">
+        <v>2</v>
+      </c>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
@@ -6471,21 +6394,19 @@
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>14</v>
+        <v>311</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E196" s="6"/>
-      <c r="F196" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G196" s="6" t="s">
-        <v>176</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="E196" s="6">
+        <v>10002</v>
+      </c>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
       <c r="H196" s="6"/>
     </row>
     <row r="197" s="4" customFormat="1" spans="1:8">
@@ -6493,16 +6414,12 @@
         <v>196</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D197" s="7" t="s">
-        <v>309</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
       <c r="E197" s="7">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
@@ -6519,15 +6436,11 @@
         <v>35</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="E198" s="6"/>
-      <c r="F198" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
       <c r="H198" s="6"/>
     </row>
     <row r="199" s="4" customFormat="1" spans="1:8">
@@ -6535,15 +6448,21 @@
         <v>198</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C199" s="7"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="7">
-        <v>3</v>
-      </c>
-      <c r="F199" s="7"/>
-      <c r="G199" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="H199" s="7"/>
     </row>
     <row r="200" s="4" customFormat="1" spans="1:8">
@@ -6551,17 +6470,15 @@
         <v>199</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>264</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
@@ -6571,22 +6488,20 @@
         <v>200</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>273</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="E201" s="7"/>
       <c r="F201" s="7" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="H201" s="7"/>
     </row>
@@ -6595,21 +6510,19 @@
         <v>201</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E202" s="6"/>
-      <c r="F202" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="E202" s="6">
+        <v>200</v>
+      </c>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
       <c r="H202" s="6"/>
     </row>
     <row r="203" s="4" customFormat="1" spans="1:8">
@@ -6617,15 +6530,21 @@
         <v>202</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C203" s="7"/>
-      <c r="D203" s="7"/>
-      <c r="E203" s="7">
-        <v>2</v>
-      </c>
-      <c r="F203" s="7"/>
-      <c r="G203" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="H203" s="7"/>
     </row>
     <row r="204" s="4" customFormat="1" spans="1:8">
@@ -6633,15 +6552,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E204" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6">
+        <v>3</v>
+      </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
@@ -6654,13 +6571,13 @@
         <v>67</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>99</v>
+        <v>264</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
@@ -6671,17 +6588,23 @@
         <v>205</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E206" s="6"/>
-      <c r="F206" s="6"/>
-      <c r="G206" s="6"/>
+        <v>272</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="H206" s="6"/>
     </row>
     <row r="207" s="4" customFormat="1" spans="1:8">
@@ -6689,15 +6612,21 @@
         <v>206</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C207" s="7"/>
-      <c r="D207" s="7"/>
-      <c r="E207" s="7">
-        <v>10</v>
-      </c>
-      <c r="F207" s="7"/>
-      <c r="G207" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="H207" s="7"/>
     </row>
     <row r="208" s="4" customFormat="1" spans="1:8">
@@ -6705,17 +6634,15 @@
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
-      <c r="F208" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>314</v>
-      </c>
+      <c r="E208" s="6">
+        <v>2</v>
+      </c>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
       <c r="H208" s="6"/>
     </row>
     <row r="209" s="4" customFormat="1" spans="1:8">
@@ -6723,13 +6650,15 @@
         <v>208</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C209" s="7"/>
-      <c r="D209" s="7"/>
-      <c r="E209" s="7">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E209" s="7"/>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
@@ -6739,21 +6668,19 @@
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E210" s="6"/>
-      <c r="F210" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>317</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
       <c r="H210" s="6"/>
     </row>
     <row r="211" s="4" customFormat="1" spans="1:8">
@@ -6761,21 +6688,17 @@
         <v>210</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>318</v>
+        <v>14</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="E211" s="7"/>
-      <c r="F211" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G211" s="7" t="s">
-        <v>321</v>
-      </c>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
       <c r="H211" s="7"/>
     </row>
     <row r="212" s="4" customFormat="1" spans="1:8">
@@ -6783,21 +6706,15 @@
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E212" s="6"/>
-      <c r="F212" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G212" s="6" t="s">
-        <v>287</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6">
+        <v>10</v>
+      </c>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
       <c r="H212" s="6"/>
     </row>
     <row r="213" s="4" customFormat="1" spans="1:8">
@@ -6805,15 +6722,17 @@
         <v>212</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
-      <c r="E213" s="7">
-        <v>5</v>
-      </c>
-      <c r="F213" s="7"/>
-      <c r="G213" s="7"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="H213" s="7"/>
     </row>
     <row r="214" s="4" customFormat="1" spans="1:8">
@@ -6821,762 +6740,26 @@
         <v>213</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E214" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F214" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G214" s="6" t="s">
-        <v>325</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6">
+        <v>10</v>
+      </c>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
       <c r="H214" s="6"/>
-    </row>
-    <row r="215" s="4" customFormat="1" spans="1:8">
-      <c r="A215" s="7">
-        <v>214</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D215" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E215" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F215" s="7"/>
-      <c r="G215" s="7"/>
-      <c r="H215" s="7"/>
-    </row>
-    <row r="216" s="4" customFormat="1" spans="1:8">
-      <c r="A216" s="6">
-        <v>215</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="F216" s="6"/>
-      <c r="G216" s="6"/>
-      <c r="H216" s="6"/>
-    </row>
-    <row r="217" s="4" customFormat="1" spans="1:8">
-      <c r="A217" s="7">
-        <v>216</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D217" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="E217" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F217" s="7"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="7"/>
-    </row>
-    <row r="218" s="4" customFormat="1" spans="1:8">
-      <c r="A218" s="6">
-        <v>217</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E218" s="6">
-        <v>2</v>
-      </c>
-      <c r="F218" s="6"/>
-      <c r="G218" s="6"/>
-      <c r="H218" s="6"/>
-    </row>
-    <row r="219" s="4" customFormat="1" spans="1:8">
-      <c r="A219" s="7">
-        <v>218</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D219" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="E219" s="7">
-        <v>10002</v>
-      </c>
-      <c r="F219" s="7"/>
-      <c r="G219" s="7"/>
-      <c r="H219" s="7"/>
-    </row>
-    <row r="220" s="4" customFormat="1" spans="1:8">
-      <c r="A220" s="6">
-        <v>219</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E220" s="6"/>
-      <c r="F220" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G220" s="6"/>
-      <c r="H220" s="6"/>
-    </row>
-    <row r="221" s="4" customFormat="1" spans="1:8">
-      <c r="A221" s="7">
-        <v>220</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
-      <c r="E221" s="7">
-        <v>3</v>
-      </c>
-      <c r="F221" s="7"/>
-      <c r="G221" s="7"/>
-      <c r="H221" s="7"/>
-    </row>
-    <row r="222" s="4" customFormat="1" spans="1:8">
-      <c r="A222" s="6">
-        <v>221</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E222" s="6"/>
-      <c r="F222" s="6"/>
-      <c r="G222" s="6"/>
-      <c r="H222" s="6"/>
-    </row>
-    <row r="223" s="4" customFormat="1" spans="1:8">
-      <c r="A223" s="7">
-        <v>222</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="7">
-        <v>1</v>
-      </c>
-      <c r="F223" s="7"/>
-      <c r="G223" s="7"/>
-      <c r="H223" s="7"/>
-    </row>
-    <row r="224" s="4" customFormat="1" spans="1:8">
-      <c r="A224" s="6">
-        <v>223</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F224" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G224" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H224" s="6"/>
-    </row>
-    <row r="225" s="4" customFormat="1" spans="1:8">
-      <c r="A225" s="7">
-        <v>224</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E225" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F225" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G225" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H225" s="7"/>
-    </row>
-    <row r="226" s="4" customFormat="1" spans="1:8">
-      <c r="A226" s="6">
-        <v>225</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E226" s="6"/>
-      <c r="F226" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G226" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H226" s="6"/>
-    </row>
-    <row r="227" s="4" customFormat="1" spans="1:8">
-      <c r="A227" s="7">
-        <v>226</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="7">
-        <v>4</v>
-      </c>
-      <c r="F227" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G227" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H227" s="7"/>
-    </row>
-    <row r="228" s="4" customFormat="1" spans="1:8">
-      <c r="A228" s="6">
-        <v>227</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D228" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E228" s="6"/>
-      <c r="F228" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G228" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="H228" s="6"/>
-    </row>
-    <row r="229" s="4" customFormat="1" spans="1:8">
-      <c r="A229" s="7">
-        <v>228</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D229" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="E229" s="7"/>
-      <c r="F229" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G229" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H229" s="7"/>
-    </row>
-    <row r="230" s="4" customFormat="1" spans="1:8">
-      <c r="A230" s="6">
-        <v>229</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="6">
-        <v>1</v>
-      </c>
-      <c r="F230" s="6"/>
-      <c r="G230" s="6"/>
-      <c r="H230" s="6"/>
-    </row>
-    <row r="231" s="4" customFormat="1" spans="1:8">
-      <c r="A231" s="7">
-        <v>230</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D231" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E231" s="7"/>
-      <c r="F231" s="7"/>
-      <c r="G231" s="7"/>
-      <c r="H231" s="7"/>
-    </row>
-    <row r="232" s="4" customFormat="1" spans="1:8">
-      <c r="A232" s="6">
-        <v>231</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D232" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E232" s="6"/>
-      <c r="F232" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G232" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H232" s="6"/>
-    </row>
-    <row r="233" s="4" customFormat="1" spans="1:8">
-      <c r="A233" s="7">
-        <v>232</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E233" s="7"/>
-      <c r="F233" s="7"/>
-      <c r="G233" s="7"/>
-      <c r="H233" s="7"/>
-    </row>
-    <row r="234" s="4" customFormat="1" spans="1:8">
-      <c r="A234" s="6">
-        <v>233</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D234" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E234" s="6"/>
-      <c r="F234" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G234" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H234" s="6"/>
-    </row>
-    <row r="235" s="4" customFormat="1" spans="1:8">
-      <c r="A235" s="7">
-        <v>234</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D235" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="E235" s="7">
-        <v>200</v>
-      </c>
-      <c r="F235" s="7"/>
-      <c r="G235" s="7"/>
-      <c r="H235" s="7"/>
-    </row>
-    <row r="236" s="4" customFormat="1" spans="1:8">
-      <c r="A236" s="6">
-        <v>235</v>
-      </c>
-      <c r="B236" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D236" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E236" s="6"/>
-      <c r="F236" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G236" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H236" s="6"/>
-    </row>
-    <row r="237" s="4" customFormat="1" spans="1:8">
-      <c r="A237" s="7">
-        <v>236</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C237" s="7"/>
-      <c r="D237" s="7"/>
-      <c r="E237" s="7">
-        <v>3</v>
-      </c>
-      <c r="F237" s="7"/>
-      <c r="G237" s="7"/>
-      <c r="H237" s="7"/>
-    </row>
-    <row r="238" s="4" customFormat="1" spans="1:8">
-      <c r="A238" s="6">
-        <v>237</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D238" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E238" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F238" s="6"/>
-      <c r="G238" s="6"/>
-      <c r="H238" s="6"/>
-    </row>
-    <row r="239" s="4" customFormat="1" spans="1:8">
-      <c r="A239" s="7">
-        <v>238</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D239" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E239" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F239" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G239" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H239" s="7"/>
-    </row>
-    <row r="240" s="4" customFormat="1" spans="1:8">
-      <c r="A240" s="6">
-        <v>239</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E240" s="6"/>
-      <c r="F240" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G240" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H240" s="6"/>
-    </row>
-    <row r="241" s="4" customFormat="1" spans="1:8">
-      <c r="A241" s="7">
-        <v>240</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C241" s="7"/>
-      <c r="D241" s="7"/>
-      <c r="E241" s="7">
-        <v>2</v>
-      </c>
-      <c r="F241" s="7"/>
-      <c r="G241" s="7"/>
-      <c r="H241" s="7"/>
-    </row>
-    <row r="242" s="4" customFormat="1" spans="1:8">
-      <c r="A242" s="6">
-        <v>241</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D242" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E242" s="6"/>
-      <c r="F242" s="6"/>
-      <c r="G242" s="6"/>
-      <c r="H242" s="6"/>
-    </row>
-    <row r="243" s="4" customFormat="1" spans="1:8">
-      <c r="A243" s="7">
-        <v>242</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C243" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D243" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E243" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F243" s="7"/>
-      <c r="G243" s="7"/>
-      <c r="H243" s="7"/>
-    </row>
-    <row r="244" s="4" customFormat="1" spans="1:8">
-      <c r="A244" s="6">
-        <v>243</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D244" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E244" s="6"/>
-      <c r="F244" s="6"/>
-      <c r="G244" s="6"/>
-      <c r="H244" s="6"/>
-    </row>
-    <row r="245" s="4" customFormat="1" spans="1:8">
-      <c r="A245" s="7">
-        <v>244</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C245" s="7"/>
-      <c r="D245" s="7"/>
-      <c r="E245" s="7">
-        <v>10</v>
-      </c>
-      <c r="F245" s="7"/>
-      <c r="G245" s="7"/>
-      <c r="H245" s="7"/>
-    </row>
-    <row r="246" s="4" customFormat="1" spans="1:8">
-      <c r="A246" s="6">
-        <v>245</v>
-      </c>
-      <c r="B246" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G246" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="H246" s="6"/>
-    </row>
-    <row r="247" s="4" customFormat="1" spans="1:8">
-      <c r="A247" s="7">
-        <v>246</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C247" s="7"/>
-      <c r="D247" s="7"/>
-      <c r="E247" s="7">
-        <v>10</v>
-      </c>
-      <c r="F247" s="7"/>
-      <c r="G247" s="7"/>
-      <c r="H247" s="7"/>
-    </row>
-    <row r="248" s="4" customFormat="1" spans="1:8">
-      <c r="A248" s="6">
-        <v>247</v>
-      </c>
-      <c r="B248" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D248" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E248" s="6"/>
-      <c r="F248" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G248" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="H248" s="6"/>
-    </row>
-    <row r="249" s="4" customFormat="1" spans="1:8">
-      <c r="A249" s="7">
-        <v>248</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C249" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D249" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="E249" s="7"/>
-      <c r="F249" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G249" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H249" s="7"/>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" s="7">
-        <v>250</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D250" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="E250" s="7"/>
-      <c r="F250" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G250" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H250" s="7"/>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" s="8">
-        <v>251</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C251" s="6"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6">
-        <v>4</v>
-      </c>
-      <c r="F251" s="6"/>
-      <c r="G251" s="6"/>
-      <c r="H251" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142 B173 B174 B179 B212 B213 B216 B217 B218 B219 B1:B141 B143:B144 B145:B146 B154:B163 B164:B172 B175:B176 B177:B178 B180:B181 B182:B183 B184:B185 B193:B202 B203:B211 B214:B215 B220:B221 B222:B223 B231:B240 B241:B249 B250:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142 B162 B163 B168 B188 B189 B190 B193 B194 B195 B196 B1:B141 B143:B152 B153:B161 B164:B165 B166:B167 B169:B170 B171:B180 B181:B187 B191:B192 B198:B207 B208:B214 B215:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C173 C179 C180 C212 C218 C219 C1:C141 C142:C144 C145:C146 C154:C163 C164:C172 C174:C176 C177:C178 C182:C183 C184:C185 C193:C202 C203:C211 C213:C215 C216:C217 C220:C221 C222:C223 C231:C240 C241:C249 C250:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C142 C162 C168 C169 C188 C189 C195 C196 C1:C141 C143:C152 C153:C161 C163:C165 C166:C167 C171:C180 C181:C187 C190:C192 C193:C194 C198:C207 C208:C214 C215:C1048576">
       <formula1>DataList!$A$2:$A$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B147:B153 B186:B192 B224:B230">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B197">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7607,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7615,20 +6798,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -7639,20 +6822,20 @@
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="C6" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -7660,47 +6843,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C8" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -7710,12 +6893,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -7725,17 +6908,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -7745,35 +6928,35 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -7783,62 +6966,62 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -7848,87 +7031,87 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -7938,199 +7121,199 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -8145,17 +7328,17 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -1320,24 +1320,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1351,14 +1335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1367,15 +1343,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,6 +1374,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1406,22 +1420,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1434,9 +1440,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1444,21 +1458,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1485,7 +1485,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,19 +1545,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,13 +1605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,13 +1623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,7 +1647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,91 +1665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,45 +1726,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1788,6 +1749,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1805,18 +1792,31 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1834,130 +1834,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2324,8 +2324,8 @@
   <sheetPr/>
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="F188" sqref="F188"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3351,7 +3351,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
@@ -3627,7 +3627,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>12</v>
@@ -4069,7 +4069,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>12</v>
@@ -4129,7 +4129,7 @@
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>12</v>
@@ -4273,7 +4273,7 @@
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>12</v>
@@ -4561,7 +4561,7 @@
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>12</v>
@@ -4951,7 +4951,7 @@
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
@@ -5083,7 +5083,7 @@
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>12</v>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -1,32 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696B3BF6-64C2-49F1-A0D2-AE68A405ACD9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="419">
   <si>
     <t>Step No</t>
   </si>
@@ -385,9 +391,6 @@
     <t>CONTACT_SEQUENCE</t>
   </si>
   <si>
-    <t>primary</t>
-  </si>
-  <si>
     <t>APP_AUTHORIZE_PERSON</t>
   </si>
   <si>
@@ -1283,19 +1286,16 @@
   </si>
   <si>
     <t>SikuliClick</t>
+  </si>
+  <si>
+    <t>Primary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1319,152 +1319,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1479,198 +1335,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1680,16 +1350,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1697,10 +1367,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1708,258 +1378,16 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1971,68 +1399,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2047,18 +1431,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="LocateBy"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Actions"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2316,29 +1700,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
-    <col min="6" max="6" width="55.5714285714286" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85714285714286" style="4"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="55.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3313,7 +2697,7 @@
         <v>118</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>119</v>
+        <v>418</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -3372,7 +2756,7 @@
         <v>35</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -3390,13 +2774,13 @@
         <v>15</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>30</v>
@@ -3414,13 +2798,13 @@
         <v>15</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>34</v>
@@ -3438,16 +2822,16 @@
         <v>35</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -3462,16 +2846,16 @@
         <v>15</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="G52" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="H52" s="6"/>
     </row>
@@ -3486,13 +2870,13 @@
         <v>35</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>105</v>
@@ -3510,13 +2894,13 @@
         <v>15</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>109</v>
@@ -3534,16 +2918,16 @@
         <v>15</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E55" s="7">
         <v>10001</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -3558,16 +2942,16 @@
         <v>15</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" s="6">
         <v>9789123456</v>
       </c>
       <c r="F56" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="H56" s="6"/>
     </row>
@@ -3582,16 +2966,16 @@
         <v>15</v>
       </c>
       <c r="D57" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -3648,16 +3032,16 @@
         <v>35</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="G60" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="H60" s="6"/>
     </row>
@@ -3682,16 +3066,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="H62" s="6"/>
     </row>
@@ -3706,16 +3090,16 @@
         <v>35</v>
       </c>
       <c r="D63" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -3730,16 +3114,16 @@
         <v>15</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="F64" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="H64" s="6"/>
     </row>
@@ -3754,16 +3138,16 @@
         <v>35</v>
       </c>
       <c r="D65" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="F65" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -3778,16 +3162,16 @@
         <v>15</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>99</v>
       </c>
       <c r="F66" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="H66" s="6"/>
     </row>
@@ -3802,16 +3186,16 @@
         <v>15</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E67" s="7">
         <v>1235647899</v>
       </c>
       <c r="F67" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -3826,7 +3210,7 @@
         <v>35</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -3844,14 +3228,14 @@
         <v>35</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -3866,16 +3250,16 @@
         <v>15</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E70" s="6">
         <v>97890456789</v>
       </c>
       <c r="F70" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="H70" s="6"/>
     </row>
@@ -3890,14 +3274,14 @@
         <v>35</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -3912,13 +3296,13 @@
         <v>35</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E72" s="6">
         <v>1230</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>22</v>
@@ -3936,13 +3320,13 @@
         <v>35</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E73" s="7">
         <v>1550</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>22</v>
@@ -3960,11 +3344,11 @@
         <v>35</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>22</v>
@@ -3982,14 +3366,14 @@
         <v>35</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -4004,14 +3388,14 @@
         <v>35</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H76" s="6"/>
     </row>
@@ -4026,14 +3410,14 @@
         <v>35</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H77" s="7"/>
     </row>
@@ -4090,7 +3474,7 @@
         <v>35</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -4150,16 +3534,16 @@
         <v>35</v>
       </c>
       <c r="D83" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -4184,16 +3568,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -4208,14 +3592,14 @@
         <v>35</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="H86" s="6"/>
     </row>
@@ -4230,14 +3614,14 @@
         <v>35</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H87" s="7"/>
     </row>
@@ -4294,14 +3678,14 @@
         <v>35</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="H90" s="6"/>
     </row>
@@ -4332,7 +3716,7 @@
         <v>35</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -4366,14 +3750,14 @@
         <v>35</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="H94" s="6"/>
     </row>
@@ -4390,10 +3774,10 @@
         <v>3</v>
       </c>
       <c r="F95" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H95" s="7"/>
     </row>
@@ -4408,14 +3792,14 @@
         <v>35</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G96" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="H96" s="6"/>
     </row>
@@ -4430,14 +3814,14 @@
         <v>35</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -4468,16 +3852,16 @@
         <v>15</v>
       </c>
       <c r="D99" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="F99" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H99" s="7"/>
     </row>
@@ -4492,16 +3876,16 @@
         <v>15</v>
       </c>
       <c r="D100" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="F100" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="G100" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="H100" s="6"/>
     </row>
@@ -4516,16 +3900,16 @@
         <v>15</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E101" s="7">
         <v>9889656446</v>
       </c>
       <c r="F101" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H101" s="7"/>
     </row>
@@ -4540,14 +3924,14 @@
         <v>15</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G102" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="H102" s="6"/>
     </row>
@@ -4576,20 +3960,20 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G104" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="H104" s="6"/>
     </row>
@@ -4598,20 +3982,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H105" s="7"/>
     </row>
@@ -4620,20 +4004,20 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H106" s="6"/>
     </row>
@@ -4642,20 +4026,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -4664,20 +4048,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H108" s="6"/>
     </row>
@@ -4686,20 +4070,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -4708,20 +4092,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H110" s="6"/>
     </row>
@@ -4730,20 +4114,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -4758,14 +4142,14 @@
         <v>35</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G112" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="H112" s="6"/>
     </row>
@@ -4785,7 +4169,7 @@
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" s="4" customFormat="1" spans="1:8">
+    <row r="114" spans="1:8">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -4807,7 +4191,7 @@
       </c>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" s="4" customFormat="1" spans="1:8">
+    <row r="115" spans="1:8">
       <c r="A115" s="7">
         <v>114</v>
       </c>
@@ -4823,7 +4207,7 @@
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" s="4" customFormat="1" spans="1:8">
+    <row r="116" spans="1:8">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -4843,7 +4227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" s="4" customFormat="1" spans="1:8">
+    <row r="117" spans="1:8">
       <c r="A117" s="7">
         <v>116</v>
       </c>
@@ -4865,7 +4249,7 @@
       </c>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" s="4" customFormat="1" spans="1:8">
+    <row r="118" spans="1:8">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -4908,14 +4292,14 @@
         <v>35</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G120" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="H120" s="6"/>
     </row>
@@ -4930,14 +4314,14 @@
         <v>15</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -4968,14 +4352,14 @@
         <v>35</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H123" s="7"/>
     </row>
@@ -4990,16 +4374,16 @@
         <v>15</v>
       </c>
       <c r="D124" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="F124" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="G124" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="H124" s="6"/>
     </row>
@@ -5014,16 +4398,16 @@
         <v>35</v>
       </c>
       <c r="D125" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E125" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="F125" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="G125" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -5032,22 +4416,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D126" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="F126" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="G126" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="H126" s="6"/>
     </row>
@@ -5066,10 +4450,10 @@
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -5098,7 +4482,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -5138,14 +4522,14 @@
         <v>15</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -5165,7 +4549,7 @@
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" s="4" customFormat="1" spans="1:8">
+    <row r="133" spans="1:8">
       <c r="A133" s="7">
         <v>132</v>
       </c>
@@ -5187,7 +4571,7 @@
       </c>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" s="4" customFormat="1" spans="1:8">
+    <row r="134" spans="1:8">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -5203,7 +4587,7 @@
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" s="4" customFormat="1" spans="1:8">
+    <row r="135" spans="1:8">
       <c r="A135" s="7">
         <v>134</v>
       </c>
@@ -5223,7 +4607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" s="4" customFormat="1" spans="1:8">
+    <row r="136" spans="1:8">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -5245,7 +4629,7 @@
       </c>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" s="4" customFormat="1" spans="1:8">
+    <row r="137" spans="1:8">
       <c r="A137" s="7">
         <v>136</v>
       </c>
@@ -5272,14 +4656,14 @@
         <v>35</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G138" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="H138" s="6"/>
     </row>
@@ -5294,14 +4678,14 @@
         <v>15</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G139" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H139" s="7"/>
     </row>
@@ -5332,18 +4716,18 @@
         <v>35</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G141" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" s="4" customFormat="1" spans="1:8">
+    <row r="142" spans="1:8">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -5359,7 +4743,7 @@
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" s="4" customFormat="1" spans="1:8">
+    <row r="143" spans="1:8">
       <c r="A143" s="7">
         <v>142</v>
       </c>
@@ -5370,14 +4754,14 @@
         <v>35</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" s="4" customFormat="1" spans="1:8">
+    <row r="144" spans="1:8">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -5388,18 +4772,18 @@
         <v>35</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G144" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G144" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" s="4" customFormat="1" spans="1:8">
+    <row r="145" spans="1:8">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -5410,14 +4794,14 @@
         <v>35</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" s="4" customFormat="1" spans="1:8">
+    <row r="146" spans="1:8">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -5428,18 +4812,18 @@
         <v>35</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G146" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G146" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" s="4" customFormat="1" spans="1:8">
+    <row r="147" spans="1:8">
       <c r="A147" s="7">
         <v>146</v>
       </c>
@@ -5450,7 +4834,7 @@
         <v>35</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E147" s="7">
         <v>200</v>
@@ -5459,7 +4843,7 @@
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" s="4" customFormat="1" spans="1:8">
+    <row r="148" spans="1:8">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -5470,7 +4854,7 @@
         <v>35</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
@@ -5481,7 +4865,7 @@
       </c>
       <c r="H148" s="6"/>
     </row>
-    <row r="149" s="4" customFormat="1" spans="1:8">
+    <row r="149" spans="1:8">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -5497,7 +4881,7 @@
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" s="4" customFormat="1" spans="1:8">
+    <row r="150" spans="1:8">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -5508,40 +4892,40 @@
         <v>15</v>
       </c>
       <c r="D150" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E150" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
-    <row r="151" s="4" customFormat="1" spans="1:8">
+    <row r="151" spans="1:8">
       <c r="A151" s="7">
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D151" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C151" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D151" s="7" t="s">
+      <c r="E151" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="F151" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F151" s="7" t="s">
+      <c r="G151" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G151" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" s="4" customFormat="1" spans="1:8">
+    <row r="152" spans="1:8">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -5552,7 +4936,7 @@
         <v>35</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6" t="s">
@@ -5563,7 +4947,7 @@
       </c>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" s="4" customFormat="1" spans="1:8">
+    <row r="153" spans="1:8">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -5579,7 +4963,7 @@
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" s="4" customFormat="1" spans="1:8">
+    <row r="154" spans="1:8">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -5590,14 +4974,14 @@
         <v>35</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" s="4" customFormat="1" spans="1:8">
+    <row r="155" spans="1:8">
       <c r="A155" s="7">
         <v>154</v>
       </c>
@@ -5608,7 +4992,7 @@
         <v>35</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>99</v>
@@ -5617,7 +5001,7 @@
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" s="4" customFormat="1" spans="1:8">
+    <row r="156" spans="1:8">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -5628,16 +5012,16 @@
         <v>35</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" s="4" customFormat="1" spans="1:8">
+    <row r="157" spans="1:8">
       <c r="A157" s="7">
         <v>156</v>
       </c>
@@ -5653,25 +5037,25 @@
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" s="4" customFormat="1" spans="1:8">
+    <row r="158" spans="1:8">
       <c r="A158" s="6">
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G158" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="G158" s="6" t="s">
-        <v>298</v>
-      </c>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" s="4" customFormat="1" spans="1:8">
+    <row r="159" spans="1:8">
       <c r="A159" s="7">
         <v>158</v>
       </c>
@@ -5687,51 +5071,51 @@
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" s="4" customFormat="1" spans="1:8">
+    <row r="160" spans="1:8">
       <c r="A160" s="6">
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G160" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="G160" s="6" t="s">
-        <v>301</v>
-      </c>
       <c r="H160" s="6"/>
     </row>
-    <row r="161" s="4" customFormat="1" spans="1:8">
+    <row r="161" spans="1:8">
       <c r="A161" s="7">
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D161" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G161" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G161" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" s="4" customFormat="1" spans="1:8">
+    <row r="162" spans="1:8">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -5742,18 +5126,18 @@
         <v>35</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G162" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G162" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="H162" s="6"/>
     </row>
-    <row r="163" s="4" customFormat="1" spans="1:8">
+    <row r="163" spans="1:8">
       <c r="A163" s="7">
         <v>162</v>
       </c>
@@ -5769,7 +5153,7 @@
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" s="4" customFormat="1" spans="1:8">
+    <row r="164" spans="1:8">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -5780,20 +5164,20 @@
         <v>35</v>
       </c>
       <c r="D164" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E164" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E164" s="6" t="s">
+      <c r="F164" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="G164" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="G164" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" s="4" customFormat="1" spans="1:8">
+    <row r="165" spans="1:8">
       <c r="A165" s="7">
         <v>164</v>
       </c>
@@ -5804,14 +5188,14 @@
         <v>15</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" s="4" customFormat="1" spans="1:8">
+    <row r="166" spans="1:8">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -5827,18 +5211,18 @@
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
-    <row r="167" s="4" customFormat="1" spans="1:8">
+    <row r="167" spans="1:8">
       <c r="A167" s="7">
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E167" s="7">
         <v>10002</v>
@@ -5847,7 +5231,7 @@
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" s="4" customFormat="1" spans="1:8">
+    <row r="168" spans="1:8">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -5858,14 +5242,14 @@
         <v>15</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
-    <row r="169" s="4" customFormat="1" spans="1:8">
+    <row r="169" spans="1:8">
       <c r="A169" s="7">
         <v>168</v>
       </c>
@@ -5881,25 +5265,25 @@
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" s="4" customFormat="1" spans="1:8">
+    <row r="170" spans="1:8">
       <c r="A170" s="6">
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
-    <row r="171" s="4" customFormat="1" spans="1:8">
+    <row r="171" spans="1:8">
       <c r="A171" s="7">
         <v>170</v>
       </c>
@@ -5910,14 +5294,14 @@
         <v>35</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" s="4" customFormat="1" spans="1:8">
+    <row r="172" spans="1:8">
       <c r="A172" s="6">
         <v>171</v>
       </c>
@@ -5928,18 +5312,18 @@
         <v>35</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G172" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G172" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="H172" s="6"/>
     </row>
-    <row r="173" s="4" customFormat="1" spans="1:8">
+    <row r="173" spans="1:8">
       <c r="A173" s="7">
         <v>172</v>
       </c>
@@ -5950,14 +5334,14 @@
         <v>35</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" s="4" customFormat="1" spans="1:8">
+    <row r="174" spans="1:8">
       <c r="A174" s="6">
         <v>173</v>
       </c>
@@ -5968,18 +5352,18 @@
         <v>35</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G174" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G174" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="H174" s="6"/>
     </row>
-    <row r="175" s="4" customFormat="1" spans="1:8">
+    <row r="175" spans="1:8">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -5990,7 +5374,7 @@
         <v>35</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E175" s="7">
         <v>200</v>
@@ -5999,7 +5383,7 @@
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" s="4" customFormat="1" spans="1:8">
+    <row r="176" spans="1:8">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -6010,7 +5394,7 @@
         <v>35</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
@@ -6021,7 +5405,7 @@
       </c>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" s="4" customFormat="1" spans="1:8">
+    <row r="177" spans="1:8">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -6037,7 +5421,7 @@
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
     </row>
-    <row r="178" s="4" customFormat="1" spans="1:8">
+    <row r="178" spans="1:8">
       <c r="A178" s="6">
         <v>177</v>
       </c>
@@ -6048,40 +5432,40 @@
         <v>15</v>
       </c>
       <c r="D178" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E178" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
     </row>
-    <row r="179" s="4" customFormat="1" spans="1:8">
+    <row r="179" spans="1:8">
       <c r="A179" s="7">
         <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D179" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C179" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D179" s="7" t="s">
+      <c r="E179" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E179" s="7" t="s">
+      <c r="F179" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F179" s="7" t="s">
+      <c r="G179" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G179" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="H179" s="7"/>
     </row>
-    <row r="180" s="4" customFormat="1" spans="1:8">
+    <row r="180" spans="1:8">
       <c r="A180" s="6">
         <v>179</v>
       </c>
@@ -6092,7 +5476,7 @@
         <v>35</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6" t="s">
@@ -6103,7 +5487,7 @@
       </c>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" s="4" customFormat="1" spans="1:8">
+    <row r="181" spans="1:8">
       <c r="A181" s="7">
         <v>180</v>
       </c>
@@ -6119,7 +5503,7 @@
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" s="4" customFormat="1" spans="1:8">
+    <row r="182" spans="1:8">
       <c r="A182" s="6">
         <v>181</v>
       </c>
@@ -6130,14 +5514,14 @@
         <v>35</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
-    <row r="183" s="4" customFormat="1" spans="1:8">
+    <row r="183" spans="1:8">
       <c r="A183" s="7">
         <v>182</v>
       </c>
@@ -6148,7 +5532,7 @@
         <v>35</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>99</v>
@@ -6157,7 +5541,7 @@
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" s="4" customFormat="1" spans="1:8">
+    <row r="184" spans="1:8">
       <c r="A184" s="6">
         <v>183</v>
       </c>
@@ -6168,14 +5552,14 @@
         <v>35</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" s="4" customFormat="1" spans="1:8">
+    <row r="185" spans="1:8">
       <c r="A185" s="7">
         <v>184</v>
       </c>
@@ -6191,25 +5575,25 @@
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
     </row>
-    <row r="186" s="4" customFormat="1" spans="1:8">
+    <row r="186" spans="1:8">
       <c r="A186" s="6">
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G186" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="G186" s="6" t="s">
-        <v>298</v>
-      </c>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" s="4" customFormat="1" spans="1:8">
+    <row r="187" spans="1:8">
       <c r="A187" s="7">
         <v>186</v>
       </c>
@@ -6225,29 +5609,29 @@
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" s="4" customFormat="1" spans="1:8">
+    <row r="188" spans="1:8">
       <c r="A188" s="6">
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D188" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G188" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="G188" s="6" t="s">
-        <v>305</v>
-      </c>
       <c r="H188" s="6"/>
     </row>
-    <row r="189" s="4" customFormat="1" spans="1:8">
+    <row r="189" spans="1:8">
       <c r="A189" s="7">
         <v>188</v>
       </c>
@@ -6258,18 +5642,18 @@
         <v>35</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G189" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G189" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" s="4" customFormat="1" spans="1:8">
+    <row r="190" spans="1:8">
       <c r="A190" s="6">
         <v>189</v>
       </c>
@@ -6285,7 +5669,7 @@
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
     </row>
-    <row r="191" s="4" customFormat="1" spans="1:8">
+    <row r="191" spans="1:8">
       <c r="A191" s="7">
         <v>190</v>
       </c>
@@ -6296,20 +5680,20 @@
         <v>35</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" s="4" customFormat="1" spans="1:8">
+    <row r="192" spans="1:8">
       <c r="A192" s="6">
         <v>191</v>
       </c>
@@ -6320,16 +5704,16 @@
         <v>15</v>
       </c>
       <c r="D192" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E192" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
     </row>
-    <row r="193" s="4" customFormat="1" spans="1:8">
+    <row r="193" spans="1:8">
       <c r="A193" s="7">
         <v>192</v>
       </c>
@@ -6340,16 +5724,16 @@
         <v>15</v>
       </c>
       <c r="D193" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E193" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" s="4" customFormat="1" spans="1:8">
+    <row r="194" spans="1:8">
       <c r="A194" s="6">
         <v>193</v>
       </c>
@@ -6360,7 +5744,7 @@
         <v>15</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>107</v>
@@ -6369,18 +5753,18 @@
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
     </row>
-    <row r="195" s="4" customFormat="1" spans="1:8">
+    <row r="195" spans="1:8">
       <c r="A195" s="7">
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D195" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="E195" s="7">
         <v>2</v>
@@ -6389,18 +5773,18 @@
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
     </row>
-    <row r="196" s="4" customFormat="1" spans="1:8">
+    <row r="196" spans="1:8">
       <c r="A196" s="6">
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E196" s="6">
         <v>10002</v>
@@ -6409,7 +5793,7 @@
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
     </row>
-    <row r="197" s="4" customFormat="1" spans="1:8">
+    <row r="197" spans="1:8">
       <c r="A197" s="7">
         <v>196</v>
       </c>
@@ -6425,7 +5809,7 @@
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
     </row>
-    <row r="198" s="4" customFormat="1" spans="1:8">
+    <row r="198" spans="1:8">
       <c r="A198" s="6">
         <v>197</v>
       </c>
@@ -6436,14 +5820,14 @@
         <v>35</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
     </row>
-    <row r="199" s="4" customFormat="1" spans="1:8">
+    <row r="199" spans="1:8">
       <c r="A199" s="7">
         <v>198</v>
       </c>
@@ -6454,18 +5838,18 @@
         <v>35</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E199" s="7"/>
       <c r="F199" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G199" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G199" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="H199" s="7"/>
     </row>
-    <row r="200" s="4" customFormat="1" spans="1:8">
+    <row r="200" spans="1:8">
       <c r="A200" s="6">
         <v>199</v>
       </c>
@@ -6476,14 +5860,14 @@
         <v>35</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
     </row>
-    <row r="201" s="4" customFormat="1" spans="1:8">
+    <row r="201" spans="1:8">
       <c r="A201" s="7">
         <v>200</v>
       </c>
@@ -6494,18 +5878,18 @@
         <v>35</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G201" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G201" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="H201" s="7"/>
     </row>
-    <row r="202" s="4" customFormat="1" spans="1:8">
+    <row r="202" spans="1:8">
       <c r="A202" s="6">
         <v>201</v>
       </c>
@@ -6516,7 +5900,7 @@
         <v>35</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E202" s="6">
         <v>200</v>
@@ -6525,7 +5909,7 @@
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
     </row>
-    <row r="203" s="4" customFormat="1" spans="1:8">
+    <row r="203" spans="1:8">
       <c r="A203" s="7">
         <v>202</v>
       </c>
@@ -6536,7 +5920,7 @@
         <v>35</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="7" t="s">
@@ -6547,7 +5931,7 @@
       </c>
       <c r="H203" s="7"/>
     </row>
-    <row r="204" s="4" customFormat="1" spans="1:8">
+    <row r="204" spans="1:8">
       <c r="A204" s="6">
         <v>203</v>
       </c>
@@ -6563,7 +5947,7 @@
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
     </row>
-    <row r="205" s="4" customFormat="1" spans="1:8">
+    <row r="205" spans="1:8">
       <c r="A205" s="7">
         <v>204</v>
       </c>
@@ -6574,40 +5958,40 @@
         <v>15</v>
       </c>
       <c r="D205" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E205" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
     </row>
-    <row r="206" s="4" customFormat="1" spans="1:8">
+    <row r="206" spans="1:8">
       <c r="A206" s="6">
         <v>205</v>
       </c>
       <c r="B206" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D206" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D206" s="6" t="s">
+      <c r="E206" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E206" s="6" t="s">
+      <c r="F206" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="F206" s="6" t="s">
+      <c r="G206" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G206" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="H206" s="6"/>
     </row>
-    <row r="207" s="4" customFormat="1" spans="1:8">
+    <row r="207" spans="1:8">
       <c r="A207" s="7">
         <v>206</v>
       </c>
@@ -6618,7 +6002,7 @@
         <v>35</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E207" s="7"/>
       <c r="F207" s="7" t="s">
@@ -6629,7 +6013,7 @@
       </c>
       <c r="H207" s="7"/>
     </row>
-    <row r="208" s="4" customFormat="1" spans="1:8">
+    <row r="208" spans="1:8">
       <c r="A208" s="6">
         <v>207</v>
       </c>
@@ -6645,7 +6029,7 @@
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
     </row>
-    <row r="209" s="4" customFormat="1" spans="1:8">
+    <row r="209" spans="1:8">
       <c r="A209" s="7">
         <v>208</v>
       </c>
@@ -6656,14 +6040,14 @@
         <v>35</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
     </row>
-    <row r="210" s="4" customFormat="1" spans="1:8">
+    <row r="210" spans="1:8">
       <c r="A210" s="6">
         <v>209</v>
       </c>
@@ -6674,7 +6058,7 @@
         <v>35</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>99</v>
@@ -6683,7 +6067,7 @@
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
     </row>
-    <row r="211" s="4" customFormat="1" spans="1:8">
+    <row r="211" spans="1:8">
       <c r="A211" s="7">
         <v>210</v>
       </c>
@@ -6694,14 +6078,14 @@
         <v>35</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
       <c r="H211" s="7"/>
     </row>
-    <row r="212" s="4" customFormat="1" spans="1:8">
+    <row r="212" spans="1:8">
       <c r="A212" s="6">
         <v>211</v>
       </c>
@@ -6717,25 +6101,25 @@
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
     </row>
-    <row r="213" s="4" customFormat="1" spans="1:8">
+    <row r="213" spans="1:8">
       <c r="A213" s="7">
         <v>212</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
       <c r="F213" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G213" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G213" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="H213" s="7"/>
     </row>
-    <row r="214" s="4" customFormat="1" spans="1:8">
+    <row r="214" spans="1:8">
       <c r="A214" s="6">
         <v>213</v>
       </c>
@@ -6752,573 +6136,584 @@
       <c r="H214" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142 B162 B163 B168 B188 B189 B190 B193 B194 B195 B196 B1:B141 B143:B152 B153:B161 B164:B165 B166:B167 B169:B170 B171:B180 B181:B187 B191:B192 B198:B207 B208:B214 B215:B1048576">
-      <formula1>DataList!$C$2:$C$109</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C142 C162 C168 C169 C188 C189 C195 C196 C1:C141 C143:C152 C153:C161 C163:C165 C166:C167 C171:C180 C181:C187 C190:C192 C193:C194 C198:C207 C208:C214 C215:C1048576">
-      <formula1>DataList!$A$2:$A$14</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B197">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>DataList!$C$2:$C$109</xm:f>
+          </x14:formula1>
+          <xm:sqref>B142 B162 B163 B168 B188 B189 B190 B193 B194 B195 B196 B1:B141 B143:B152 B153:B161 B164:B165 B166:B167 B169:B170 B171:B180 B181:B187 B191:B192 B198:B207 B208:B214 B215:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>DataList!$A$2:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>C142 C162 C168 C169 C188 C189 C195 C196 C1:C141 C143:C152 C153:C161 C163:C165 C166:C167 C171:C180 C181:C187 C190:C192 C193:C194 C198:C207 C208:C214 C215:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Patient\[PatientApp_Process_Pending_DCase.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B197</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>324</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>326</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>328</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>330</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>331</v>
-      </c>
-      <c r="C8" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>336</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>338</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="C16" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
         <v>347</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
+    <row r="66" spans="3:4">
+      <c r="C66" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
+    <row r="67" spans="3:4">
+      <c r="C67" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
+    <row r="69" spans="3:4">
+      <c r="C69" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="70" spans="3:4">
+      <c r="C70" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" t="s">
         <v>390</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" t="s">
         <v>392</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
+    <row r="76" spans="3:4">
+      <c r="C76" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
+    <row r="77" spans="3:4">
+      <c r="C77" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" t="s">
         <v>398</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -7328,28 +6723,27 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696B3BF6-64C2-49F1-A0D2-AE68A405ACD9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418">
   <si>
     <t>Step No</t>
   </si>
@@ -388,6 +382,9 @@
     <t>CONTACT_PNONE_NUMBER</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>CONTACT_SEQUENCE</t>
   </si>
   <si>
@@ -991,9 +988,6 @@
     <t>CLAIM_PAYABLE_CITY</t>
   </si>
   <si>
-    <t>SelectByIndex</t>
-  </si>
-  <si>
     <t>CLAIM_PAYABLE_STATE</t>
   </si>
   <si>
@@ -1286,16 +1280,19 @@
   </si>
   <si>
     <t>SikuliClick</t>
-  </si>
-  <si>
-    <t>Primary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1319,8 +1316,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1335,12 +1476,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1350,16 +1677,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1367,10 +1694,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1378,16 +1705,258 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1399,24 +1968,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1431,18 +2044,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
+    <tableColumn id="1" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
+    <tableColumn id="1" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1700,29 +2313,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="55.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="55.5714285714286" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85714285714286" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2688,16 +3301,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>418</v>
+        <v>119</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -2756,7 +3369,7 @@
         <v>35</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -2774,13 +3387,13 @@
         <v>15</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>30</v>
@@ -2798,13 +3411,13 @@
         <v>15</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>34</v>
@@ -2822,16 +3435,16 @@
         <v>35</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -2846,16 +3459,16 @@
         <v>15</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H52" s="6"/>
     </row>
@@ -2870,13 +3483,13 @@
         <v>35</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>105</v>
@@ -2894,13 +3507,13 @@
         <v>15</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>109</v>
@@ -2918,16 +3531,16 @@
         <v>15</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E55" s="7">
         <v>10001</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -2942,16 +3555,16 @@
         <v>15</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E56" s="6">
         <v>9789123456</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H56" s="6"/>
     </row>
@@ -2966,16 +3579,16 @@
         <v>15</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -3032,16 +3645,16 @@
         <v>35</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H60" s="6"/>
     </row>
@@ -3066,16 +3679,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H62" s="6"/>
     </row>
@@ -3090,16 +3703,16 @@
         <v>35</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -3114,16 +3727,16 @@
         <v>15</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H64" s="6"/>
     </row>
@@ -3138,16 +3751,16 @@
         <v>35</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -3162,16 +3775,16 @@
         <v>15</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>99</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H66" s="6"/>
     </row>
@@ -3186,16 +3799,16 @@
         <v>15</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E67" s="7">
         <v>1235647899</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -3210,7 +3823,7 @@
         <v>35</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -3228,14 +3841,14 @@
         <v>35</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -3250,16 +3863,16 @@
         <v>15</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E70" s="6">
         <v>97890456789</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H70" s="6"/>
     </row>
@@ -3274,14 +3887,14 @@
         <v>35</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -3296,13 +3909,13 @@
         <v>35</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E72" s="6">
         <v>1230</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>22</v>
@@ -3320,13 +3933,13 @@
         <v>35</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E73" s="7">
         <v>1550</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>22</v>
@@ -3344,11 +3957,11 @@
         <v>35</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>22</v>
@@ -3366,14 +3979,14 @@
         <v>35</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -3388,14 +4001,14 @@
         <v>35</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H76" s="6"/>
     </row>
@@ -3410,14 +4023,14 @@
         <v>35</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H77" s="7"/>
     </row>
@@ -3474,7 +4087,7 @@
         <v>35</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -3534,16 +4147,16 @@
         <v>35</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -3568,16 +4181,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -3592,14 +4205,14 @@
         <v>35</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H86" s="6"/>
     </row>
@@ -3614,14 +4227,14 @@
         <v>35</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H87" s="7"/>
     </row>
@@ -3678,14 +4291,14 @@
         <v>35</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H90" s="6"/>
     </row>
@@ -3716,7 +4329,7 @@
         <v>35</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -3750,14 +4363,14 @@
         <v>35</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H94" s="6"/>
     </row>
@@ -3774,10 +4387,10 @@
         <v>3</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H95" s="7"/>
     </row>
@@ -3792,14 +4405,14 @@
         <v>35</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H96" s="6"/>
     </row>
@@ -3814,14 +4427,14 @@
         <v>35</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -3852,16 +4465,16 @@
         <v>15</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H99" s="7"/>
     </row>
@@ -3876,16 +4489,16 @@
         <v>15</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H100" s="6"/>
     </row>
@@ -3900,16 +4513,16 @@
         <v>15</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E101" s="7">
         <v>9889656446</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H101" s="7"/>
     </row>
@@ -3924,14 +4537,14 @@
         <v>15</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H102" s="6"/>
     </row>
@@ -3960,20 +4573,20 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H104" s="6"/>
     </row>
@@ -3982,20 +4595,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H105" s="7"/>
     </row>
@@ -4004,20 +4617,20 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H106" s="6"/>
     </row>
@@ -4026,20 +4639,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -4048,20 +4661,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H108" s="6"/>
     </row>
@@ -4070,20 +4683,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -4092,20 +4705,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H110" s="6"/>
     </row>
@@ -4114,20 +4727,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -4142,14 +4755,14 @@
         <v>35</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H112" s="6"/>
     </row>
@@ -4292,14 +4905,14 @@
         <v>35</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H120" s="6"/>
     </row>
@@ -4314,14 +4927,14 @@
         <v>15</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -4352,14 +4965,14 @@
         <v>35</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H123" s="7"/>
     </row>
@@ -4374,16 +4987,16 @@
         <v>15</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H124" s="6"/>
     </row>
@@ -4398,16 +5011,16 @@
         <v>35</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -4416,22 +5029,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H126" s="6"/>
     </row>
@@ -4450,10 +5063,10 @@
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -4482,7 +5095,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4522,14 +5135,14 @@
         <v>15</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -4656,14 +5269,14 @@
         <v>35</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H138" s="6"/>
     </row>
@@ -4678,14 +5291,14 @@
         <v>15</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H139" s="7"/>
     </row>
@@ -4716,14 +5329,14 @@
         <v>35</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H141" s="7"/>
     </row>
@@ -4754,7 +5367,7 @@
         <v>35</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
@@ -4772,14 +5385,14 @@
         <v>35</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H144" s="6"/>
     </row>
@@ -4794,7 +5407,7 @@
         <v>35</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
@@ -4812,14 +5425,14 @@
         <v>35</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H146" s="6"/>
     </row>
@@ -4834,7 +5447,7 @@
         <v>35</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E147" s="7">
         <v>200</v>
@@ -4854,7 +5467,7 @@
         <v>35</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
@@ -4892,10 +5505,10 @@
         <v>15</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
@@ -4906,22 +5519,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -4936,7 +5549,7 @@
         <v>35</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6" t="s">
@@ -4974,7 +5587,7 @@
         <v>35</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -4992,7 +5605,7 @@
         <v>35</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>99</v>
@@ -5012,11 +5625,11 @@
         <v>35</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
@@ -5042,16 +5655,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H158" s="6"/>
     </row>
@@ -5076,20 +5689,20 @@
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H160" s="6"/>
     </row>
@@ -5098,20 +5711,20 @@
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H161" s="7"/>
     </row>
@@ -5126,14 +5739,14 @@
         <v>35</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H162" s="6"/>
     </row>
@@ -5164,16 +5777,16 @@
         <v>35</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H164" s="6"/>
     </row>
@@ -5188,7 +5801,7 @@
         <v>15</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
@@ -5216,13 +5829,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E167" s="7">
         <v>10002</v>
@@ -5242,7 +5855,7 @@
         <v>15</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -5270,13 +5883,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -5294,7 +5907,7 @@
         <v>35</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
@@ -5312,14 +5925,14 @@
         <v>35</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H172" s="6"/>
     </row>
@@ -5334,7 +5947,7 @@
         <v>35</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
@@ -5352,14 +5965,14 @@
         <v>35</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H174" s="6"/>
     </row>
@@ -5374,7 +5987,7 @@
         <v>35</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E175" s="7">
         <v>200</v>
@@ -5394,7 +6007,7 @@
         <v>35</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
@@ -5432,10 +6045,10 @@
         <v>15</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
@@ -5446,22 +6059,22 @@
         <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H179" s="7"/>
     </row>
@@ -5476,7 +6089,7 @@
         <v>35</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6" t="s">
@@ -5514,7 +6127,7 @@
         <v>35</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
@@ -5532,7 +6145,7 @@
         <v>35</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>99</v>
@@ -5552,7 +6165,7 @@
         <v>35</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
@@ -5580,16 +6193,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H186" s="6"/>
     </row>
@@ -5614,20 +6227,20 @@
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H188" s="6"/>
     </row>
@@ -5642,14 +6255,14 @@
         <v>35</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H189" s="7"/>
     </row>
@@ -5680,16 +6293,16 @@
         <v>35</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H191" s="7"/>
     </row>
@@ -5704,10 +6317,10 @@
         <v>15</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -5724,10 +6337,10 @@
         <v>15</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
@@ -5744,7 +6357,7 @@
         <v>15</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>107</v>
@@ -5758,7 +6371,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>319</v>
+        <v>118</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>35</v>
@@ -5778,13 +6391,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E196" s="6">
         <v>10002</v>
@@ -5820,7 +6433,7 @@
         <v>35</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
@@ -5838,14 +6451,14 @@
         <v>35</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E199" s="7"/>
       <c r="F199" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H199" s="7"/>
     </row>
@@ -5860,7 +6473,7 @@
         <v>35</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -5878,14 +6491,14 @@
         <v>35</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H201" s="7"/>
     </row>
@@ -5900,7 +6513,7 @@
         <v>35</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E202" s="6">
         <v>200</v>
@@ -5920,7 +6533,7 @@
         <v>35</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="7" t="s">
@@ -5958,10 +6571,10 @@
         <v>15</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
@@ -5972,22 +6585,22 @@
         <v>205</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H206" s="6"/>
     </row>
@@ -6002,7 +6615,7 @@
         <v>35</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E207" s="7"/>
       <c r="F207" s="7" t="s">
@@ -6040,7 +6653,7 @@
         <v>35</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
@@ -6058,7 +6671,7 @@
         <v>35</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>99</v>
@@ -6078,7 +6691,7 @@
         <v>35</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
@@ -6106,16 +6719,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
       <c r="F213" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H213" s="7"/>
     </row>
@@ -6136,51 +6749,40 @@
       <c r="H214" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>DataList!$C$2:$C$109</xm:f>
-          </x14:formula1>
-          <xm:sqref>B142 B162 B163 B168 B188 B189 B190 B193 B194 B195 B196 B1:B141 B143:B152 B153:B161 B164:B165 B166:B167 B169:B170 B171:B180 B181:B187 B191:B192 B198:B207 B208:B214 B215:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>DataList!$A$2:$A$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>C142 C162 C168 C169 C188 C189 C195 C196 C1:C141 C143:C152 C153:C161 C163:C165 C166:C167 C171:C180 C181:C187 C190:C192 C193:C194 C198:C207 C208:C214 C215:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Patient\[PatientApp_Process_Pending_DCase.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B197</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142 B162 B163 B168 B188 B189 B190 B193 B194 B195 B196 B1:B141 B143:B152 B153:B161 B164:B165 B166:B167 B169:B170 B171:B180 B181:B187 B191:B192 B198:B207 B208:B214 B215:B1048576">
+      <formula1>DataList!$C$2:$C$109</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C142 C162 C168 C169 C188 C189 C195 C196 C1:C141 C143:C152 C153:C161 C163:C165 C166:C167 C171:C180 C181:C187 C190:C192 C193:C194 C198:C207 C208:C214 C215:C1048576">
+      <formula1>DataList!$A$2:$A$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B197">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6188,7 +6790,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -6196,7 +6798,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -6204,7 +6806,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>325</v>
       </c>
@@ -6212,7 +6814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -6220,7 +6822,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>327</v>
       </c>
@@ -6228,7 +6830,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>329</v>
       </c>
@@ -6236,7 +6838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>330</v>
       </c>
@@ -6255,7 +6857,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>335</v>
       </c>
@@ -6263,7 +6865,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>337</v>
       </c>
@@ -6271,57 +6873,57 @@
         <v>338</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="3:3">
       <c r="C13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
         <v>345</v>
       </c>
@@ -6334,47 +6936,47 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:3">
       <c r="C24" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:3">
       <c r="C25" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
       <c r="C27" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:3">
       <c r="C28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:3">
       <c r="C29" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:3">
       <c r="C30" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:3">
       <c r="C31" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:3">
       <c r="C32" t="s">
         <v>353</v>
       </c>
@@ -6421,7 +7023,7 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="3:3">
@@ -6511,7 +7113,7 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="3:3">
@@ -6539,32 +7141,32 @@
         <v>383</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:3">
       <c r="C66" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
       <c r="C68" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:3">
       <c r="C69" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:3">
       <c r="C70" t="s">
         <v>388</v>
       </c>
@@ -6577,7 +7179,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:3">
       <c r="C72" t="s">
         <v>390</v>
       </c>
@@ -6590,22 +7192,22 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:3">
       <c r="C74" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:3">
       <c r="C75" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:3">
       <c r="C76" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:3">
       <c r="C77" t="s">
         <v>395</v>
       </c>
@@ -6626,7 +7228,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="3:3">
       <c r="C80" t="s">
         <v>398</v>
       </c>
@@ -6713,7 +7315,7 @@
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6738,12 +7340,13 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7740"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420">
   <si>
     <t>Step No</t>
   </si>
@@ -97,697 +97,703 @@
     <t>Entered</t>
   </si>
   <si>
+    <t>NAME_DOB_LINK</t>
+  </si>
+  <si>
+    <t>TypeDynamicAlpha</t>
+  </si>
+  <si>
+    <t>FIRST_NAME_FIELD</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Enter First name</t>
+  </si>
+  <si>
+    <t>First name entered</t>
+  </si>
+  <si>
+    <t>LAST_NAME_FIELD</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Enter last name</t>
+  </si>
+  <si>
+    <t>Last name entered</t>
+  </si>
+  <si>
+    <t>ByXPath</t>
+  </si>
+  <si>
+    <t>DOB_FIELD</t>
+  </si>
+  <si>
+    <t>Click on DOB field</t>
+  </si>
+  <si>
+    <t>DOB_DATEPICKER</t>
+  </si>
+  <si>
+    <t>SEARCH_BUTTON_LINK1</t>
+  </si>
+  <si>
+    <t>SEARCH_PATIENT_NEW</t>
+  </si>
+  <si>
+    <t>Click on search button</t>
+  </si>
+  <si>
+    <t>Search button clicked</t>
+  </si>
+  <si>
+    <t>Wait for page to load</t>
+  </si>
+  <si>
+    <t>CREATE_APP_LINK</t>
+  </si>
+  <si>
+    <t>Click on create application</t>
+  </si>
+  <si>
+    <t>SelectByVisibleText</t>
+  </si>
+  <si>
+    <t>PATIENT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Breast Cancer Silo*</t>
+  </si>
+  <si>
+    <t>Enter fund name</t>
+  </si>
+  <si>
+    <t>Fund name entered</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>NUM_OF_PEOPLE</t>
+  </si>
+  <si>
+    <t>Enter no of peoples</t>
+  </si>
+  <si>
+    <t>No of Peoples entered</t>
+  </si>
+  <si>
+    <t>HOUSEHOLD_INCOME</t>
+  </si>
+  <si>
+    <t>Enter household income</t>
+  </si>
+  <si>
+    <t>House income entered</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS_LABEL1_YES</t>
+  </si>
+  <si>
+    <t>Click Yes</t>
+  </si>
+  <si>
+    <t>Clicked Yes</t>
+  </si>
+  <si>
+    <t>TREATMENT_LEBEL_YES</t>
+  </si>
+  <si>
+    <t>TERRITORY_LEBEL_YES</t>
+  </si>
+  <si>
+    <t>REG_ZIP_CODE</t>
+  </si>
+  <si>
+    <t>Enter Zipcode</t>
+  </si>
+  <si>
+    <t>Zipcode entered</t>
+  </si>
+  <si>
+    <t>SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Submit</t>
+  </si>
+  <si>
+    <t>Submitted button clicked</t>
+  </si>
+  <si>
+    <t>TypeDynamicValue</t>
+  </si>
+  <si>
+    <t>PATIENT_MIDDLE_NAME</t>
+  </si>
+  <si>
+    <t>_Mname</t>
+  </si>
+  <si>
+    <t>APP_GENDER</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Select Gender</t>
+  </si>
+  <si>
+    <t>Gender selected</t>
+  </si>
+  <si>
+    <t>APP_ETHNICITY</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Select Ethnicity</t>
+  </si>
+  <si>
+    <t>Ethnicity selected</t>
+  </si>
+  <si>
+    <t>APP_VETERAN</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Select Veteran</t>
+  </si>
+  <si>
+    <t>Veteran selected</t>
+  </si>
+  <si>
+    <t>APP_EMP_STATUS</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Select Employment status</t>
+  </si>
+  <si>
+    <t>Employment status selected</t>
+  </si>
+  <si>
+    <t>APP_MARITAL_STATUS</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Select Marital Status</t>
+  </si>
+  <si>
+    <t>Marital Status selected</t>
+  </si>
+  <si>
+    <t>Are you residing in the United States or a United States territory?</t>
+  </si>
+  <si>
+    <t>NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on next button</t>
+  </si>
+  <si>
+    <t>Next page navigated successfully</t>
+  </si>
+  <si>
+    <t>APP_ADDRESS_TYPE</t>
+  </si>
+  <si>
+    <t>Mailing</t>
+  </si>
+  <si>
+    <t>Select Address Type</t>
+  </si>
+  <si>
+    <t>Address Type seleceted</t>
+  </si>
+  <si>
+    <t>CONTACT_ADDRESS_LINE1</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Enter Add1</t>
+  </si>
+  <si>
+    <t>add 1 entered</t>
+  </si>
+  <si>
+    <t>CONTACT_STATE</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Select state</t>
+  </si>
+  <si>
+    <t>State selected</t>
+  </si>
+  <si>
+    <t>CONTACT_CITY</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Enter CIty</t>
+  </si>
+  <si>
+    <t>City entered</t>
+  </si>
+  <si>
+    <t>CONTACT_ZIPCODE</t>
+  </si>
+  <si>
+    <t>APP_COUNTRY</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>Coutry entered</t>
+  </si>
+  <si>
+    <t>CONTACT_PHONE_TYPE</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>CONTACT_PNONE_NUMBER</t>
+  </si>
+  <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
+    <t>CONTACT_SEQUENCE</t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_PERSON</t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_FNAME</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Enter First  name</t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_LNAME</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Enter Last name</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Select Relationship</t>
+  </si>
+  <si>
+    <t>Relationship selected</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_ADDRESS1</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Address </t>
+  </si>
+  <si>
+    <t>Address entered</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_STATE</t>
+  </si>
+  <si>
+    <t>Select State</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_CITY</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_ZIP</t>
+  </si>
+  <si>
+    <t>Enter Zip</t>
+  </si>
+  <si>
+    <t>Zip entered</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_PHONE</t>
+  </si>
+  <si>
+    <t>Enter Phone number</t>
+  </si>
+  <si>
+    <t>Phone number entered</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_EMAIL</t>
+  </si>
+  <si>
+    <t>@mail.in</t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t>Email entered</t>
+  </si>
+  <si>
+    <t>APP_PRI_INSURANCE</t>
+  </si>
+  <si>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>Enter Insurance name</t>
+  </si>
+  <si>
+    <t>Insurance entered</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Select Insurance type</t>
+  </si>
+  <si>
+    <t>Insurance selected</t>
+  </si>
+  <si>
+    <t>APP_PLANTYPE</t>
+  </si>
+  <si>
+    <t>EPO</t>
+  </si>
+  <si>
+    <t>Select Plan type</t>
+  </si>
+  <si>
+    <t>Plan type selected</t>
+  </si>
+  <si>
+    <t>APP_INS_NUMBER</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Enter Policy number</t>
+  </si>
+  <si>
+    <t>Policy number entered</t>
+  </si>
+  <si>
+    <t>APP_INS_TYPE</t>
+  </si>
+  <si>
+    <t>Medicare</t>
+  </si>
+  <si>
+    <t>Insurance type selected</t>
+  </si>
+  <si>
+    <t>APP_SUBS_NAME</t>
+  </si>
+  <si>
+    <t>Enter Subscriber name</t>
+  </si>
+  <si>
+    <t>Subscriber name entered</t>
+  </si>
+  <si>
+    <t>APP_GROUP_NAME</t>
+  </si>
+  <si>
+    <t>Enter Group name</t>
+  </si>
+  <si>
+    <t>Group name entered</t>
+  </si>
+  <si>
+    <t>APP_SUBS_DOB</t>
+  </si>
+  <si>
+    <t>APP_SUBS_DOB_DATE</t>
+  </si>
+  <si>
+    <t>Select Date</t>
+  </si>
+  <si>
+    <t>Date selected</t>
+  </si>
+  <si>
+    <t>APP_PRIM_TEL</t>
+  </si>
+  <si>
+    <t>Enter Primary Phone number</t>
+  </si>
+  <si>
+    <t>Primary phone number entered</t>
+  </si>
+  <si>
+    <t>APP_PRESCRI_DRUG</t>
+  </si>
+  <si>
+    <t>Click No for Does this plan cover prescription drugs at the pharmacy and provider office?</t>
+  </si>
+  <si>
+    <t>Yes clicked</t>
+  </si>
+  <si>
+    <t>APP_MEDI_SERVICE</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for medical services:</t>
+  </si>
+  <si>
+    <t>APP_PHARMACY_BENEFITS</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_PART_NO</t>
+  </si>
+  <si>
+    <t>Do you have Medicare Part D?</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_SUPP_NO</t>
+  </si>
+  <si>
+    <t>Does the patient have a Medicare Supplement?</t>
+  </si>
+  <si>
+    <t>No clicked</t>
+  </si>
+  <si>
+    <t>APP_SEC_INSURANCE_NO</t>
+  </si>
+  <si>
+    <t>Do you have Secondary Insurance?</t>
+  </si>
+  <si>
+    <t>APP_COBRA _EFFECT_NO</t>
+  </si>
+  <si>
+    <t>Is insurance coverage continuation under COBRA in effect?</t>
+  </si>
+  <si>
+    <t>PHYSICIAN_CHECKBOX</t>
+  </si>
+  <si>
+    <t>PRIMAY_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Type Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis entered</t>
+  </si>
+  <si>
+    <t>Select Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis selected</t>
+  </si>
+  <si>
+    <t>DATE_OF_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Select Diagnosis date</t>
+  </si>
+  <si>
+    <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>SELF_LASTPAGE</t>
+  </si>
+  <si>
+    <t>Check Self</t>
+  </si>
+  <si>
+    <t>Self checked</t>
+  </si>
+  <si>
+    <t>AGREE_CHECKBOX_STEP7</t>
+  </si>
+  <si>
+    <t>AGREE_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on AGREE and Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button clicked </t>
+  </si>
+  <si>
+    <t>Wait for popup</t>
+  </si>
+  <si>
+    <t>Popup loaded</t>
+  </si>
+  <si>
+    <t>PATIENT_AGREE_CHECKBOX</t>
+  </si>
+  <si>
+    <t>Check agree box</t>
+  </si>
+  <si>
+    <t>Agree box checked</t>
+  </si>
+  <si>
+    <t>AGREE_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Agree button</t>
+  </si>
+  <si>
+    <t>Agree button clicked</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Enter Signature</t>
+  </si>
+  <si>
+    <t>Signature entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Name entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>Click Sign and submit button</t>
+  </si>
+  <si>
+    <t>Sign and submit button clicked</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>SUBMIT_PATIENT_NAME</t>
+  </si>
+  <si>
+    <t>Get Patient Name</t>
+  </si>
+  <si>
+    <t>Retrieved succussfully</t>
+  </si>
+  <si>
+    <t>SUBMIT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Get Fund Name</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_FROM</t>
+  </si>
+  <si>
+    <t>Get award period from</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get award period to </t>
+  </si>
+  <si>
+    <t>SUBMIT_CARDHOLDER</t>
+  </si>
+  <si>
+    <t>Get cardholder</t>
+  </si>
+  <si>
+    <t>SUBMIT_BIN</t>
+  </si>
+  <si>
+    <t>Get BIN</t>
+  </si>
+  <si>
+    <t>SUBMIT_PCN</t>
+  </si>
+  <si>
+    <t>Get PCN</t>
+  </si>
+  <si>
+    <t>SUBMIT_GROUP</t>
+  </si>
+  <si>
+    <t>Get group</t>
+  </si>
+  <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
     <t>LANDING_ALIEN_SEARCH</t>
   </si>
   <si>
     <t>Click Search</t>
-  </si>
-  <si>
-    <t>Search button clicked</t>
-  </si>
-  <si>
-    <t>TypeDynamicAlpha</t>
-  </si>
-  <si>
-    <t>FIRST_NAME_FIELD</t>
-  </si>
-  <si>
-    <t>Fname</t>
-  </si>
-  <si>
-    <t>Enter First name</t>
-  </si>
-  <si>
-    <t>First name entered</t>
-  </si>
-  <si>
-    <t>LAST_NAME_FIELD</t>
-  </si>
-  <si>
-    <t>Lname</t>
-  </si>
-  <si>
-    <t>Enter last name</t>
-  </si>
-  <si>
-    <t>Last name entered</t>
-  </si>
-  <si>
-    <t>ByXPath</t>
-  </si>
-  <si>
-    <t>DOB_FIELD</t>
-  </si>
-  <si>
-    <t>Click on DOB field</t>
-  </si>
-  <si>
-    <t>DOB_DATEPICKER</t>
-  </si>
-  <si>
-    <t>SEARCH_PATIENT_NEW</t>
-  </si>
-  <si>
-    <t>Click on search button</t>
-  </si>
-  <si>
-    <t>Wait for page to load</t>
-  </si>
-  <si>
-    <t>CREATE_APP_LINK</t>
-  </si>
-  <si>
-    <t>Click on create application</t>
-  </si>
-  <si>
-    <t>SelectByVisibleText</t>
-  </si>
-  <si>
-    <t>PATIENT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Breast Cancer Silo*</t>
-  </si>
-  <si>
-    <t>Enter fund name</t>
-  </si>
-  <si>
-    <t>Fund name entered</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>NUM_OF_PEOPLE</t>
-  </si>
-  <si>
-    <t>Enter no of peoples</t>
-  </si>
-  <si>
-    <t>No of Peoples entered</t>
-  </si>
-  <si>
-    <t>HOUSEHOLD_INCOME</t>
-  </si>
-  <si>
-    <t>Enter household income</t>
-  </si>
-  <si>
-    <t>House income entered</t>
-  </si>
-  <si>
-    <t>DIAGNOSIS_LABEL1_YES</t>
-  </si>
-  <si>
-    <t>Click Yes</t>
-  </si>
-  <si>
-    <t>Clicked Yes</t>
-  </si>
-  <si>
-    <t>TREATMENT_LEBEL_YES</t>
-  </si>
-  <si>
-    <t>TERRITORY_LEBEL_YES</t>
-  </si>
-  <si>
-    <t>REG_ZIP_CODE</t>
-  </si>
-  <si>
-    <t>Enter Zipcode</t>
-  </si>
-  <si>
-    <t>Zipcode entered</t>
-  </si>
-  <si>
-    <t>SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Submit</t>
-  </si>
-  <si>
-    <t>Submitted button clicked</t>
-  </si>
-  <si>
-    <t>TypeDynamicValue</t>
-  </si>
-  <si>
-    <t>PATIENT_MIDDLE_NAME</t>
-  </si>
-  <si>
-    <t>_Mname</t>
-  </si>
-  <si>
-    <t>APP_GENDER</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Select Gender</t>
-  </si>
-  <si>
-    <t>Gender selected</t>
-  </si>
-  <si>
-    <t>APP_ETHNICITY</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Select Ethnicity</t>
-  </si>
-  <si>
-    <t>Ethnicity selected</t>
-  </si>
-  <si>
-    <t>APP_VETERAN</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Select Veteran</t>
-  </si>
-  <si>
-    <t>Veteran selected</t>
-  </si>
-  <si>
-    <t>APP_EMP_STATUS</t>
-  </si>
-  <si>
-    <t>Employed</t>
-  </si>
-  <si>
-    <t>Select Employment status</t>
-  </si>
-  <si>
-    <t>Employment status selected</t>
-  </si>
-  <si>
-    <t>APP_MARITAL_STATUS</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Select Marital Status</t>
-  </si>
-  <si>
-    <t>Marital Status selected</t>
-  </si>
-  <si>
-    <t>Are you residing in the United States or a United States territory?</t>
-  </si>
-  <si>
-    <t>NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on next button</t>
-  </si>
-  <si>
-    <t>Next page navigated successfully</t>
-  </si>
-  <si>
-    <t>APP_ADDRESS_TYPE</t>
-  </si>
-  <si>
-    <t>Mailing</t>
-  </si>
-  <si>
-    <t>Select Address Type</t>
-  </si>
-  <si>
-    <t>Address Type seleceted</t>
-  </si>
-  <si>
-    <t>CONTACT_ADDRESS_LINE1</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Enter Add1</t>
-  </si>
-  <si>
-    <t>add 1 entered</t>
-  </si>
-  <si>
-    <t>CONTACT_STATE</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Select state</t>
-  </si>
-  <si>
-    <t>State selected</t>
-  </si>
-  <si>
-    <t>CONTACT_CITY</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
-    <t>Enter CIty</t>
-  </si>
-  <si>
-    <t>City entered</t>
-  </si>
-  <si>
-    <t>CONTACT_ZIPCODE</t>
-  </si>
-  <si>
-    <t>APP_COUNTRY</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Enter Country</t>
-  </si>
-  <si>
-    <t>Coutry entered</t>
-  </si>
-  <si>
-    <t>CONTACT_PHONE_TYPE</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>CONTACT_PNONE_NUMBER</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
-  </si>
-  <si>
-    <t>CONTACT_SEQUENCE</t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_PERSON</t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_FNAME</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Enter First  name</t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_LNAME</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Enter Last name</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_RELATIONSHIP</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Select Relationship</t>
-  </si>
-  <si>
-    <t>Relationship selected</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_ADDRESS1</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Address </t>
-  </si>
-  <si>
-    <t>Address entered</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_STATE</t>
-  </si>
-  <si>
-    <t>Select State</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_CITY</t>
-  </si>
-  <si>
-    <t>Enter City</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_ZIP</t>
-  </si>
-  <si>
-    <t>Enter Zip</t>
-  </si>
-  <si>
-    <t>Zip entered</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_PHONE</t>
-  </si>
-  <si>
-    <t>Enter Phone number</t>
-  </si>
-  <si>
-    <t>Phone number entered</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_EMAIL</t>
-  </si>
-  <si>
-    <t>@mail.in</t>
-  </si>
-  <si>
-    <t>Enter email</t>
-  </si>
-  <si>
-    <t>Email entered</t>
-  </si>
-  <si>
-    <t>APP_PRI_INSURANCE</t>
-  </si>
-  <si>
-    <t>Con</t>
-  </si>
-  <si>
-    <t>Enter Insurance name</t>
-  </si>
-  <si>
-    <t>Insurance entered</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>Select Insurance type</t>
-  </si>
-  <si>
-    <t>Insurance selected</t>
-  </si>
-  <si>
-    <t>APP_PLANTYPE</t>
-  </si>
-  <si>
-    <t>EPO</t>
-  </si>
-  <si>
-    <t>Select Plan type</t>
-  </si>
-  <si>
-    <t>Plan type selected</t>
-  </si>
-  <si>
-    <t>APP_INS_NUMBER</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Enter Policy number</t>
-  </si>
-  <si>
-    <t>Policy number entered</t>
-  </si>
-  <si>
-    <t>APP_INS_TYPE</t>
-  </si>
-  <si>
-    <t>Medicare</t>
-  </si>
-  <si>
-    <t>Insurance type selected</t>
-  </si>
-  <si>
-    <t>APP_SUBS_NAME</t>
-  </si>
-  <si>
-    <t>Enter Subscriber name</t>
-  </si>
-  <si>
-    <t>Subscriber name entered</t>
-  </si>
-  <si>
-    <t>APP_GROUP_NAME</t>
-  </si>
-  <si>
-    <t>Enter Group name</t>
-  </si>
-  <si>
-    <t>Group name entered</t>
-  </si>
-  <si>
-    <t>APP_SUBS_DOB</t>
-  </si>
-  <si>
-    <t>APP_SUBS_DOB_DATE</t>
-  </si>
-  <si>
-    <t>Select Date</t>
-  </si>
-  <si>
-    <t>Date selected</t>
-  </si>
-  <si>
-    <t>APP_PRIM_TEL</t>
-  </si>
-  <si>
-    <t>Enter Primary Phone number</t>
-  </si>
-  <si>
-    <t>Primary phone number entered</t>
-  </si>
-  <si>
-    <t>APP_PRESCRI_DRUG</t>
-  </si>
-  <si>
-    <t>Click No for Does this plan cover prescription drugs at the pharmacy and provider office?</t>
-  </si>
-  <si>
-    <t>Yes clicked</t>
-  </si>
-  <si>
-    <t>APP_MEDI_SERVICE</t>
-  </si>
-  <si>
-    <t>Co-Pay or Coinsurance for medical services:</t>
-  </si>
-  <si>
-    <t>APP_PHARMACY_BENEFITS</t>
-  </si>
-  <si>
-    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_PART_NO</t>
-  </si>
-  <si>
-    <t>Do you have Medicare Part D?</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_SUPP_NO</t>
-  </si>
-  <si>
-    <t>Does the patient have a Medicare Supplement?</t>
-  </si>
-  <si>
-    <t>No clicked</t>
-  </si>
-  <si>
-    <t>APP_SEC_INSURANCE_NO</t>
-  </si>
-  <si>
-    <t>Do you have Secondary Insurance?</t>
-  </si>
-  <si>
-    <t>APP_COBRA _EFFECT_NO</t>
-  </si>
-  <si>
-    <t>Is insurance coverage continuation under COBRA in effect?</t>
-  </si>
-  <si>
-    <t>PHYSICIAN_CHECKBOX</t>
-  </si>
-  <si>
-    <t>PRIMAY_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Type Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis entered</t>
-  </si>
-  <si>
-    <t>Select Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis selected</t>
-  </si>
-  <si>
-    <t>DATE_OF_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Select Diagnosis date</t>
-  </si>
-  <si>
-    <t>Diagnosis date selected</t>
-  </si>
-  <si>
-    <t>SELF_LASTPAGE</t>
-  </si>
-  <si>
-    <t>Check Self</t>
-  </si>
-  <si>
-    <t>Self checked</t>
-  </si>
-  <si>
-    <t>AGREE_CHECKBOX_STEP7</t>
-  </si>
-  <si>
-    <t>AGREE_SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on AGREE and Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button clicked </t>
-  </si>
-  <si>
-    <t>Wait for popup</t>
-  </si>
-  <si>
-    <t>Popup loaded</t>
-  </si>
-  <si>
-    <t>PATIENT_AGREE_CHECKBOX</t>
-  </si>
-  <si>
-    <t>Check agree box</t>
-  </si>
-  <si>
-    <t>Agree box checked</t>
-  </si>
-  <si>
-    <t>AGREE_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Agree button</t>
-  </si>
-  <si>
-    <t>Agree button clicked</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>Enter Signature</t>
-  </si>
-  <si>
-    <t>Signature entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_NAME</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Enter Name</t>
-  </si>
-  <si>
-    <t>Name entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_PHONE</t>
-  </si>
-  <si>
-    <t>SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>Click Sign and submit button</t>
-  </si>
-  <si>
-    <t>Sign and submit button clicked</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>SUBMIT_PATIENT_NAME</t>
-  </si>
-  <si>
-    <t>Get Patient Name</t>
-  </si>
-  <si>
-    <t>Retrieved succussfully</t>
-  </si>
-  <si>
-    <t>SUBMIT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Get Fund Name</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_FROM</t>
-  </si>
-  <si>
-    <t>Get award period from</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get award period to </t>
-  </si>
-  <si>
-    <t>SUBMIT_CARDHOLDER</t>
-  </si>
-  <si>
-    <t>Get cardholder</t>
-  </si>
-  <si>
-    <t>SUBMIT_BIN</t>
-  </si>
-  <si>
-    <t>Get BIN</t>
-  </si>
-  <si>
-    <t>SUBMIT_PCN</t>
-  </si>
-  <si>
-    <t>Get PCN</t>
-  </si>
-  <si>
-    <t>SUBMIT_GROUP</t>
-  </si>
-  <si>
-    <t>Get group</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
   </si>
   <si>
     <t>HOME_ACTIONS</t>
@@ -1287,12 +1293,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1318,7 +1324,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1332,16 +1419,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1355,31 +1434,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1407,57 +1464,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1482,7 +1493,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,7 +1529,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,13 +1559,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,13 +1643,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,127 +1673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,24 +1724,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1742,6 +1735,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1772,6 +1774,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1783,6 +1794,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1801,25 +1821,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1831,134 +1842,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1967,6 +1978,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2319,10 +2332,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2463,26 +2476,22 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6">
@@ -2494,7 +2503,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2505,22 +2514,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -2529,41 +2538,41 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -2574,35 +2583,35 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7">
-        <v>4</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6">
@@ -2612,22 +2621,20 @@
         <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2638,12 +2645,8 @@
       <c r="E15" s="7">
         <v>5</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8">
@@ -2654,22 +2657,22 @@
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2678,7 +2681,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>41</v>
@@ -2693,27 +2696,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2722,10 +2723,14 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7">
-        <v>2</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8">
@@ -2733,47 +2738,39 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="6">
+        <v>45</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
         <v>2</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8">
@@ -2781,42 +2778,46 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
       <c r="F22" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1000</v>
+      </c>
       <c r="F23" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -2828,10 +2829,10 @@
         <v>14</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
@@ -2843,26 +2844,24 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="7">
-        <v>10001</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H25" s="7"/>
     </row>
@@ -2874,37 +2873,41 @@
         <v>14</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="E27" s="7">
-        <v>10</v>
+        <v>10001</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -2913,42 +2916,40 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7">
+        <v>10</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -2957,46 +2958,42 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H31" s="7"/>
     </row>
@@ -3008,43 +3005,43 @@
         <v>44</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H33" s="7"/>
     </row>
@@ -3053,42 +3050,46 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="F34" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="F35" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H35" s="7"/>
     </row>
@@ -3097,42 +3098,42 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>95</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H37" s="7"/>
     </row>
@@ -3141,46 +3142,42 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>99</v>
+        <v>11</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <v>10</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H39" s="7"/>
     </row>
@@ -3189,46 +3186,46 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="7">
-        <v>10001</v>
+        <v>102</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="H41" s="7"/>
     </row>
@@ -3243,37 +3240,41 @@
         <v>15</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="E43" s="7">
+        <v>10001</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8">
@@ -3287,30 +3288,34 @@
         <v>15</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="6">
-        <v>9876543210</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -3321,41 +3326,39 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E46" s="6">
+        <v>9876543210</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="E47" s="7">
-        <v>10</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8">
@@ -3366,37 +3369,37 @@
         <v>14</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="F48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7">
+        <v>10</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H49" s="7"/>
     </row>
@@ -3405,46 +3408,40 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="D51" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -3459,40 +3456,40 @@
         <v>15</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -3501,46 +3498,46 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="7">
-        <v>10001</v>
+        <v>135</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -3555,40 +3552,40 @@
         <v>15</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E56" s="6">
-        <v>9789123456</v>
+        <v>137</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="E57" s="7">
+        <v>10001</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -3597,40 +3594,46 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="E58" s="6">
+        <v>9789123456</v>
+      </c>
       <c r="F58" s="6" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -3639,27 +3642,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>150</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -3668,10 +3669,14 @@
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7">
-        <v>5</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8">
@@ -3679,41 +3684,39 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="F62" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>159</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7">
+        <v>5</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8">
@@ -3721,46 +3724,40 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>161</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -3775,40 +3772,40 @@
         <v>15</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E67" s="7">
-        <v>1235647899</v>
+        <v>164</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -3817,38 +3814,46 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E69" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="E69" s="7">
+        <v>1235647899</v>
+      </c>
       <c r="F69" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -3857,44 +3862,38 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E70" s="6">
-        <v>97890456789</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>179</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -3906,43 +3905,41 @@
         <v>49</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E72" s="6">
-        <v>1230</v>
+        <v>97890456789</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E73" s="7">
-        <v>1550</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E73" s="7"/>
       <c r="F73" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="H73" s="7"/>
     </row>
@@ -3951,17 +3948,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E74" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1230</v>
+      </c>
       <c r="F74" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>22</v>
@@ -3969,24 +3968,26 @@
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E75" s="7"/>
+        <v>185</v>
+      </c>
+      <c r="E75" s="7">
+        <v>1550</v>
+      </c>
       <c r="F75" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -3998,36 +3999,36 @@
         <v>14</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>191</v>
@@ -4042,37 +4043,39 @@
         <v>14</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" s="7"/>
       <c r="F79" s="7" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="H79" s="7"/>
     </row>
@@ -4084,35 +4087,37 @@
         <v>14</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+      <c r="F80" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7">
+        <v>10</v>
+      </c>
       <c r="F81" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="H81" s="7"/>
     </row>
@@ -4121,42 +4126,38 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6">
-        <v>10</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>198</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E83" s="7"/>
       <c r="F83" s="7" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -4170,27 +4171,37 @@
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6">
-        <v>5</v>
-      </c>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="7">
+      <c r="A85" s="6">
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="F85" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -4199,42 +4210,32 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>205</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6">
+        <v>5</v>
+      </c>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="7">
+      <c r="A87" s="6">
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>174</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H87" s="7"/>
     </row>
@@ -4246,37 +4247,39 @@
         <v>14</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="7">
+      <c r="A89" s="6">
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E89" s="7"/>
       <c r="F89" s="7" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="H89" s="7"/>
     </row>
@@ -4288,22 +4291,22 @@
         <v>14</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="7">
+      <c r="A91" s="6">
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -4312,10 +4315,14 @@
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7">
-        <v>1</v>
-      </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" s="7"/>
     </row>
     <row r="92" spans="1:8">
@@ -4326,18 +4333,22 @@
         <v>14</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
+      <c r="F92" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="7">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -4360,22 +4371,18 @@
         <v>14</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E94" s="6"/>
-      <c r="F94" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>212</v>
-      </c>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="7">
+      <c r="A95" s="6">
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -4384,14 +4391,10 @@
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7">
-        <v>3</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>214</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
       <c r="H95" s="7"/>
     </row>
     <row r="96" spans="1:8">
@@ -4402,39 +4405,37 @@
         <v>14</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="7">
+      <c r="A97" s="6">
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E97" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7">
+        <v>3</v>
+      </c>
       <c r="F97" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -4443,38 +4444,42 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6">
-        <v>2</v>
-      </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="7">
+      <c r="A99" s="6">
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>222</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E99" s="7"/>
       <c r="F99" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H99" s="7"/>
     </row>
@@ -4483,46 +4488,38 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6">
+        <v>2</v>
+      </c>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="6">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H100" s="6"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="7">
-        <v>100</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E101" s="7">
-        <v>9889656446</v>
+        <v>221</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H101" s="7"/>
     </row>
@@ -4531,40 +4528,46 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E102" s="6"/>
+        <v>225</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="F102" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="7">
+      <c r="A103" s="6">
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="E103" s="7">
-        <v>10</v>
+        <v>9889656446</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="H103" s="7"/>
     </row>
@@ -4573,42 +4576,40 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="7">
+      <c r="A105" s="6">
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E105" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7">
+        <v>10</v>
+      </c>
       <c r="F105" s="7" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="H105" s="7"/>
     </row>
@@ -4620,14 +4621,14 @@
         <v>233</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G106" s="6" t="s">
         <v>236</v>
@@ -4635,21 +4636,21 @@
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="7">
+      <c r="A107" s="6">
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>233</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>236</v>
@@ -4664,14 +4665,14 @@
         <v>233</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>236</v>
@@ -4679,21 +4680,21 @@
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="7">
+      <c r="A109" s="6">
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>233</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>236</v>
@@ -4708,14 +4709,14 @@
         <v>233</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>236</v>
@@ -4723,21 +4724,21 @@
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="7">
+      <c r="A111" s="6">
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>233</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>236</v>
@@ -4749,37 +4750,43 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="7">
+      <c r="A113" s="6">
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7">
-        <v>5</v>
-      </c>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
+        <v>233</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8">
@@ -4790,22 +4797,22 @@
         <v>14</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="7">
+      <c r="A115" s="6">
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
@@ -4814,7 +4821,7 @@
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
@@ -4825,41 +4832,37 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6">
-        <v>5</v>
-      </c>
+      <c r="F116" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="7">
+      <c r="A117" s="6">
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7">
+        <v>1</v>
+      </c>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8">
@@ -4867,31 +4870,41 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6">
-        <v>5</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
+      <c r="H118" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="7">
+      <c r="A119" s="6">
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7">
-        <v>5</v>
-      </c>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8">
@@ -4899,43 +4912,31 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6">
+        <v>5</v>
+      </c>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="7">
+      <c r="A121" s="6">
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>259</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7">
+        <v>5</v>
+      </c>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8">
@@ -4943,36 +4944,42 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6">
+        <v>14</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="6">
+        <v>122</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="7">
-        <v>122</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="D123" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H123" s="7"/>
     </row>
@@ -4981,46 +4988,36 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6">
         <v>15</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="6">
+        <v>124</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="G125" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="H124" s="6"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="7">
-        <v>124</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -5029,44 +5026,46 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="6">
+        <v>126</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F127" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D126" s="6" t="s">
+      <c r="G127" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H126" s="6"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="7">
-        <v>126</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -5075,33 +5074,45 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6">
-        <v>15</v>
+        <v>273</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>13</v>
+        <v>277</v>
       </c>
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="7">
+      <c r="A129" s="6">
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
+      <c r="G129" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8">
@@ -5114,7 +5125,7 @@
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>12</v>
@@ -5125,25 +5136,17 @@
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="7">
+      <c r="A131" s="6">
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>279</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>281</v>
-      </c>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
       <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:8">
@@ -5156,14 +5159,18 @@
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6">
-        <v>5</v>
-      </c>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="7">
+      <c r="A133" s="6">
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
@@ -5173,14 +5180,14 @@
         <v>15</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="7" t="s">
-        <v>17</v>
+        <v>282</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="H133" s="7"/>
     </row>
@@ -5194,69 +5201,69 @@
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="7">
+      <c r="A135" s="6">
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7">
-        <v>5</v>
-      </c>
+      <c r="F135" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="7"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="6">
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6">
+        <v>1</v>
+      </c>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="6">
+        <v>136</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D136" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H136" s="6"/>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="7">
-        <v>136</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7">
-        <v>5</v>
-      </c>
+      <c r="D137" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" s="7"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
+      <c r="H137" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="6">
@@ -5266,7 +5273,7 @@
         <v>14</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>254</v>
@@ -5276,30 +5283,24 @@
         <v>255</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="7">
+      <c r="A139" s="6">
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>284</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7">
+        <v>5</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
       <c r="H139" s="7"/>
     </row>
     <row r="140" spans="1:8">
@@ -5307,36 +5308,42 @@
         <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6">
-        <v>5</v>
-      </c>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="7">
+      <c r="A141" s="6">
         <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H141" s="7"/>
     </row>
@@ -5357,21 +5364,25 @@
       <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="7">
+      <c r="A143" s="6">
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D143" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
+      <c r="G143" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="H143" s="7"/>
     </row>
     <row r="144" spans="1:8">
@@ -5379,32 +5390,26 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>176</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6">
+        <v>5</v>
+      </c>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="7">
+      <c r="A145" s="6">
         <v>144</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>290</v>
@@ -5422,7 +5427,7 @@
         <v>14</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>291</v>
@@ -5437,21 +5442,19 @@
       <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="7">
+      <c r="A147" s="6">
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E147" s="7">
-        <v>200</v>
-      </c>
+      <c r="E147" s="7"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
@@ -5464,31 +5467,35 @@
         <v>14</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>293</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="7">
+      <c r="A149" s="6">
         <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>294</v>
+      </c>
       <c r="E149" s="7">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
@@ -5499,43 +5506,37 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
+        <v>295</v>
+      </c>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="H150" s="6"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="7">
+      <c r="A151" s="6">
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>275</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7">
+        <v>3</v>
+      </c>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
       <c r="H151" s="7"/>
     </row>
     <row r="152" spans="1:8">
@@ -5543,37 +5544,43 @@
         <v>151</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="7">
+      <c r="A153" s="6">
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7">
-        <v>2</v>
-      </c>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>277</v>
+      </c>
       <c r="H153" s="7"/>
     </row>
     <row r="154" spans="1:8">
@@ -5584,31 +5591,31 @@
         <v>14</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
+      <c r="F154" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="7">
+      <c r="A155" s="6">
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7">
+        <v>2</v>
       </c>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
@@ -5622,29 +5629,31 @@
         <v>14</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E156" s="6"/>
-      <c r="F156" s="6" t="s">
-        <v>296</v>
-      </c>
+      <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="7">
+      <c r="A157" s="6">
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
@@ -5655,21 +5664,23 @@
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>296</v>
+      </c>
       <c r="E158" s="6"/>
       <c r="F158" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G158" s="6" t="s">
         <v>298</v>
       </c>
+      <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="7">
+      <c r="A159" s="6">
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
@@ -5689,43 +5700,33 @@
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>299</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G160" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="G160" s="6" t="s">
-        <v>301</v>
-      </c>
       <c r="H160" s="6"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="7">
+      <c r="A161" s="6">
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>305</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7">
+        <v>10</v>
+      </c>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
       <c r="H161" s="7"/>
     </row>
     <row r="162" spans="1:8">
@@ -5733,37 +5734,43 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="H162" s="6"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="7">
+      <c r="A163" s="6">
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7">
-        <v>5</v>
-      </c>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
+        <v>304</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="H163" s="7"/>
     </row>
     <row r="164" spans="1:8">
@@ -5771,39 +5778,35 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="E164" s="6"/>
       <c r="F164" s="6" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="H164" s="6"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="7">
+      <c r="A165" s="6">
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E165" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7">
+        <v>5</v>
+      </c>
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
@@ -5813,23 +5816,31 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6">
-        <v>1</v>
-      </c>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="H166" s="6"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="7">
+      <c r="A167" s="6">
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>15</v>
@@ -5837,9 +5848,7 @@
       <c r="D167" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E167" s="7">
-        <v>10002</v>
-      </c>
+      <c r="E167" s="7"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
@@ -5849,30 +5858,32 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E168" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6">
+        <v>1</v>
+      </c>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="7">
+      <c r="A169" s="6">
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
+        <v>313</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="E169" s="7">
-        <v>1</v>
+        <v>10002</v>
       </c>
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
@@ -5883,13 +5894,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -5897,19 +5908,17 @@
       <c r="H170" s="6"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="7">
+      <c r="A171" s="6">
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E171" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7">
+        <v>1</v>
+      </c>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
@@ -5919,32 +5928,28 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>14</v>
+        <v>304</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="E172" s="6"/>
-      <c r="F172" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>176</v>
-      </c>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
       <c r="H172" s="6"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="7">
+      <c r="A173" s="6">
         <v>172</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>290</v>
@@ -5962,7 +5967,7 @@
         <v>14</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>291</v>
@@ -5977,21 +5982,19 @@
       <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="7">
+      <c r="A175" s="6">
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E175" s="7">
-        <v>200</v>
-      </c>
+      <c r="E175" s="7"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
@@ -6004,31 +6007,35 @@
         <v>14</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>293</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="H176" s="6"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="7">
+      <c r="A177" s="6">
         <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>294</v>
+      </c>
       <c r="E177" s="7">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
@@ -6039,43 +6046,37 @@
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
+        <v>295</v>
+      </c>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="H178" s="6"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="7">
+      <c r="A179" s="6">
         <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G179" s="7" t="s">
-        <v>275</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7">
+        <v>3</v>
+      </c>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
       <c r="H179" s="7"/>
     </row>
     <row r="180" spans="1:8">
@@ -6083,37 +6084,43 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G180" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="7">
+      <c r="A181" s="6">
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7">
-        <v>2</v>
-      </c>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>277</v>
+      </c>
       <c r="H181" s="7"/>
     </row>
     <row r="182" spans="1:8">
@@ -6124,31 +6131,31 @@
         <v>14</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E182" s="6"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
+      <c r="F182" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="H182" s="6"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="7">
+      <c r="A183" s="6">
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
+      </c>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7">
+        <v>2</v>
       </c>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
@@ -6162,10 +6169,10 @@
         <v>14</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
@@ -6173,16 +6180,20 @@
       <c r="H184" s="6"/>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="7">
+      <c r="A185" s="6">
         <v>184</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
@@ -6193,21 +6204,21 @@
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>296</v>
+      </c>
       <c r="E186" s="6"/>
-      <c r="F186" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G186" s="6" t="s">
-        <v>298</v>
-      </c>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
       <c r="H186" s="6"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="7">
+      <c r="A187" s="6">
         <v>186</v>
       </c>
       <c r="B187" s="7" t="s">
@@ -6227,43 +6238,33 @@
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>303</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="7">
+      <c r="A189" s="6">
         <v>188</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>287</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7">
+        <v>10</v>
+      </c>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
       <c r="H189" s="7"/>
     </row>
     <row r="190" spans="1:8">
@@ -6271,38 +6272,42 @@
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6">
-        <v>5</v>
-      </c>
-      <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
+        <v>304</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="H190" s="6"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="7">
+      <c r="A191" s="6">
         <v>190</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E191" s="7" t="s">
-        <v>198</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="E191" s="7"/>
       <c r="F191" s="7" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="H191" s="7"/>
     </row>
@@ -6311,39 +6316,39 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>316</v>
+        <v>11</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6">
+        <v>5</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="7">
+      <c r="A193" s="6">
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
+        <v>198</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>311</v>
+      </c>
       <c r="H193" s="7"/>
     </row>
     <row r="194" spans="1:8">
@@ -6351,36 +6356,36 @@
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>107</v>
+        <v>318</v>
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="7">
+      <c r="A195" s="6">
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D195" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E195" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="E195" s="7">
-        <v>2</v>
       </c>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
@@ -6391,32 +6396,36 @@
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>311</v>
+        <v>49</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E196" s="6">
-        <v>10002</v>
+        <v>321</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="7">
+      <c r="A197" s="6">
         <v>196</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C197" s="7"/>
-      <c r="D197" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="E197" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
@@ -6427,39 +6436,35 @@
         <v>197</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E198" s="6"/>
+        <v>314</v>
+      </c>
+      <c r="E198" s="6">
+        <v>10002</v>
+      </c>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="7">
+      <c r="A199" s="6">
         <v>198</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D199" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E199" s="7"/>
-      <c r="F199" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G199" s="7" t="s">
-        <v>176</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7">
+        <v>1</v>
+      </c>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
       <c r="H199" s="7"/>
     </row>
     <row r="200" spans="1:8">
@@ -6470,7 +6475,7 @@
         <v>14</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>290</v>
@@ -6481,14 +6486,14 @@
       <c r="H200" s="6"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="7">
+      <c r="A201" s="6">
         <v>200</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>291</v>
@@ -6507,40 +6512,38 @@
         <v>201</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E202" s="6">
-        <v>200</v>
-      </c>
+      <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="7">
+      <c r="A203" s="6">
         <v>202</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>293</v>
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="7" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="H203" s="7"/>
     </row>
@@ -6549,35 +6552,41 @@
         <v>203</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="E204" s="6">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="7">
+      <c r="A205" s="6">
         <v>204</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F205" s="7"/>
-      <c r="G205" s="7"/>
+        <v>295</v>
+      </c>
+      <c r="E205" s="7"/>
+      <c r="F205" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="H205" s="7"/>
     </row>
     <row r="206" spans="1:8">
@@ -6585,45 +6594,35 @@
         <v>205</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E206" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F206" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>275</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6">
+        <v>3</v>
+      </c>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
       <c r="H206" s="6"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="7">
+      <c r="A207" s="6">
         <v>206</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E207" s="7"/>
-      <c r="F207" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>93</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F207" s="7"/>
+      <c r="G207" s="7"/>
       <c r="H207" s="7"/>
     </row>
     <row r="208" spans="1:8">
@@ -6631,33 +6630,45 @@
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6">
-        <v>2</v>
-      </c>
-      <c r="F208" s="6"/>
-      <c r="G208" s="6"/>
+        <v>273</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="H208" s="6"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="7">
+      <c r="A209" s="6">
         <v>208</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E209" s="7"/>
-      <c r="F209" s="7"/>
-      <c r="G209" s="7"/>
+      <c r="F209" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="H209" s="7"/>
     </row>
     <row r="210" spans="1:8">
@@ -6665,33 +6676,29 @@
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>99</v>
+        <v>11</v>
+      </c>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6">
+        <v>2</v>
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="7">
+      <c r="A211" s="6">
         <v>210</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
@@ -6703,33 +6710,37 @@
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="7">
+      <c r="A213" s="6">
         <v>212</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>296</v>
+      </c>
       <c r="E213" s="7"/>
-      <c r="F213" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G213" s="7" t="s">
-        <v>298</v>
-      </c>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
       <c r="H213" s="7"/>
     </row>
     <row r="214" spans="1:8">
@@ -6748,15 +6759,49 @@
       <c r="G214" s="6"/>
       <c r="H214" s="6"/>
     </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="6">
+        <v>214</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H215" s="7"/>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="6">
+        <v>215</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6">
+        <v>10</v>
+      </c>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142 B162 B163 B168 B188 B189 B190 B193 B194 B195 B196 B1:B141 B143:B152 B153:B161 B164:B165 B166:B167 B169:B170 B171:B180 B181:B187 B191:B192 B198:B207 B208:B214 B215:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B13 B14 B144 B164 B165 B170 B190 B191 B192 B195 B196 B197 B198 B1:B6 B7:B8 B9:B11 B15:B143 B145:B154 B155:B163 B166:B167 B168:B169 B171:B172 B173:B182 B183:B189 B193:B194 B200:B209 B210:B216 B217:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C142 C162 C168 C169 C188 C189 C195 C196 C1:C141 C143:C152 C153:C161 C163:C165 C166:C167 C171:C180 C181:C187 C190:C192 C193:C194 C198:C207 C208:C214 C215:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C13 C14 C144 C164 C170 C171 C190 C191 C197 C198 C1:C6 C7:C8 C9:C11 C15:C143 C145:C154 C155:C163 C165:C167 C168:C169 C173:C182 C183:C189 C192:C194 C195:C196 C200:C209 C210:C216 C217:C1048576">
       <formula1>DataList!$A$2:$A$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B197">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B199">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6787,7 +6832,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6795,20 +6840,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6816,23 +6861,23 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -6840,47 +6885,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C11" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6890,12 +6935,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6905,17 +6950,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -6925,25 +6970,25 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -6953,7 +6998,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6963,152 +7008,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -7118,204 +7163,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -7325,17 +7370,17 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421">
   <si>
     <t>Step No</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>SEARCH_BUTTON_LINK1</t>
+  </si>
+  <si>
+    <t>SSN_ALIEN_LINK</t>
   </si>
   <si>
     <t>SEARCH_PATIENT_NEW</t>
@@ -1293,10 +1296,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1328,13 +1331,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1342,16 +1339,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1366,25 +1356,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1397,20 +1379,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1426,9 +1401,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1442,8 +1445,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1458,17 +1469,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1493,7 +1496,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,7 +1538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,13 +1556,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,7 +1604,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,7 +1664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,114 +1677,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1724,25 +1727,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1765,35 +1755,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1821,16 +1800,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1842,134 +1845,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1979,6 +1982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2332,10 +2336,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2653,4155 +2657,4173 @@
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7">
-        <v>5</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="B18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="6"/>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7">
-        <v>10</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7"/>
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="6"/>
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7">
-        <v>2</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="B22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
         <v>2</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="B23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="B26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="G26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="B28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="7">
+        <v>10001</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7">
-        <v>10</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="7"/>
+      <c r="B29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="B30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="B31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="6"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="B33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="6"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="B35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
+      <c r="B36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="B37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H37" s="7"/>
+      <c r="G37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6">
-        <v>10</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="6"/>
+      <c r="B38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="7"/>
+      <c r="B39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6">
+        <v>10</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="B40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="B41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="7"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="B42" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H44" s="6"/>
+      <c r="E44" s="7">
+        <v>10001</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="7" t="s">
+      <c r="B45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="B46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="6">
-        <v>9876543210</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="E47" s="6">
+        <v>9876543210</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H48" s="6"/>
+      <c r="B48" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7">
-        <v>10</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="7"/>
+      <c r="B49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="B50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7">
+        <v>10</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="7" t="s">
+      <c r="B51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" s="7"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="B52" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="6"/>
+      <c r="G52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="7" t="s">
+      <c r="B53" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H53" s="7"/>
+      <c r="G53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="B54" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H54" s="6"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="B55" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H55" s="7"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="B56" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H56" s="6"/>
+      <c r="G56" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="7" t="s">
+      <c r="B57" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H57" s="7"/>
+      <c r="G57" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="6" t="s">
+      <c r="B58" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="7">
+        <v>10001</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E58" s="6">
-        <v>9789123456</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H58" s="6"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="7" t="s">
+      <c r="B59" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="6">
+        <v>9789123456</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H59" s="7"/>
+      <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="6" t="s">
+      <c r="B60" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H60" s="6"/>
+      <c r="D60" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7">
-        <v>10</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="7"/>
+      <c r="B61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H62" s="6"/>
+      <c r="B62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7">
+        <v>10</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7">
-        <v>5</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="B63" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H64" s="6"/>
+      <c r="B64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7">
+        <v>5</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="7" t="s">
+      <c r="B65" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H65" s="7"/>
+      <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="6" t="s">
+      <c r="B66" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H66" s="6"/>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="7" t="s">
+      <c r="B67" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H67" s="7"/>
+      <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="B68" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H68" s="6"/>
+      <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E69" s="7">
-        <v>1235647899</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H69" s="7"/>
+      <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" s="6" t="s">
+      <c r="B70" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70" s="7">
+        <v>1235647899</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="7" t="s">
+      <c r="B71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H71" s="7"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="B72" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E72" s="6">
-        <v>97890456789</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H72" s="6"/>
+      <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="7" t="s">
+      <c r="B73" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="6">
+        <v>97890456789</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H73" s="7"/>
+      <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="6" t="s">
+      <c r="B74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E74" s="6">
-        <v>1230</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" s="6"/>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" s="7" t="s">
+      <c r="B75" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1230</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E75" s="7">
-        <v>1550</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G75" s="7" t="s">
+      <c r="G75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H75" s="7"/>
+      <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="6">
         <v>75</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="B76" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1550</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="6"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" s="7" t="s">
+      <c r="B77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H77" s="7"/>
+      <c r="G77" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="6" t="s">
+      <c r="B78" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H78" s="6"/>
+      <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="6">
         <v>78</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" s="7" t="s">
+      <c r="B79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H79" s="7"/>
+      <c r="G79" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H80" s="6"/>
+      <c r="B80" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7">
-        <v>10</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="7"/>
+      <c r="B81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
+      <c r="B82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7">
+        <v>10</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="6">
         <v>82</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H83" s="7"/>
+      <c r="B83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6">
-        <v>10</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="6"/>
+      <c r="B84" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H85" s="7"/>
+      <c r="B85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6">
+        <v>10</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6">
-        <v>5</v>
-      </c>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="B86" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="6">
         <v>86</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H87" s="7"/>
+      <c r="B87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6">
+        <v>5</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D88" s="6" t="s">
+      <c r="B88" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H88" s="6"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="6">
         <v>88</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7" t="s">
+      <c r="B89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="E89" s="6"/>
+      <c r="F89" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="H89" s="7"/>
+      <c r="G89" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H90" s="6"/>
+      <c r="B90" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7">
-        <v>10</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="7"/>
+      <c r="B91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="6">
         <v>91</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H92" s="6"/>
+      <c r="B92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7">
+        <v>10</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7">
-        <v>1</v>
-      </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
+      <c r="B93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="6">
         <v>93</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
+      <c r="B94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7">
-        <v>1</v>
-      </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="B95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H96" s="6"/>
+      <c r="B96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7">
+        <v>1</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7">
-        <v>3</v>
-      </c>
-      <c r="F97" s="7" t="s">
+      <c r="B97" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G97" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G97" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H97" s="7"/>
+      <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D98" s="6" t="s">
+      <c r="B98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7">
+        <v>3</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H98" s="6"/>
+      <c r="H98" s="7"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="6">
         <v>98</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D99" s="7" t="s">
+      <c r="B99" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G99" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H99" s="7"/>
+      <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6">
-        <v>2</v>
-      </c>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
+      <c r="B100" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H100" s="7"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H101" s="7"/>
+      <c r="B101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6">
+        <v>2</v>
+      </c>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="6">
         <v>101</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="6" t="s">
+      <c r="B102" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E102" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H102" s="6"/>
+      <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="6">
         <v>102</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C103" s="7" t="s">
+      <c r="B103" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E103" s="7">
-        <v>9889656446</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H103" s="7"/>
+      <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="6">
         <v>103</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C104" s="6" t="s">
+      <c r="B104" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="H104" s="6"/>
+      <c r="E104" s="7">
+        <v>9889656446</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="6">
         <v>104</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7">
-        <v>10</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H105" s="7"/>
+      <c r="B105" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="6">
         <v>105</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H106" s="6"/>
+      <c r="B106" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7">
+        <v>10</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H106" s="7"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="6">
         <v>106</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" s="7" t="s">
+      <c r="B107" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G107" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H107" s="7"/>
+      <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="6">
         <v>107</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108" s="6" t="s">
+      <c r="B108" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H108" s="6"/>
+      <c r="G108" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="6">
         <v>108</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D109" s="7" t="s">
+      <c r="B109" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H109" s="7"/>
+      <c r="G109" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="6">
         <v>109</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D110" s="6" t="s">
+      <c r="B110" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H110" s="6"/>
+      <c r="G110" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H110" s="7"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="6">
         <v>110</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D111" s="7" t="s">
+      <c r="B111" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H111" s="7"/>
+      <c r="G111" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="6">
         <v>111</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D112" s="6" t="s">
+      <c r="B112" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H112" s="6"/>
+      <c r="G112" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H112" s="7"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="6">
         <v>112</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D113" s="7" t="s">
+      <c r="B113" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H113" s="7"/>
+      <c r="G113" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="6">
         <v>113</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D114" s="6" t="s">
+      <c r="B114" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="H114" s="6"/>
+      <c r="G114" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H114" s="7"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="6">
         <v>114</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7">
-        <v>5</v>
-      </c>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
+      <c r="B115" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="6">
         <v>115</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H116" s="6"/>
+      <c r="B116" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7">
+        <v>5</v>
+      </c>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="6">
         <v>116</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7">
-        <v>1</v>
-      </c>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
+      <c r="B117" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="6">
         <v>117</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6">
-        <v>5</v>
-      </c>
+      <c r="B118" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7">
+        <v>1</v>
+      </c>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="6">
         <v>118</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119" s="7" t="s">
+      <c r="B119" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H119" s="7"/>
+      <c r="D119" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="6">
         <v>119</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6">
-        <v>5</v>
-      </c>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
+      <c r="B120" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="6">
         <v>120</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7">
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6">
         <v>5</v>
       </c>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="6">
         <v>121</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="H122" s="6"/>
+      <c r="B122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7">
+        <v>5</v>
+      </c>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="6">
         <v>122</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="7" t="s">
+      <c r="B123" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G123" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H123" s="7"/>
+      <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="6">
         <v>123</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6">
+      <c r="B124" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
+      <c r="D124" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="6">
         <v>124</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H125" s="7"/>
+      <c r="B125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6">
+        <v>15</v>
+      </c>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="6">
         <v>125</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="6" t="s">
+      <c r="B126" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G126" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="H126" s="6"/>
+      <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="6">
         <v>126</v>
       </c>
-      <c r="B127" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D127" s="7" t="s">
+      <c r="B127" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G127" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E127" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H127" s="7"/>
+      <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="6">
         <v>127</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H128" s="6"/>
+      <c r="H128" s="7"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="6">
         <v>128</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7" t="s">
+      <c r="B129" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G129" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="G129" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H129" s="7"/>
+      <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="6">
         <v>129</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6">
-        <v>15</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" s="6"/>
+      <c r="B130" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="6">
         <v>130</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
+      <c r="B131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6">
+        <v>15</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" s="6"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="6">
         <v>131</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6">
-        <v>10</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" s="6"/>
+      <c r="B132" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="6">
         <v>132</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H133" s="7"/>
+      <c r="B133" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6">
+        <v>10</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="6">
         <v>133</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6">
-        <v>5</v>
-      </c>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
+      <c r="B134" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H134" s="7"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="6">
         <v>134</v>
       </c>
-      <c r="B135" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H135" s="7"/>
+      <c r="B135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6">
+        <v>5</v>
+      </c>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="6">
         <v>135</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6">
-        <v>1</v>
-      </c>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
+      <c r="B136" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="7"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="6">
         <v>136</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7">
-        <v>5</v>
-      </c>
+      <c r="B137" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6">
+        <v>1</v>
+      </c>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="6">
         <v>137</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C138" s="6" t="s">
+      <c r="B138" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C138" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D138" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H138" s="6"/>
+      <c r="D138" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="6">
         <v>138</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7">
-        <v>5</v>
-      </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
+      <c r="B139" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="6">
         <v>139</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="H140" s="6"/>
+      <c r="B140" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7">
+        <v>5</v>
+      </c>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="6">
         <v>140</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H141" s="7"/>
+      <c r="B141" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="6">
         <v>141</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6">
-        <v>5</v>
-      </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
+      <c r="B142" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H142" s="7"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="6">
         <v>142</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H143" s="7"/>
+      <c r="B143" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6">
+        <v>5</v>
+      </c>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="6">
         <v>143</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6">
-        <v>5</v>
-      </c>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
+      <c r="B144" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H144" s="7"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="6">
         <v>144</v>
       </c>
-      <c r="B145" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
+      <c r="B145" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6">
+        <v>5</v>
+      </c>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="6">
         <v>145</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D146" s="6" t="s">
+      <c r="B146" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D146" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H146" s="6"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="6">
         <v>146</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D147" s="7" t="s">
+      <c r="B147" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="6">
         <v>147</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D148" s="6" t="s">
+      <c r="B148" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D148" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H148" s="6"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="6">
         <v>148</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D149" s="7" t="s">
+      <c r="B149" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E149" s="7">
-        <v>200</v>
-      </c>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="6">
         <v>149</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D150" s="6" t="s">
+      <c r="B150" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D150" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H150" s="6"/>
+      <c r="E150" s="7">
+        <v>200</v>
+      </c>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="6">
         <v>150</v>
       </c>
-      <c r="B151" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7">
-        <v>3</v>
-      </c>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
+      <c r="B151" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="6">
         <v>151</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
+      <c r="B152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7">
+        <v>3</v>
+      </c>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="6">
         <v>152</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H153" s="7"/>
+      <c r="B153" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="6">
         <v>153</v>
       </c>
-      <c r="B154" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H154" s="6"/>
+      <c r="B154" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H154" s="7"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="6">
         <v>154</v>
       </c>
-      <c r="B155" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7">
-        <v>2</v>
-      </c>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
+      <c r="B155" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="6">
         <v>155</v>
       </c>
-      <c r="B156" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
+      <c r="B156" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7">
+        <v>2</v>
+      </c>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="6">
         <v>156</v>
       </c>
-      <c r="B157" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D157" s="7" t="s">
+      <c r="B157" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="E157" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="6">
         <v>157</v>
       </c>
-      <c r="B158" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6" t="s">
+      <c r="B158" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D158" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
+      <c r="E158" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="6">
         <v>158</v>
       </c>
-      <c r="B159" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7">
-        <v>10</v>
-      </c>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
+      <c r="B159" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="6">
         <v>159</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="H160" s="6"/>
+      <c r="B160" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7">
+        <v>10</v>
+      </c>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="6">
         <v>160</v>
       </c>
-      <c r="B161" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7">
-        <v>10</v>
-      </c>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
+      <c r="B161" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H161" s="6"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="6">
         <v>161</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="H162" s="6"/>
+      <c r="B162" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7">
+        <v>10</v>
+      </c>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="6">
         <v>162</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G163" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H163" s="7"/>
+      <c r="H163" s="6"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="6">
         <v>163</v>
       </c>
-      <c r="B164" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="H164" s="6"/>
+      <c r="B164" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H164" s="7"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="6">
         <v>164</v>
       </c>
-      <c r="B165" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7">
-        <v>5</v>
-      </c>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
+      <c r="B165" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="6">
         <v>165</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="H166" s="6"/>
+      <c r="B166" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7">
+        <v>5</v>
+      </c>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="6">
         <v>166</v>
       </c>
-      <c r="B167" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D167" s="7" t="s">
+      <c r="B167" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G167" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
+      <c r="H167" s="6"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="6">
         <v>167</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6">
-        <v>1</v>
-      </c>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
+      <c r="B168" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="6">
         <v>168</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E169" s="7">
-        <v>10002</v>
-      </c>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
+      <c r="B169" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6">
+        <v>1</v>
+      </c>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="6">
         <v>169</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C170" s="6" t="s">
+      <c r="B170" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C170" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
+      <c r="D170" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E170" s="7">
+        <v>10002</v>
+      </c>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="6">
         <v>170</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7">
-        <v>1</v>
-      </c>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
+      <c r="B171" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="6">
         <v>171</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
+      <c r="B172" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7">
+        <v>1</v>
+      </c>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="6">
         <v>172</v>
       </c>
-      <c r="B173" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
+      <c r="B173" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="6">
         <v>173</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D174" s="6" t="s">
+      <c r="B174" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D174" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H174" s="6"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="6">
         <v>174</v>
       </c>
-      <c r="B175" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D175" s="7" t="s">
+      <c r="B175" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D175" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H175" s="6"/>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="6">
         <v>175</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D176" s="6" t="s">
+      <c r="B176" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D176" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H176" s="6"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="6">
         <v>176</v>
       </c>
-      <c r="B177" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D177" s="7" t="s">
+      <c r="B177" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D177" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E177" s="7">
-        <v>200</v>
-      </c>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H177" s="6"/>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="6">
         <v>177</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D178" s="6" t="s">
+      <c r="B178" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D178" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G178" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H178" s="6"/>
+      <c r="E178" s="7">
+        <v>200</v>
+      </c>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="6">
         <v>178</v>
       </c>
-      <c r="B179" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="7">
-        <v>3</v>
-      </c>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="7"/>
+      <c r="B179" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H179" s="6"/>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="6">
         <v>179</v>
       </c>
-      <c r="B180" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
+      <c r="B180" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7">
+        <v>3</v>
+      </c>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="6">
         <v>180</v>
       </c>
-      <c r="B181" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H181" s="7"/>
+      <c r="B181" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="6">
         <v>181</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E182" s="6"/>
-      <c r="F182" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H182" s="6"/>
+      <c r="B182" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H182" s="7"/>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="6">
         <v>182</v>
       </c>
-      <c r="B183" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7">
-        <v>2</v>
-      </c>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="7"/>
+      <c r="B183" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H183" s="6"/>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="6">
         <v>183</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
+      <c r="B184" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7">
+        <v>2</v>
+      </c>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="6">
         <v>184</v>
       </c>
-      <c r="B185" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D185" s="7" t="s">
+      <c r="B185" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D185" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="E185" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="6">
         <v>185</v>
       </c>
-      <c r="B186" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
+      <c r="B186" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="6">
         <v>186</v>
       </c>
-      <c r="B187" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7">
-        <v>10</v>
-      </c>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
+      <c r="B187" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="6">
         <v>187</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="H188" s="6"/>
+      <c r="B188" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7">
+        <v>10</v>
+      </c>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="6">
         <v>188</v>
       </c>
-      <c r="B189" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7">
-        <v>10</v>
-      </c>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
+      <c r="B189" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H189" s="6"/>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="6">
         <v>189</v>
       </c>
-      <c r="B190" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="G190" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="H190" s="6"/>
+      <c r="B190" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7">
+        <v>10</v>
+      </c>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="6">
         <v>190</v>
       </c>
-      <c r="B191" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G191" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H191" s="7"/>
+      <c r="B191" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H191" s="6"/>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="6">
         <v>191</v>
       </c>
-      <c r="B192" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6">
-        <v>5</v>
-      </c>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
+      <c r="B192" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H192" s="7"/>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="6">
         <v>192</v>
       </c>
-      <c r="B193" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H193" s="7"/>
+      <c r="B193" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6">
+        <v>5</v>
+      </c>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="6">
         <v>193</v>
       </c>
-      <c r="B194" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D194" s="6" t="s">
+      <c r="B194" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F194" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="E194" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F194" s="6"/>
-      <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
+      <c r="G194" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H194" s="7"/>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="6">
         <v>194</v>
       </c>
-      <c r="B195" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C195" s="7" t="s">
+      <c r="B195" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C195" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D195" s="7" t="s">
+      <c r="D195" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E195" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E195" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="6">
         <v>195</v>
       </c>
-      <c r="B196" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C196" s="6" t="s">
+      <c r="B196" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C196" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D196" s="6" t="s">
+      <c r="D196" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E196" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="E196" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="6">
         <v>196</v>
       </c>
-      <c r="B197" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D197" s="7" t="s">
+      <c r="B197" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E197" s="7">
-        <v>2</v>
-      </c>
-      <c r="F197" s="7"/>
-      <c r="G197" s="7"/>
-      <c r="H197" s="7"/>
+      <c r="E197" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="6">
         <v>197</v>
       </c>
-      <c r="B198" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="E198" s="6">
-        <v>10002</v>
-      </c>
-      <c r="F198" s="6"/>
-      <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
+      <c r="B198" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E198" s="7">
+        <v>2</v>
+      </c>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="6">
         <v>198</v>
       </c>
-      <c r="B199" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C199" s="7"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="7">
-        <v>1</v>
-      </c>
-      <c r="F199" s="7"/>
-      <c r="G199" s="7"/>
-      <c r="H199" s="7"/>
+      <c r="B199" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E199" s="6">
+        <v>10002</v>
+      </c>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="6">
         <v>199</v>
       </c>
-      <c r="B200" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E200" s="6"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="6"/>
-      <c r="H200" s="6"/>
+      <c r="B200" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7">
+        <v>1</v>
+      </c>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="6">
         <v>200</v>
       </c>
-      <c r="B201" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D201" s="7" t="s">
+      <c r="B201" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D201" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H201" s="7"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="6">
         <v>201</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D202" s="6" t="s">
+      <c r="B202" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D202" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E202" s="6"/>
-      <c r="F202" s="6"/>
-      <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H202" s="7"/>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="6">
         <v>202</v>
       </c>
-      <c r="B203" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D203" s="7" t="s">
+      <c r="B203" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D203" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E203" s="7"/>
-      <c r="F203" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G203" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H203" s="7"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="6">
         <v>203</v>
       </c>
-      <c r="B204" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D204" s="6" t="s">
+      <c r="B204" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D204" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E204" s="6">
-        <v>200</v>
-      </c>
-      <c r="F204" s="6"/>
-      <c r="G204" s="6"/>
-      <c r="H204" s="6"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H204" s="7"/>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="6">
         <v>204</v>
       </c>
-      <c r="B205" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D205" s="7" t="s">
+      <c r="B205" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D205" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="E205" s="7"/>
-      <c r="F205" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H205" s="7"/>
+      <c r="E205" s="6">
+        <v>200</v>
+      </c>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="6">
         <v>205</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="6">
-        <v>3</v>
-      </c>
-      <c r="F206" s="6"/>
-      <c r="G206" s="6"/>
-      <c r="H206" s="6"/>
+      <c r="B206" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E206" s="7"/>
+      <c r="F206" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G206" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H206" s="7"/>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="6">
         <v>206</v>
       </c>
-      <c r="B207" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F207" s="7"/>
-      <c r="G207" s="7"/>
-      <c r="H207" s="7"/>
+      <c r="B207" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6">
+        <v>3</v>
+      </c>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="6">
         <v>207</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E208" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F208" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H208" s="6"/>
+      <c r="B208" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F208" s="7"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="6">
         <v>208</v>
       </c>
-      <c r="B209" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E209" s="7"/>
-      <c r="F209" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H209" s="7"/>
+      <c r="B209" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H209" s="6"/>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="6">
         <v>209</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6">
-        <v>2</v>
-      </c>
-      <c r="F210" s="6"/>
-      <c r="G210" s="6"/>
-      <c r="H210" s="6"/>
+      <c r="B210" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H210" s="7"/>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="6">
         <v>210</v>
       </c>
-      <c r="B211" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E211" s="7"/>
-      <c r="F211" s="7"/>
-      <c r="G211" s="7"/>
-      <c r="H211" s="7"/>
+      <c r="B211" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6">
+        <v>2</v>
+      </c>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="6">
         <v>211</v>
       </c>
-      <c r="B212" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D212" s="6" t="s">
+      <c r="B212" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D212" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E212" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F212" s="6"/>
-      <c r="G212" s="6"/>
-      <c r="H212" s="6"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="7"/>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7"/>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="6">
         <v>212</v>
       </c>
-      <c r="B213" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D213" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E213" s="7"/>
-      <c r="F213" s="7"/>
-      <c r="G213" s="7"/>
-      <c r="H213" s="7"/>
+      <c r="B213" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="6">
         <v>213</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6">
-        <v>10</v>
-      </c>
-      <c r="F214" s="6"/>
-      <c r="G214" s="6"/>
-      <c r="H214" s="6"/>
+      <c r="B214" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E214" s="7"/>
+      <c r="F214" s="7"/>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7"/>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="6">
         <v>214</v>
       </c>
-      <c r="B215" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C215" s="7"/>
-      <c r="D215" s="7"/>
-      <c r="E215" s="7"/>
-      <c r="F215" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G215" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H215" s="7"/>
+      <c r="B215" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6">
+        <v>10</v>
+      </c>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="6">
         <v>215</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H216" s="7"/>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="6">
+        <v>216</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
-      <c r="E216" s="6">
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6">
         <v>10</v>
       </c>
-      <c r="F216" s="6"/>
-      <c r="G216" s="6"/>
-      <c r="H216" s="6"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B13 B14 B144 B164 B165 B170 B190 B191 B192 B195 B196 B197 B198 B1:B6 B7:B8 B9:B11 B15:B143 B145:B154 B155:B163 B166:B167 B168:B169 B171:B172 B173:B182 B183:B189 B193:B194 B200:B209 B210:B216 B217:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B13 B14 B15 B16 B145 B165 B166 B171 B191 B192 B193 B196 B197 B198 B199 B1:B6 B7:B8 B9:B11 B17:B144 B146:B155 B156:B164 B167:B168 B169:B170 B172:B173 B174:B183 B184:B190 B194:B195 B201:B210 B211:B217 B218:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C13 C14 C144 C164 C170 C171 C190 C191 C197 C198 C1:C6 C7:C8 C9:C11 C15:C143 C145:C154 C155:C163 C165:C167 C168:C169 C173:C182 C183:C189 C192:C194 C195:C196 C200:C209 C210:C216 C217:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C13 C14 C15 C16 C145 C165 C171 C172 C191 C192 C198 C199 C1:C6 C7:C8 C9:C11 C17:C144 C146:C155 C156:C164 C166:C168 C169:C170 C174:C183 C184:C190 C193:C195 C196:C197 C201:C210 C211:C217 C218:C1048576">
       <formula1>DataList!$A$2:$A$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B199">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B200">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6832,7 +6854,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6840,20 +6862,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6864,20 +6886,20 @@
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -6885,482 +6907,482 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -7370,17 +7392,17 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419">
   <si>
     <t>Step No</t>
   </si>
@@ -502,9 +503,6 @@
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>EPO</t>
-  </si>
-  <si>
     <t>Select Plan type</t>
   </si>
   <si>
@@ -526,9 +524,6 @@
     <t>APP_INS_TYPE</t>
   </si>
   <si>
-    <t>Medicare</t>
-  </si>
-  <si>
     <t>Insurance type selected</t>
   </si>
   <si>
@@ -625,358 +620,358 @@
     <t>PRIMAY_DIAGNOSIS</t>
   </si>
   <si>
+    <t>Type Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis entered</t>
+  </si>
+  <si>
+    <t>Select Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis selected</t>
+  </si>
+  <si>
+    <t>DATE_OF_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Select Diagnosis date</t>
+  </si>
+  <si>
+    <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>SELF_LASTPAGE</t>
+  </si>
+  <si>
+    <t>Check Self</t>
+  </si>
+  <si>
+    <t>Self checked</t>
+  </si>
+  <si>
+    <t>AGREE_CHECKBOX_STEP7</t>
+  </si>
+  <si>
+    <t>AGREE_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on AGREE and Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button clicked </t>
+  </si>
+  <si>
+    <t>Wait for popup</t>
+  </si>
+  <si>
+    <t>Popup loaded</t>
+  </si>
+  <si>
+    <t>PATIENT_AGREE_CHECKBOX</t>
+  </si>
+  <si>
+    <t>Check agree box</t>
+  </si>
+  <si>
+    <t>Agree box checked</t>
+  </si>
+  <si>
+    <t>AGREE_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Agree button</t>
+  </si>
+  <si>
+    <t>Agree button clicked</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Enter Signature</t>
+  </si>
+  <si>
+    <t>Signature entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Name entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>Click Sign and submit button</t>
+  </si>
+  <si>
+    <t>Sign and submit button clicked</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>SUBMIT_PATIENT_NAME</t>
+  </si>
+  <si>
+    <t>Get Patient Name</t>
+  </si>
+  <si>
+    <t>Retrieved succussfully</t>
+  </si>
+  <si>
+    <t>SUBMIT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Get Fund Name</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_FROM</t>
+  </si>
+  <si>
+    <t>Get award period from</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get award period to </t>
+  </si>
+  <si>
+    <t>SUBMIT_CARDHOLDER</t>
+  </si>
+  <si>
+    <t>Get cardholder</t>
+  </si>
+  <si>
+    <t>SUBMIT_BIN</t>
+  </si>
+  <si>
+    <t>Get BIN</t>
+  </si>
+  <si>
+    <t>SUBMIT_PCN</t>
+  </si>
+  <si>
+    <t>Get PCN</t>
+  </si>
+  <si>
+    <t>SUBMIT_GROUP</t>
+  </si>
+  <si>
+    <t>Get group</t>
+  </si>
+  <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>LANDING_ALIEN_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search</t>
+  </si>
+  <si>
+    <t>HOME_ACTIONS</t>
+  </si>
+  <si>
+    <t>Click on Actions</t>
+  </si>
+  <si>
+    <t>Actions clicked</t>
+  </si>
+  <si>
+    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
+  </si>
+  <si>
+    <t>Click on View Correspondence/Upload Document</t>
+  </si>
+  <si>
+    <t>Clicked View Correspondence/Upload Document</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENTS_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on Upload button</t>
+  </si>
+  <si>
+    <t>Uplod document button clicked</t>
+  </si>
+  <si>
+    <t>UDPLOAD_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>_Desc</t>
+  </si>
+  <si>
+    <t>Type Description</t>
+  </si>
+  <si>
+    <t>Description entered</t>
+  </si>
+  <si>
+    <t>UPLOAD_SELECT_CATEGORY</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Select File</t>
+  </si>
+  <si>
+    <t>File selected</t>
+  </si>
+  <si>
+    <t>TypeUpload</t>
+  </si>
+  <si>
+    <t>UPLOAD_FILE</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Upload a file</t>
+  </si>
+  <si>
+    <t>File uploaded</t>
+  </si>
+  <si>
+    <t>Click Submit button</t>
+  </si>
+  <si>
+    <t>Submit button clicked</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>BACK_BUTTON</t>
+  </si>
+  <si>
+    <t>Click back button</t>
+  </si>
+  <si>
+    <t>Back button clicked</t>
+  </si>
+  <si>
+    <t>PROVIDER_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click on Expenditure</t>
+  </si>
+  <si>
+    <t>Clicked Expenditure</t>
+  </si>
+  <si>
+    <t>CREATE_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click Create expenditure</t>
+  </si>
+  <si>
+    <t>Create Expenditure clicked</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_AMOUNT_SUBMITTED</t>
+  </si>
+  <si>
+    <t>EXPE_NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>EXPE_SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>EXPE_ELECTRONIC_SIGN</t>
+  </si>
+  <si>
+    <t>1. Payable to Provider submitted</t>
+  </si>
+  <si>
+    <t>Click ok to Pcase alert</t>
+  </si>
+  <si>
+    <t>Pcase alert clicked</t>
+  </si>
+  <si>
+    <t>POE_ID</t>
+  </si>
+  <si>
+    <t>Get POE ID</t>
+  </si>
+  <si>
+    <t>POE id retrieved</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>SUBMITTED_EXPENDITURES</t>
+  </si>
+  <si>
+    <t>Verify Submitted expenditures</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>REMITTER_TO_DROPDOWN</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>2. Select Patient</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>CLAIM_UPDATE_PAYEE</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYEE_ZIPCODE</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYEE_ZIPCODE_VERIFY</t>
+  </si>
+  <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Type Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis entered</t>
-  </si>
-  <si>
-    <t>Select Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis selected</t>
-  </si>
-  <si>
-    <t>DATE_OF_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Select Diagnosis date</t>
-  </si>
-  <si>
-    <t>Diagnosis date selected</t>
-  </si>
-  <si>
-    <t>SELF_LASTPAGE</t>
-  </si>
-  <si>
-    <t>Check Self</t>
-  </si>
-  <si>
-    <t>Self checked</t>
-  </si>
-  <si>
-    <t>AGREE_CHECKBOX_STEP7</t>
-  </si>
-  <si>
-    <t>AGREE_SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on AGREE and Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button clicked </t>
-  </si>
-  <si>
-    <t>Wait for popup</t>
-  </si>
-  <si>
-    <t>Popup loaded</t>
-  </si>
-  <si>
-    <t>PATIENT_AGREE_CHECKBOX</t>
-  </si>
-  <si>
-    <t>Check agree box</t>
-  </si>
-  <si>
-    <t>Agree box checked</t>
-  </si>
-  <si>
-    <t>AGREE_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Agree button</t>
-  </si>
-  <si>
-    <t>Agree button clicked</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>Enter Signature</t>
-  </si>
-  <si>
-    <t>Signature entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_NAME</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Enter Name</t>
-  </si>
-  <si>
-    <t>Name entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_PHONE</t>
-  </si>
-  <si>
-    <t>SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>Click Sign and submit button</t>
-  </si>
-  <si>
-    <t>Sign and submit button clicked</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>SUBMIT_PATIENT_NAME</t>
-  </si>
-  <si>
-    <t>Get Patient Name</t>
-  </si>
-  <si>
-    <t>Retrieved succussfully</t>
-  </si>
-  <si>
-    <t>SUBMIT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Get Fund Name</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_FROM</t>
-  </si>
-  <si>
-    <t>Get award period from</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get award period to </t>
-  </si>
-  <si>
-    <t>SUBMIT_CARDHOLDER</t>
-  </si>
-  <si>
-    <t>Get cardholder</t>
-  </si>
-  <si>
-    <t>SUBMIT_BIN</t>
-  </si>
-  <si>
-    <t>Get BIN</t>
-  </si>
-  <si>
-    <t>SUBMIT_PCN</t>
-  </si>
-  <si>
-    <t>Get PCN</t>
-  </si>
-  <si>
-    <t>SUBMIT_GROUP</t>
-  </si>
-  <si>
-    <t>Get group</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>LANDING_ALIEN_SEARCH</t>
-  </si>
-  <si>
-    <t>Click Search</t>
-  </si>
-  <si>
-    <t>HOME_ACTIONS</t>
-  </si>
-  <si>
-    <t>Click on Actions</t>
-  </si>
-  <si>
-    <t>Actions clicked</t>
-  </si>
-  <si>
-    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
-  </si>
-  <si>
-    <t>Click on View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>Clicked View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENTS_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on Upload button</t>
-  </si>
-  <si>
-    <t>Uplod document button clicked</t>
-  </si>
-  <si>
-    <t>UDPLOAD_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>_Desc</t>
-  </si>
-  <si>
-    <t>Type Description</t>
-  </si>
-  <si>
-    <t>Description entered</t>
-  </si>
-  <si>
-    <t>UPLOAD_SELECT_CATEGORY</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Select File</t>
-  </si>
-  <si>
-    <t>File selected</t>
-  </si>
-  <si>
-    <t>TypeUpload</t>
-  </si>
-  <si>
-    <t>UPLOAD_FILE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>Upload a file</t>
-  </si>
-  <si>
-    <t>File uploaded</t>
-  </si>
-  <si>
-    <t>Click Submit button</t>
-  </si>
-  <si>
-    <t>Submit button clicked</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>BACK_BUTTON</t>
-  </si>
-  <si>
-    <t>Click back button</t>
-  </si>
-  <si>
-    <t>Back button clicked</t>
-  </si>
-  <si>
-    <t>PROVIDER_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click on Expenditure</t>
-  </si>
-  <si>
-    <t>Clicked Expenditure</t>
-  </si>
-  <si>
-    <t>CREATE_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click Create expenditure</t>
-  </si>
-  <si>
-    <t>Create Expenditure clicked</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_AMOUNT_SUBMITTED</t>
-  </si>
-  <si>
-    <t>EXPE_NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>EXPE_SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>EXPE_ELECTRONIC_SIGN</t>
-  </si>
-  <si>
-    <t>1. Payable to Provider submitted</t>
-  </si>
-  <si>
-    <t>Click ok to Pcase alert</t>
-  </si>
-  <si>
-    <t>Pcase alert clicked</t>
-  </si>
-  <si>
-    <t>POE_ID</t>
-  </si>
-  <si>
-    <t>Get POE ID</t>
-  </si>
-  <si>
-    <t>POE id retrieved</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>SUBMITTED_EXPENDITURES</t>
-  </si>
-  <si>
-    <t>Verify Submitted expenditures</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>REMITTER_TO_DROPDOWN</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>2. Select Patient</t>
-  </si>
-  <si>
-    <t>selected</t>
-  </si>
-  <si>
-    <t>CLAIM_UPDATE_PAYEE</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYEE_ZIPCODE</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYEE_ZIPCODE_VERIFY</t>
   </si>
   <si>
     <t>3. Select Other</t>
@@ -1296,10 +1291,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1331,57 +1326,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1402,17 +1350,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1423,6 +1364,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1430,10 +1402,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1453,11 +1441,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1469,7 +1464,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1496,7 +1491,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,13 +1533,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,19 +1653,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,132 +1671,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1730,6 +1725,56 @@
       <left/>
       <right/>
       <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
@@ -1756,23 +1801,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1800,40 +1830,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1845,130 +1851,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1983,7 +1989,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2046,6 +2052,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2338,8 +2359,8 @@
   <sheetPr/>
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A217"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2663,7 +2684,7 @@
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="7"/>
@@ -3763,8 +3784,8 @@
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>45</v>
+      <c r="B66" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>33</v>
@@ -3772,14 +3793,14 @@
       <c r="D66" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="7">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -3794,16 +3815,16 @@
         <v>15</v>
       </c>
       <c r="D67" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="F67" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="H67" s="6"/>
     </row>
@@ -3811,23 +3832,23 @@
       <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>45</v>
+      <c r="B68" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="E68" s="7">
+        <v>1</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>155</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -3842,16 +3863,16 @@
         <v>15</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H69" s="6"/>
     </row>
@@ -3866,16 +3887,16 @@
         <v>15</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E70" s="7">
         <v>1235647899</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -3890,7 +3911,7 @@
         <v>33</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -3908,14 +3929,14 @@
         <v>33</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -3930,16 +3951,16 @@
         <v>15</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E73" s="6">
         <v>97890456789</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H73" s="6"/>
     </row>
@@ -3954,14 +3975,14 @@
         <v>33</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -3976,13 +3997,13 @@
         <v>33</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E75" s="6">
         <v>1230</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>22</v>
@@ -4000,13 +4021,13 @@
         <v>33</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E76" s="7">
         <v>1550</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>22</v>
@@ -4024,11 +4045,11 @@
         <v>33</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>22</v>
@@ -4046,14 +4067,14 @@
         <v>33</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -4068,14 +4089,14 @@
         <v>33</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H79" s="6"/>
     </row>
@@ -4090,14 +4111,14 @@
         <v>33</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H80" s="7"/>
     </row>
@@ -4154,7 +4175,7 @@
         <v>33</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -4214,16 +4235,16 @@
         <v>33</v>
       </c>
       <c r="D86" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H86" s="7"/>
     </row>
@@ -4254,10 +4275,10 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H88" s="7"/>
     </row>
@@ -4272,14 +4293,14 @@
         <v>33</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H89" s="6"/>
     </row>
@@ -4294,14 +4315,14 @@
         <v>33</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H90" s="7"/>
     </row>
@@ -4358,14 +4379,14 @@
         <v>33</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H93" s="6"/>
     </row>
@@ -4396,7 +4417,7 @@
         <v>33</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -4430,14 +4451,14 @@
         <v>33</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H97" s="6"/>
     </row>
@@ -4454,10 +4475,10 @@
         <v>3</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H98" s="7"/>
     </row>
@@ -4472,14 +4493,14 @@
         <v>33</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H99" s="6"/>
     </row>
@@ -4494,14 +4515,14 @@
         <v>33</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H100" s="7"/>
     </row>
@@ -4532,16 +4553,16 @@
         <v>15</v>
       </c>
       <c r="D102" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H102" s="7"/>
     </row>
@@ -4556,16 +4577,16 @@
         <v>15</v>
       </c>
       <c r="D103" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="H103" s="6"/>
     </row>
@@ -4580,7 +4601,7 @@
         <v>15</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E104" s="7">
         <v>9889656446</v>
@@ -4604,14 +4625,14 @@
         <v>15</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H105" s="6"/>
     </row>
@@ -4640,20 +4661,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H107" s="6"/>
     </row>
@@ -4662,20 +4683,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H108" s="7"/>
     </row>
@@ -4684,20 +4705,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H109" s="6"/>
     </row>
@@ -4706,20 +4727,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H110" s="7"/>
     </row>
@@ -4728,20 +4749,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H111" s="6"/>
     </row>
@@ -4750,20 +4771,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H112" s="7"/>
     </row>
@@ -4772,20 +4793,20 @@
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H113" s="6"/>
     </row>
@@ -4794,20 +4815,20 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H114" s="7"/>
     </row>
@@ -4822,14 +4843,14 @@
         <v>33</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H115" s="6"/>
     </row>
@@ -4918,11 +4939,11 @@
         <v>15</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>41</v>
@@ -4972,14 +4993,14 @@
         <v>33</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H123" s="6"/>
     </row>
@@ -4994,14 +5015,14 @@
         <v>15</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -5032,14 +5053,14 @@
         <v>33</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H126" s="7"/>
     </row>
@@ -5054,16 +5075,16 @@
         <v>15</v>
       </c>
       <c r="D127" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G127" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="H127" s="6"/>
     </row>
@@ -5078,16 +5099,16 @@
         <v>33</v>
       </c>
       <c r="D128" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -5096,22 +5117,22 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F129" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D129" s="6" t="s">
+      <c r="G129" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="H129" s="6"/>
     </row>
@@ -5130,10 +5151,10 @@
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -5162,7 +5183,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -5202,14 +5223,14 @@
         <v>15</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H134" s="7"/>
     </row>
@@ -5298,11 +5319,11 @@
         <v>15</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G139" s="6" t="s">
         <v>41</v>
@@ -5336,14 +5357,14 @@
         <v>33</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H141" s="6"/>
     </row>
@@ -5358,14 +5379,14 @@
         <v>15</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -5396,14 +5417,14 @@
         <v>33</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -5434,7 +5455,7 @@
         <v>33</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
@@ -5452,14 +5473,14 @@
         <v>33</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H147" s="6"/>
     </row>
@@ -5474,7 +5495,7 @@
         <v>33</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
@@ -5492,14 +5513,14 @@
         <v>33</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H149" s="6"/>
     </row>
@@ -5514,7 +5535,7 @@
         <v>33</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E150" s="7">
         <v>200</v>
@@ -5534,7 +5555,7 @@
         <v>33</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6" t="s">
@@ -5572,10 +5593,10 @@
         <v>15</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -5586,22 +5607,22 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F154" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D154" s="7" t="s">
+      <c r="G154" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H154" s="7"/>
     </row>
@@ -5616,7 +5637,7 @@
         <v>33</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6" t="s">
@@ -5654,7 +5675,7 @@
         <v>33</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
@@ -5672,7 +5693,7 @@
         <v>33</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>100</v>
@@ -5692,11 +5713,11 @@
         <v>33</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
@@ -5722,16 +5743,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H161" s="6"/>
     </row>
@@ -5756,20 +5777,20 @@
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H163" s="6"/>
     </row>
@@ -5778,20 +5799,20 @@
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H164" s="7"/>
     </row>
@@ -5806,14 +5827,14 @@
         <v>33</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H165" s="6"/>
     </row>
@@ -5844,16 +5865,16 @@
         <v>33</v>
       </c>
       <c r="D167" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G167" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="H167" s="6"/>
     </row>
@@ -5868,7 +5889,7 @@
         <v>15</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
@@ -5896,13 +5917,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E170" s="7">
         <v>10002</v>
@@ -5922,7 +5943,7 @@
         <v>15</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -5950,13 +5971,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -5974,7 +5995,7 @@
         <v>33</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
@@ -5992,14 +6013,14 @@
         <v>33</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H175" s="6"/>
     </row>
@@ -6014,7 +6035,7 @@
         <v>33</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
@@ -6032,14 +6053,14 @@
         <v>33</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H177" s="6"/>
     </row>
@@ -6054,7 +6075,7 @@
         <v>33</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E178" s="7">
         <v>200</v>
@@ -6074,7 +6095,7 @@
         <v>33</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6" t="s">
@@ -6112,10 +6133,10 @@
         <v>15</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
@@ -6126,22 +6147,22 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F182" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D182" s="7" t="s">
+      <c r="G182" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G182" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H182" s="7"/>
     </row>
@@ -6156,7 +6177,7 @@
         <v>33</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6" t="s">
@@ -6194,7 +6215,7 @@
         <v>33</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
@@ -6212,7 +6233,7 @@
         <v>33</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E186" s="7" t="s">
         <v>100</v>
@@ -6232,7 +6253,7 @@
         <v>33</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
@@ -6260,16 +6281,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H189" s="6"/>
     </row>
@@ -6294,20 +6315,20 @@
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H191" s="6"/>
     </row>
@@ -6322,14 +6343,14 @@
         <v>33</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H192" s="7"/>
     </row>
@@ -6360,16 +6381,16 @@
         <v>33</v>
       </c>
       <c r="D194" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G194" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="E194" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G194" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H194" s="7"/>
     </row>
@@ -6384,10 +6405,10 @@
         <v>15</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
@@ -6404,10 +6425,10 @@
         <v>15</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
@@ -6424,7 +6445,7 @@
         <v>15</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>108</v>
@@ -6444,7 +6465,7 @@
         <v>33</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E198" s="7">
         <v>2</v>
@@ -6458,13 +6479,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E199" s="6">
         <v>10002</v>
@@ -6500,7 +6521,7 @@
         <v>33</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
@@ -6518,14 +6539,14 @@
         <v>33</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H202" s="7"/>
     </row>
@@ -6540,7 +6561,7 @@
         <v>33</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -6558,14 +6579,14 @@
         <v>33</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E204" s="7"/>
       <c r="F204" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H204" s="7"/>
     </row>
@@ -6580,7 +6601,7 @@
         <v>33</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E205" s="6">
         <v>200</v>
@@ -6600,7 +6621,7 @@
         <v>33</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E206" s="7"/>
       <c r="F206" s="7" t="s">
@@ -6638,10 +6659,10 @@
         <v>15</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
@@ -6652,22 +6673,22 @@
         <v>208</v>
       </c>
       <c r="B209" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F209" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C209" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D209" s="6" t="s">
+      <c r="G209" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="E209" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="H209" s="6"/>
     </row>
@@ -6682,7 +6703,7 @@
         <v>33</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E210" s="7"/>
       <c r="F210" s="7" t="s">
@@ -6720,7 +6741,7 @@
         <v>33</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E212" s="7"/>
       <c r="F212" s="7"/>
@@ -6738,7 +6759,7 @@
         <v>33</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>100</v>
@@ -6758,7 +6779,7 @@
         <v>33</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
@@ -6786,16 +6807,16 @@
         <v>215</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
       <c r="F216" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H216" s="7"/>
     </row>
@@ -6816,12 +6837,15 @@
       <c r="H217" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B13 B14 B15 B16 B145 B165 B166 B171 B191 B192 B193 B196 B197 B198 B199 B1:B6 B7:B8 B9:B11 B17:B144 B146:B155 B156:B164 B167:B168 B169:B170 B172:B173 B174:B183 B184:B190 B194:B195 B201:B210 B211:B217 B218:B1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B13 B14 B15 B16 B67 B145 B165 B166 B171 B191 B192 B193 B196 B197 B198 B199 B1:B6 B7:B8 B9:B11 B17:B65 B69:B144 B146:B155 B156:B164 B167:B168 B169:B170 B172:B173 B174:B183 B184:B190 B194:B195 B201:B210 B211:B217 B218:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C13 C14 C15 C16 C145 C165 C171 C172 C191 C192 C198 C199 C1:C6 C7:C8 C9:C11 C17:C144 C146:C155 C156:C164 C166:C168 C169:C170 C174:C183 C184:C190 C193:C195 C196:C197 C201:C210 C211:C217 C218:C1048576">
       <formula1>DataList!$A$2:$A$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B68">
+      <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B200">
       <formula1>[1]DataList!#REF!</formula1>
@@ -6854,7 +6878,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6862,20 +6886,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6886,20 +6910,20 @@
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -6907,47 +6931,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6957,12 +6981,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6972,45 +6996,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -7020,7 +7044,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -7030,152 +7054,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -7185,204 +7209,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -7392,17 +7416,17 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -170,7 +170,7 @@
     <t>PATIENT_FUND_NAME</t>
   </si>
   <si>
-    <t>Breast Cancer Silo*</t>
+    <t>Hepatitis C***</t>
   </si>
   <si>
     <t>Enter fund name</t>
@@ -1326,24 +1326,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1354,21 +1347,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1387,29 +1365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1417,25 +1372,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1456,15 +1395,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1491,43 +1491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,19 +1509,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,7 +1539,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,25 +1605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,13 +1623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1629,49 +1641,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1733,6 +1733,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1749,36 +1767,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1800,6 +1798,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1807,33 +1816,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1851,130 +1851,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2359,8 +2359,8 @@
   <sheetPr/>
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -13,6 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418">
   <si>
     <t>Step No</t>
   </si>
@@ -209,7 +210,7 @@
     <t>Clicked Yes</t>
   </si>
   <si>
-    <t>TREATMENT_LEBEL_YES</t>
+    <t>TERRITORY_LEBEL_YES</t>
   </si>
   <si>
     <t>REG_ZIP_CODE</t>
@@ -297,9 +298,6 @@
   </si>
   <si>
     <t>Marital Status selected</t>
-  </si>
-  <si>
-    <t>TERRITORY_LEBEL_YES</t>
   </si>
   <si>
     <t>Are you residing in the United States or a United States territory?</t>
@@ -2081,6 +2079,21 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
@@ -2359,8 +2372,8 @@
   <sheetPr/>
   <dimension ref="A1:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2886,9 +2899,9 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6">
-        <v>25</v>
+    <row r="26" s="4" customFormat="1" spans="1:8">
+      <c r="A26" s="7">
+        <v>26</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>14</v>
@@ -3125,11 +3138,11 @@
         <v>33</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>59</v>
@@ -3147,14 +3160,14 @@
         <v>15</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H37" s="7"/>
     </row>
@@ -3189,16 +3202,16 @@
         <v>33</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H39" s="7"/>
     </row>
@@ -3213,16 +3226,16 @@
         <v>15</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="H40" s="6"/>
     </row>
@@ -3237,16 +3250,16 @@
         <v>33</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H41" s="7"/>
     </row>
@@ -3261,16 +3274,16 @@
         <v>15</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="H42" s="6"/>
     </row>
@@ -3285,7 +3298,7 @@
         <v>15</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="7">
         <v>10001</v>
@@ -3309,16 +3322,16 @@
         <v>15</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="H44" s="6"/>
     </row>
@@ -3333,10 +3346,10 @@
         <v>33</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -3353,7 +3366,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="6">
         <v>9876543210</v>
@@ -3367,13 +3380,13 @@
         <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="E47" s="7">
         <v>1</v>
@@ -3393,14 +3406,14 @@
         <v>15</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H48" s="6"/>
     </row>
@@ -3435,7 +3448,7 @@
         <v>33</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3453,13 +3466,13 @@
         <v>15</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>28</v>
@@ -3477,13 +3490,13 @@
         <v>15</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>32</v>
@@ -3501,16 +3514,16 @@
         <v>33</v>
       </c>
       <c r="D53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -3525,16 +3538,16 @@
         <v>15</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="F54" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="H54" s="6"/>
     </row>
@@ -3549,16 +3562,16 @@
         <v>33</v>
       </c>
       <c r="D55" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="G55" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -3573,16 +3586,16 @@
         <v>15</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="G56" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H56" s="6"/>
     </row>
@@ -3597,16 +3610,16 @@
         <v>15</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E57" s="7">
         <v>10001</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -3621,16 +3634,16 @@
         <v>15</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E58" s="6">
         <v>9789123456</v>
       </c>
       <c r="F58" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="H58" s="6"/>
     </row>
@@ -3645,16 +3658,16 @@
         <v>15</v>
       </c>
       <c r="D59" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -3669,14 +3682,14 @@
         <v>15</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H60" s="6"/>
     </row>
@@ -3711,16 +3724,16 @@
         <v>33</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="F62" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="H62" s="6"/>
     </row>
@@ -3745,16 +3758,16 @@
         <v>64</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="H64" s="6"/>
     </row>
@@ -3763,22 +3776,22 @@
         <v>65</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E65" s="7">
         <v>1</v>
       </c>
       <c r="F65" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -3793,16 +3806,16 @@
         <v>15</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="H66" s="6"/>
     </row>
@@ -3811,22 +3824,22 @@
         <v>67</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E67" s="7">
         <v>1</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -3841,16 +3854,16 @@
         <v>15</v>
       </c>
       <c r="D68" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F68" s="6" t="s">
+      <c r="G68" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="H68" s="6"/>
     </row>
@@ -3865,16 +3878,16 @@
         <v>15</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E69" s="7">
         <v>1235647899</v>
       </c>
       <c r="F69" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -3889,7 +3902,7 @@
         <v>33</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -3907,14 +3920,14 @@
         <v>33</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -3929,16 +3942,16 @@
         <v>15</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E72" s="6">
         <v>97890456789</v>
       </c>
       <c r="F72" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="H72" s="6"/>
     </row>
@@ -3953,14 +3966,14 @@
         <v>33</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H73" s="7"/>
     </row>
@@ -3975,13 +3988,13 @@
         <v>33</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E74" s="6">
         <v>1230</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>22</v>
@@ -3999,13 +4012,13 @@
         <v>33</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E75" s="7">
         <v>1550</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>22</v>
@@ -4023,11 +4036,11 @@
         <v>33</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>22</v>
@@ -4045,14 +4058,14 @@
         <v>33</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H77" s="7"/>
     </row>
@@ -4067,14 +4080,14 @@
         <v>33</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H78" s="6"/>
     </row>
@@ -4089,14 +4102,14 @@
         <v>33</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H79" s="7"/>
     </row>
@@ -4111,14 +4124,14 @@
         <v>15</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H80" s="6"/>
     </row>
@@ -4153,7 +4166,7 @@
         <v>33</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -4171,14 +4184,14 @@
         <v>15</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -4213,16 +4226,16 @@
         <v>33</v>
       </c>
       <c r="D85" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E85" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F85" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -4247,16 +4260,16 @@
         <v>87</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H87" s="7"/>
     </row>
@@ -4271,14 +4284,14 @@
         <v>33</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="H88" s="6"/>
     </row>
@@ -4293,14 +4306,14 @@
         <v>33</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H89" s="7"/>
     </row>
@@ -4315,14 +4328,14 @@
         <v>15</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H90" s="6"/>
     </row>
@@ -4357,14 +4370,14 @@
         <v>33</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="H92" s="6"/>
     </row>
@@ -4395,7 +4408,7 @@
         <v>33</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -4429,14 +4442,14 @@
         <v>33</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G96" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="H96" s="6"/>
     </row>
@@ -4453,10 +4466,10 @@
         <v>3</v>
       </c>
       <c r="F97" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -4471,14 +4484,14 @@
         <v>33</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="H98" s="6"/>
     </row>
@@ -4493,14 +4506,14 @@
         <v>33</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H99" s="7"/>
     </row>
@@ -4531,16 +4544,16 @@
         <v>15</v>
       </c>
       <c r="D101" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="F101" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="G101" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H101" s="7"/>
     </row>
@@ -4555,16 +4568,16 @@
         <v>15</v>
       </c>
       <c r="D102" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="F102" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="G102" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="H102" s="6"/>
     </row>
@@ -4579,16 +4592,16 @@
         <v>15</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E103" s="7">
         <v>9889656446</v>
       </c>
       <c r="F103" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H103" s="7"/>
     </row>
@@ -4603,14 +4616,14 @@
         <v>15</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G104" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="H104" s="6"/>
     </row>
@@ -4630,7 +4643,7 @@
         <v>12</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H105" s="7"/>
     </row>
@@ -4639,20 +4652,20 @@
         <v>106</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G106" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="H106" s="6"/>
     </row>
@@ -4661,20 +4674,20 @@
         <v>107</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -4683,20 +4696,20 @@
         <v>108</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H108" s="6"/>
     </row>
@@ -4705,20 +4718,20 @@
         <v>109</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -4727,20 +4740,20 @@
         <v>110</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H110" s="6"/>
     </row>
@@ -4749,20 +4762,20 @@
         <v>111</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -4771,20 +4784,20 @@
         <v>112</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H112" s="6"/>
     </row>
@@ -4793,20 +4806,20 @@
         <v>113</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H113" s="7"/>
     </row>
@@ -4821,14 +4834,14 @@
         <v>33</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G114" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="H114" s="6"/>
     </row>
@@ -4917,11 +4930,11 @@
         <v>15</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>41</v>
@@ -4971,14 +4984,14 @@
         <v>33</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G122" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="H122" s="6"/>
     </row>
@@ -4993,14 +5006,14 @@
         <v>15</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H123" s="7"/>
     </row>
@@ -5031,14 +5044,14 @@
         <v>33</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G125" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -5053,16 +5066,16 @@
         <v>15</v>
       </c>
       <c r="D126" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E126" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="F126" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="G126" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="H126" s="6"/>
     </row>
@@ -5077,16 +5090,16 @@
         <v>33</v>
       </c>
       <c r="D127" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E127" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="F127" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="G127" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -5095,22 +5108,22 @@
         <v>128</v>
       </c>
       <c r="B128" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D128" s="6" t="s">
+      <c r="E128" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="F128" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="F128" s="6" t="s">
+      <c r="G128" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="H128" s="6"/>
     </row>
@@ -5129,10 +5142,10 @@
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G129" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H129" s="7"/>
     </row>
@@ -5161,7 +5174,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -5201,14 +5214,14 @@
         <v>15</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H133" s="7"/>
     </row>
@@ -5297,11 +5310,11 @@
         <v>15</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G138" s="6" t="s">
         <v>41</v>
@@ -5335,14 +5348,14 @@
         <v>33</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G140" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="H140" s="6"/>
     </row>
@@ -5357,14 +5370,14 @@
         <v>15</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H141" s="7"/>
     </row>
@@ -5395,14 +5408,14 @@
         <v>33</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H143" s="7"/>
     </row>
@@ -5433,7 +5446,7 @@
         <v>33</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
@@ -5451,14 +5464,14 @@
         <v>33</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G146" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H146" s="6"/>
     </row>
@@ -5473,7 +5486,7 @@
         <v>33</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -5491,14 +5504,14 @@
         <v>33</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G148" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H148" s="6"/>
     </row>
@@ -5513,7 +5526,7 @@
         <v>33</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E149" s="7">
         <v>200</v>
@@ -5533,14 +5546,14 @@
         <v>33</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G150" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H150" s="6"/>
     </row>
@@ -5571,10 +5584,10 @@
         <v>15</v>
       </c>
       <c r="D152" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E152" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
@@ -5585,22 +5598,22 @@
         <v>153</v>
       </c>
       <c r="B153" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D153" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C153" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D153" s="7" t="s">
+      <c r="E153" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="F153" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F153" s="7" t="s">
+      <c r="G153" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H153" s="7"/>
     </row>
@@ -5615,14 +5628,14 @@
         <v>33</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G154" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H154" s="6"/>
     </row>
@@ -5653,7 +5666,7 @@
         <v>33</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -5671,10 +5684,10 @@
         <v>33</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
@@ -5691,11 +5704,11 @@
         <v>33</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
@@ -5721,16 +5734,16 @@
         <v>160</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G160" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="H160" s="6"/>
     </row>
@@ -5755,20 +5768,20 @@
         <v>162</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G162" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="H162" s="6"/>
     </row>
@@ -5777,20 +5790,20 @@
         <v>163</v>
       </c>
       <c r="B163" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G163" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H163" s="7"/>
     </row>
@@ -5805,14 +5818,14 @@
         <v>33</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G164" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="H164" s="6"/>
     </row>
@@ -5843,16 +5856,16 @@
         <v>33</v>
       </c>
       <c r="D166" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E166" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="F166" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="G166" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="H166" s="6"/>
     </row>
@@ -5867,7 +5880,7 @@
         <v>15</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
@@ -5895,13 +5908,13 @@
         <v>169</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E169" s="7">
         <v>10002</v>
@@ -5921,7 +5934,7 @@
         <v>15</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -5949,13 +5962,13 @@
         <v>172</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -5973,7 +5986,7 @@
         <v>33</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
@@ -5991,14 +6004,14 @@
         <v>33</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G174" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H174" s="6"/>
     </row>
@@ -6013,7 +6026,7 @@
         <v>33</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
@@ -6031,14 +6044,14 @@
         <v>33</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G176" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H176" s="6"/>
     </row>
@@ -6053,7 +6066,7 @@
         <v>33</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E177" s="7">
         <v>200</v>
@@ -6073,14 +6086,14 @@
         <v>33</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G178" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G178" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H178" s="6"/>
     </row>
@@ -6111,10 +6124,10 @@
         <v>15</v>
       </c>
       <c r="D180" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E180" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
@@ -6125,22 +6138,22 @@
         <v>181</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D181" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C181" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D181" s="7" t="s">
+      <c r="E181" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E181" s="7" t="s">
+      <c r="F181" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F181" s="7" t="s">
+      <c r="G181" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H181" s="7"/>
     </row>
@@ -6155,14 +6168,14 @@
         <v>33</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G182" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H182" s="6"/>
     </row>
@@ -6193,7 +6206,7 @@
         <v>33</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
@@ -6211,10 +6224,10 @@
         <v>33</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
@@ -6231,7 +6244,7 @@
         <v>33</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
@@ -6259,16 +6272,16 @@
         <v>188</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G188" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="H188" s="6"/>
     </row>
@@ -6293,20 +6306,20 @@
         <v>190</v>
       </c>
       <c r="B190" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D190" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G190" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="G190" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="H190" s="6"/>
     </row>
@@ -6321,14 +6334,14 @@
         <v>33</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G191" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G191" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H191" s="7"/>
     </row>
@@ -6359,16 +6372,16 @@
         <v>33</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E193" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F193" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F193" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="G193" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H193" s="7"/>
     </row>
@@ -6383,10 +6396,10 @@
         <v>15</v>
       </c>
       <c r="D194" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E194" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
@@ -6403,10 +6416,10 @@
         <v>15</v>
       </c>
       <c r="D195" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E195" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
@@ -6423,10 +6436,10 @@
         <v>15</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
@@ -6437,13 +6450,13 @@
         <v>197</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E197" s="7">
         <v>2</v>
@@ -6457,13 +6470,13 @@
         <v>198</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E198" s="6">
         <v>10002</v>
@@ -6499,7 +6512,7 @@
         <v>33</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -6517,14 +6530,14 @@
         <v>33</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G201" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H201" s="7"/>
     </row>
@@ -6539,7 +6552,7 @@
         <v>33</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
@@ -6557,14 +6570,14 @@
         <v>33</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G203" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G203" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H203" s="7"/>
     </row>
@@ -6579,7 +6592,7 @@
         <v>33</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E204" s="6">
         <v>200</v>
@@ -6599,14 +6612,14 @@
         <v>33</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E205" s="7"/>
       <c r="F205" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G205" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H205" s="7"/>
     </row>
@@ -6637,10 +6650,10 @@
         <v>15</v>
       </c>
       <c r="D207" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E207" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
@@ -6651,22 +6664,22 @@
         <v>208</v>
       </c>
       <c r="B208" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D208" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C208" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D208" s="6" t="s">
+      <c r="E208" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E208" s="6" t="s">
+      <c r="F208" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="F208" s="6" t="s">
+      <c r="G208" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="H208" s="6"/>
     </row>
@@ -6681,14 +6694,14 @@
         <v>33</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E209" s="7"/>
       <c r="F209" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G209" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H209" s="7"/>
     </row>
@@ -6719,7 +6732,7 @@
         <v>33</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
@@ -6737,10 +6750,10 @@
         <v>33</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
@@ -6757,7 +6770,7 @@
         <v>33</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
@@ -6785,16 +6798,16 @@
         <v>215</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
       <c r="F215" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G215" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G215" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H215" s="7"/>
     </row>
@@ -6815,12 +6828,15 @@
       <c r="H216" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B13 B14 B15 B16 B66 B144 B164 B165 B170 B190 B191 B192 B195 B196 B197 B198 B1:B6 B7:B8 B9:B11 B17:B26 B27:B64 B68:B143 B145:B154 B155:B163 B166:B167 B168:B169 B171:B172 B173:B182 B183:B189 B193:B194 B200:B209 B210:B216 B217:B1048576">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B13 B14 B15 B16 B66 B144 B164 B165 B170 B190 B191 B192 B195 B196 B197 B198 B1:B6 B7:B8 B9:B11 B17:B25 B27:B64 B68:B143 B145:B154 B155:B163 B166:B167 B168:B169 B171:B172 B173:B182 B183:B189 B193:B194 B200:B209 B210:B216 B217:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C13 C14 C15 C16 C144 C164 C170 C171 C190 C191 C197 C198 C1:C6 C7:C8 C9:C11 C17:C26 C27:C143 C145:C154 C155:C163 C165:C167 C168:C169 C173:C182 C183:C189 C192:C194 C195:C196 C200:C209 C210:C216 C217:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C13 C14 C15 C16 C144 C164 C170 C171 C190 C191 C197 C198 C1:C6 C7:C8 C9:C11 C17:C25 C27:C143 C145:C154 C155:C163 C165:C167 C168:C169 C173:C182 C183:C189 C192:C194 C195:C196 C200:C209 C210:C216 C217:C1048576">
       <formula1>DataList!$A$2:$A$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26 C26">
+      <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65 B67">
       <formula1>[2]DataList!#REF!</formula1>
@@ -6856,7 +6872,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6864,20 +6880,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" t="s">
         <v>324</v>
-      </c>
-      <c r="C3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6888,20 +6904,20 @@
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" t="s">
         <v>328</v>
-      </c>
-      <c r="C6" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -6909,47 +6925,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
         <v>331</v>
-      </c>
-      <c r="C8" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" t="s">
         <v>336</v>
-      </c>
-      <c r="C10" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" t="s">
         <v>338</v>
-      </c>
-      <c r="C11" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6959,12 +6975,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6974,55 +6990,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -7032,359 +7048,359 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -7394,17 +7410,17 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418">
   <si>
     <t>Step No</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>Marital Status selected</t>
-  </si>
-  <si>
-    <t>Are you residing in the United States or a United States territory?</t>
   </si>
   <si>
     <t>NEXT_BUTTON</t>
@@ -2425,10 +2422,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD217"/>
+  <dimension ref="A1:XFD216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -52336,3714 +52333,3692 @@
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
+      <c r="C37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="7"/>
+      <c r="B38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <v>10</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6">
-        <v>10</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="6"/>
+      <c r="B39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="B40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="E40" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="B41" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="6"/>
+      <c r="E41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="B42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="7"/>
+      <c r="E42" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G43" s="6" t="s">
+      <c r="D43" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H43" s="6"/>
+      <c r="E43" s="7">
+        <v>10001</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" s="7"/>
+      <c r="E44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G45" s="6" t="s">
+      <c r="B45" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H45" s="6"/>
+      <c r="E45" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="B46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="E46" s="6">
+        <v>9876543210</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="B47" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E47" s="6">
-        <v>9876543210</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="C47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="7">
-        <v>1</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="B48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H49" s="6"/>
+      <c r="B49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7">
+        <v>10</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7">
-        <v>10</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="7"/>
+      <c r="B50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="B51" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="E51" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G52" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" s="7"/>
+      <c r="E52" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F53" s="6" t="s">
+      <c r="B53" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="6"/>
+      <c r="E53" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="B54" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H54" s="7"/>
+      <c r="E54" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" s="6" t="s">
+      <c r="B55" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H55" s="6"/>
+      <c r="E55" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F56" s="7" t="s">
+      <c r="B56" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H56" s="7"/>
+      <c r="E56" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F57" s="6" t="s">
+      <c r="D57" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H57" s="6"/>
+      <c r="E57" s="7">
+        <v>10001</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H58" s="7"/>
+      <c r="E58" s="6">
+        <v>9789123456</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="B59" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E59" s="6">
-        <v>9789123456</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G59" s="6" t="s">
+      <c r="D59" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H59" s="6"/>
+      <c r="E59" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="7" t="s">
+      <c r="B60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H60" s="7"/>
+      <c r="D60" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H61" s="6"/>
+      <c r="B61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7">
+        <v>10</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7">
-        <v>10</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="7"/>
+      <c r="B62" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H63" s="6"/>
+      <c r="B63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7">
+        <v>5</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7">
-        <v>5</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="B64" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G65" s="6" t="s">
+      <c r="B65" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H65" s="6"/>
+      <c r="E65" s="7">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="7">
-        <v>1</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G66" s="7" t="s">
+      <c r="B66" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H66" s="7"/>
+      <c r="E66" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G67" s="6" t="s">
+      <c r="B67" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H67" s="6"/>
+      <c r="E67" s="7">
+        <v>1</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E68" s="7">
-        <v>1</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G68" s="7" t="s">
+      <c r="B68" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="H68" s="7"/>
+      <c r="E68" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="6" t="s">
+      <c r="B69" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G69" s="6" t="s">
+      <c r="D69" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H69" s="6"/>
+      <c r="E69" s="7">
+        <v>1235647899</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E70" s="7">
-        <v>1235647899</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G70" s="7" t="s">
+      <c r="B70" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H70" s="7"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G72" s="7" t="s">
+      <c r="B72" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H72" s="7"/>
+      <c r="E72" s="6">
+        <v>97890456789</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E73" s="6">
-        <v>97890456789</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G73" s="6" t="s">
+      <c r="B73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H73" s="6"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="B74" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H74" s="7"/>
+      <c r="E74" s="6">
+        <v>1230</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E75" s="6">
-        <v>1230</v>
-      </c>
-      <c r="F75" s="6" t="s">
+      <c r="D75" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="E75" s="7">
+        <v>1550</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H75" s="6"/>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="6">
         <v>75</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E76" s="7">
-        <v>1550</v>
-      </c>
-      <c r="F76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="E76" s="6"/>
+      <c r="F76" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="7"/>
+      <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6" t="s">
+      <c r="D77" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G77" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" s="6"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7" t="s">
+      <c r="D78" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G78" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H78" s="7"/>
+      <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="6">
         <v>78</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6" t="s">
+      <c r="D79" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G79" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H79" s="6"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H80" s="7"/>
+      <c r="C80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H81" s="6"/>
+      <c r="B81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7">
+        <v>10</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="7"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7">
-        <v>10</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" s="7"/>
+      <c r="B82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="6">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
+      <c r="C83" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H84" s="7"/>
+      <c r="B84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6">
+        <v>10</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6">
-        <v>10</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="6"/>
+      <c r="B85" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H86" s="7"/>
+      <c r="B86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6">
+        <v>5</v>
+      </c>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="6">
         <v>86</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6">
-        <v>5</v>
-      </c>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
+      <c r="B87" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G88" s="7" t="s">
+      <c r="B88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H88" s="7"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="6">
         <v>88</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6" t="s">
+      <c r="G89" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G89" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H89" s="6"/>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H90" s="7"/>
+      <c r="C90" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H91" s="6"/>
+      <c r="B91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7">
+        <v>10</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="7"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="6">
         <v>91</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7">
-        <v>10</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="7"/>
+      <c r="B92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="H93" s="6"/>
+      <c r="B93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7">
+        <v>1</v>
+      </c>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="6">
         <v>93</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7">
-        <v>1</v>
-      </c>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
+      <c r="B94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="B95" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7">
+        <v>1</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7">
-        <v>1</v>
-      </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
+      <c r="B96" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G97" s="6" t="s">
+      <c r="B97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7">
+        <v>3</v>
+      </c>
+      <c r="F97" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H97" s="6"/>
+      <c r="G97" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7">
-        <v>3</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G98" s="7" t="s">
+      <c r="B98" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H98" s="7"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="6">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G99" s="6" t="s">
+      <c r="D99" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H99" s="6"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H99" s="7"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H100" s="7"/>
+      <c r="B100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6">
+        <v>2</v>
+      </c>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6">
-        <v>2</v>
-      </c>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
+      <c r="B101" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="6">
         <v>101</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G102" s="7" t="s">
+      <c r="D102" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="H102" s="7"/>
+      <c r="E102" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="6">
         <v>102</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103" s="6" t="s">
+      <c r="B103" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G103" s="6" t="s">
+      <c r="D103" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H103" s="6"/>
+      <c r="E103" s="7">
+        <v>9889656446</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H103" s="7"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="6">
         <v>103</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C104" s="7" t="s">
+      <c r="B104" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E104" s="7">
-        <v>9889656446</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="6">
         <v>104</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H105" s="6"/>
+      <c r="B105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7">
+        <v>10</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H105" s="7"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="6">
         <v>105</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7">
-        <v>10</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H106" s="7"/>
+      <c r="B106" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="6">
         <v>106</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C107" s="6" t="s">
+      <c r="B107" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6" t="s">
+      <c r="D107" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G107" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H107" s="6"/>
+      <c r="H107" s="7"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="6">
         <v>107</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C108" s="7" t="s">
+      <c r="B108" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7" t="s">
+      <c r="D108" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H108" s="7"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="6">
         <v>108</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C109" s="6" t="s">
+      <c r="B109" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6" t="s">
+      <c r="D109" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G109" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H109" s="6"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H109" s="7"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="6">
         <v>109</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" s="7" t="s">
+      <c r="B110" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D110" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7" t="s">
+      <c r="D110" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="G110" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H110" s="7"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="6">
         <v>110</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C111" s="6" t="s">
+      <c r="B111" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D111" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6" t="s">
+      <c r="D111" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G111" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H111" s="6"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H111" s="7"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="6">
         <v>111</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C112" s="7" t="s">
+      <c r="B112" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7" t="s">
+      <c r="D112" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="G112" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H112" s="7"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="6">
         <v>112</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C113" s="6" t="s">
+      <c r="B113" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C113" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D113" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6" t="s">
+      <c r="D113" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G113" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H113" s="6"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="6">
         <v>113</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C114" s="7" t="s">
+      <c r="B114" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7" t="s">
+      <c r="D114" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G114" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H114" s="7"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="6">
         <v>114</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="H115" s="6"/>
+      <c r="B115" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7">
+        <v>5</v>
+      </c>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="6">
         <v>115</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7">
-        <v>5</v>
-      </c>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
+      <c r="B116" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="6">
         <v>116</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H117" s="6"/>
+      <c r="B117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7">
+        <v>1</v>
+      </c>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="6">
         <v>117</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7">
-        <v>1</v>
-      </c>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
+      <c r="B118" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="6">
         <v>118</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C119" s="6" t="s">
+      <c r="B119" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D119" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6">
-        <v>5</v>
-      </c>
+      <c r="D119" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="6">
         <v>119</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H120" s="7"/>
+      <c r="B120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6">
+        <v>5</v>
+      </c>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="6">
         <v>120</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6">
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7">
         <v>5</v>
       </c>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="6">
         <v>121</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7">
-        <v>5</v>
-      </c>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
+      <c r="B122" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="6">
         <v>122</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G123" s="6" t="s">
+      <c r="C123" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H123" s="6"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="6">
         <v>123</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="7" t="s">
+      <c r="B124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6">
         <v>15</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H124" s="7"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="6">
         <v>124</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6">
-        <v>15</v>
-      </c>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
+      <c r="B125" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="6">
         <v>125</v>
       </c>
-      <c r="B126" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G126" s="7" t="s">
+      <c r="B126" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="H126" s="7"/>
+      <c r="E126" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="6">
         <v>126</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="G127" s="6" t="s">
+      <c r="B127" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D127" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H127" s="6"/>
+      <c r="E127" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="6">
         <v>127</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C128" s="7" t="s">
+      <c r="B128" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H128" s="7"/>
+      <c r="D128" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="6">
         <v>128</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C129" s="6" t="s">
+      <c r="B129" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D129" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G129" s="6" t="s">
+      <c r="D129" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H129" s="6"/>
+      <c r="G129" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="6">
         <v>129</v>
       </c>
-      <c r="B130" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H130" s="7"/>
+      <c r="B130" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6">
+        <v>15</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="6">
         <v>130</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6">
-        <v>15</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" s="6"/>
+      <c r="B131" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="6">
         <v>131</v>
       </c>
-      <c r="B132" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
+      <c r="B132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6">
+        <v>10</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="6">
         <v>132</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6">
-        <v>10</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" s="6"/>
+      <c r="B133" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H133" s="7"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="6">
         <v>133</v>
       </c>
-      <c r="B134" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H134" s="7"/>
+      <c r="B134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6">
+        <v>5</v>
+      </c>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="6">
         <v>134</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6">
-        <v>5</v>
-      </c>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
+      <c r="B135" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="7"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="6">
         <v>135</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H136" s="7"/>
+      <c r="B136" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6">
+        <v>1</v>
+      </c>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="6">
         <v>136</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6">
-        <v>1</v>
-      </c>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
+      <c r="B137" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="6">
         <v>137</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C138" s="7" t="s">
+      <c r="B138" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D138" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7">
-        <v>5</v>
-      </c>
+      <c r="D138" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="6">
         <v>138</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H139" s="6"/>
+      <c r="B139" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7">
+        <v>5</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="6">
         <v>139</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7">
-        <v>5</v>
-      </c>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
+      <c r="B140" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="6">
         <v>140</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H141" s="6"/>
+      <c r="C141" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H141" s="7"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="6">
         <v>141</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H142" s="7"/>
+      <c r="B142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6">
+        <v>5</v>
+      </c>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="6">
         <v>142</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6">
-        <v>5</v>
-      </c>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
+      <c r="B143" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H143" s="7"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="6">
         <v>143</v>
       </c>
-      <c r="B144" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H144" s="7"/>
+      <c r="B144" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6">
+        <v>5</v>
+      </c>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="6">
         <v>144</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6">
-        <v>5</v>
-      </c>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
+      <c r="B145" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="6">
         <v>145</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="6">
         <v>146</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H147" s="6"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="6">
         <v>147</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="6">
         <v>148</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C149" s="6" t="s">
+      <c r="B149" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D149" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H149" s="6"/>
+      <c r="E149" s="7">
+        <v>200</v>
+      </c>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="6">
         <v>149</v>
       </c>
-      <c r="B150" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C150" s="7" t="s">
+      <c r="B150" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E150" s="7">
-        <v>200</v>
-      </c>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H150" s="6"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="6">
         <v>150</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H151" s="6"/>
+      <c r="B151" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7">
+        <v>3</v>
+      </c>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="6">
         <v>151</v>
       </c>
-      <c r="B152" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7">
-        <v>3</v>
-      </c>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
+      <c r="B152" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="6">
         <v>152</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
+      <c r="B153" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H153" s="7"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="6">
         <v>153</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C154" s="7" t="s">
+      <c r="B154" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D154" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H154" s="7"/>
+      <c r="D154" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="6">
         <v>154</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H155" s="6"/>
+      <c r="B155" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7">
+        <v>2</v>
+      </c>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="6">
         <v>155</v>
       </c>
-      <c r="B156" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7">
-        <v>2</v>
-      </c>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
+      <c r="B156" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="6">
         <v>156</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C157" s="6" t="s">
+      <c r="B157" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C157" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D157" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
+      <c r="E157" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="6">
         <v>157</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C158" s="7" t="s">
+      <c r="B158" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="E158" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="6">
         <v>158</v>
       </c>
-      <c r="B159" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
+      <c r="B159" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7">
+        <v>10</v>
+      </c>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="6">
         <v>159</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7">
-        <v>10</v>
-      </c>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
+      <c r="B160" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H160" s="6"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="6">
         <v>160</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G161" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H161" s="6"/>
+      <c r="B161" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7">
+        <v>10</v>
+      </c>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="6">
         <v>161</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7">
-        <v>10</v>
-      </c>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
+      <c r="B162" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H162" s="6"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="6">
         <v>162</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C163" s="6" t="s">
+      <c r="B163" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C163" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D163" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="H163" s="6"/>
+      <c r="D163" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H163" s="7"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="6">
         <v>163</v>
       </c>
-      <c r="B164" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C164" s="7" t="s">
+      <c r="B164" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D164" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H164" s="7"/>
+      <c r="D164" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H164" s="6"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="6">
         <v>164</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="H165" s="6"/>
+      <c r="B165" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7">
+        <v>5</v>
+      </c>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="6">
         <v>165</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7">
-        <v>5</v>
-      </c>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
+      <c r="B166" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H166" s="6"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="6">
         <v>166</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G167" s="6" t="s">
+      <c r="B167" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H167" s="6"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="6">
         <v>167</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
+      <c r="B168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6">
+        <v>1</v>
+      </c>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="6">
         <v>168</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6">
-        <v>1</v>
-      </c>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
+      <c r="B169" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E169" s="7">
+        <v>10002</v>
+      </c>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="6">
         <v>169</v>
       </c>
-      <c r="B170" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C170" s="7" t="s">
+      <c r="B170" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D170" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E170" s="7">
-        <v>10002</v>
-      </c>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
+      <c r="D170" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="6">
         <v>170</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
+      <c r="B171" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7">
+        <v>1</v>
+      </c>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="6">
         <v>171</v>
       </c>
-      <c r="B172" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7">
-        <v>1</v>
-      </c>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
+      <c r="B172" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="6">
         <v>172</v>
       </c>
-      <c r="B173" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C173" s="6" t="s">
+      <c r="B173" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D173" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
+      <c r="D173" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="6">
         <v>173</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C174" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D174" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="6">
         <v>174</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="D175" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G175" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H175" s="6"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="6">
         <v>175</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C176" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H176" s="6"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="6">
         <v>176</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C177" s="6" t="s">
+      <c r="B177" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="D177" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G177" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H177" s="6"/>
+      <c r="E177" s="7">
+        <v>200</v>
+      </c>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="6">
         <v>177</v>
       </c>
-      <c r="B178" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C178" s="7" t="s">
+      <c r="B178" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D178" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E178" s="7">
-        <v>200</v>
-      </c>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H178" s="6"/>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="6">
         <v>178</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H179" s="6"/>
+      <c r="B179" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7">
+        <v>3</v>
+      </c>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="6">
         <v>179</v>
       </c>
-      <c r="B180" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="7">
-        <v>3</v>
-      </c>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
+      <c r="B180" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="6">
         <v>180</v>
       </c>
-      <c r="B181" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
+      <c r="B181" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H181" s="7"/>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="6">
         <v>181</v>
       </c>
-      <c r="B182" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C182" s="7" t="s">
+      <c r="B182" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D182" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G182" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H182" s="7"/>
+      <c r="D182" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H182" s="6"/>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="6">
         <v>182</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G183" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H183" s="6"/>
+      <c r="B183" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7">
+        <v>2</v>
+      </c>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="6">
         <v>183</v>
       </c>
-      <c r="B184" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7">
-        <v>2</v>
-      </c>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
+      <c r="B184" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="6">
         <v>184</v>
       </c>
-      <c r="B185" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C185" s="6" t="s">
+      <c r="B185" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C185" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D185" s="6" t="s">
+      <c r="D185" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
+      <c r="E185" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="6">
         <v>185</v>
       </c>
-      <c r="B186" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C186" s="7" t="s">
+      <c r="B186" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D186" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E186" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
+      <c r="D186" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="6">
         <v>186</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
+      <c r="B187" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7">
+        <v>10</v>
+      </c>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="6">
         <v>187</v>
       </c>
-      <c r="B188" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7">
-        <v>10</v>
-      </c>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
+      <c r="B188" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="6">
         <v>188</v>
       </c>
-      <c r="B189" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G189" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H189" s="6"/>
+      <c r="B189" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7">
+        <v>10</v>
+      </c>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="6">
         <v>189</v>
       </c>
-      <c r="B190" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7">
-        <v>10</v>
-      </c>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
+      <c r="B190" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="H190" s="6"/>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="6">
         <v>190</v>
       </c>
-      <c r="B191" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C191" s="6" t="s">
+      <c r="B191" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D191" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G191" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="H191" s="6"/>
+      <c r="D191" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H191" s="7"/>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="6">
         <v>191</v>
       </c>
-      <c r="B192" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H192" s="7"/>
+      <c r="B192" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6">
+        <v>5</v>
+      </c>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="6">
         <v>192</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6">
-        <v>5</v>
-      </c>
-      <c r="F193" s="6"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
+      <c r="B193" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H193" s="7"/>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="6">
         <v>193</v>
       </c>
-      <c r="B194" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E194" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F194" s="7" t="s">
+      <c r="B194" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G194" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H194" s="7"/>
+      <c r="E194" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="6">
         <v>194</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C195" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D195" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E195" s="6" t="s">
+      <c r="D195" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F195" s="6"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
+      <c r="E195" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="6">
         <v>195</v>
       </c>
-      <c r="B196" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C196" s="7" t="s">
+      <c r="B196" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D196" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E196" s="7" t="s">
+      <c r="D196" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="F196" s="7"/>
-      <c r="G196" s="7"/>
-      <c r="H196" s="7"/>
+      <c r="E196" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="6">
         <v>196</v>
       </c>
-      <c r="B197" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D197" s="6" t="s">
+      <c r="B197" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D197" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E197" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F197" s="6"/>
-      <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
+      <c r="E197" s="7">
+        <v>2</v>
+      </c>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="6">
         <v>197</v>
       </c>
-      <c r="B198" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E198" s="7">
-        <v>2</v>
-      </c>
-      <c r="F198" s="7"/>
-      <c r="G198" s="7"/>
-      <c r="H198" s="7"/>
+      <c r="B198" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E198" s="6">
+        <v>10002</v>
+      </c>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="6">
         <v>198</v>
       </c>
-      <c r="B199" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E199" s="6">
-        <v>10002</v>
-      </c>
-      <c r="F199" s="6"/>
-      <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
+      <c r="B199" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7">
+        <v>1</v>
+      </c>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="6">
         <v>199</v>
       </c>
-      <c r="B200" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="7">
-        <v>1</v>
-      </c>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
+      <c r="B200" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="6">
         <v>200</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D201" s="6" t="s">
+      <c r="D201" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E201" s="6"/>
-      <c r="F201" s="6"/>
-      <c r="G201" s="6"/>
-      <c r="H201" s="6"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H201" s="7"/>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="6">
         <v>201</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C202" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D202" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E202" s="7"/>
-      <c r="F202" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G202" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H202" s="7"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="6">
         <v>202</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C203" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D203" s="6" t="s">
+      <c r="D203" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E203" s="6"/>
-      <c r="F203" s="6"/>
-      <c r="G203" s="6"/>
-      <c r="H203" s="6"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H203" s="7"/>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="6">
         <v>203</v>
       </c>
-      <c r="B204" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C204" s="7" t="s">
+      <c r="B204" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D204" s="7" t="s">
+      <c r="D204" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E204" s="7"/>
-      <c r="F204" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G204" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H204" s="7"/>
+      <c r="E204" s="6">
+        <v>200</v>
+      </c>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="6">
         <v>204</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C205" s="6" t="s">
+      <c r="B205" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D205" s="6" t="s">
+      <c r="D205" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E205" s="6">
-        <v>200</v>
-      </c>
-      <c r="F205" s="6"/>
-      <c r="G205" s="6"/>
-      <c r="H205" s="6"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H205" s="7"/>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="6">
         <v>205</v>
       </c>
-      <c r="B206" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E206" s="7"/>
-      <c r="F206" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G206" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H206" s="7"/>
+      <c r="B206" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6">
+        <v>3</v>
+      </c>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="6">
         <v>206</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C207" s="6"/>
-      <c r="D207" s="6"/>
-      <c r="E207" s="6">
-        <v>3</v>
-      </c>
-      <c r="F207" s="6"/>
-      <c r="G207" s="6"/>
-      <c r="H207" s="6"/>
+      <c r="B207" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F207" s="7"/>
+      <c r="G207" s="7"/>
+      <c r="H207" s="7"/>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="6">
         <v>207</v>
       </c>
-      <c r="B208" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F208" s="7"/>
-      <c r="G208" s="7"/>
-      <c r="H208" s="7"/>
+      <c r="B208" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H208" s="6"/>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="6">
         <v>208</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C209" s="6" t="s">
+      <c r="B209" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D209" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E209" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H209" s="6"/>
+      <c r="D209" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E209" s="7"/>
+      <c r="F209" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H209" s="7"/>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="6">
         <v>209</v>
       </c>
-      <c r="B210" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E210" s="7"/>
-      <c r="F210" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G210" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H210" s="7"/>
+      <c r="B210" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6">
+        <v>2</v>
+      </c>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="6">
         <v>210</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6">
-        <v>2</v>
-      </c>
-      <c r="F211" s="6"/>
-      <c r="G211" s="6"/>
-      <c r="H211" s="6"/>
+      <c r="B211" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="6">
         <v>211</v>
       </c>
-      <c r="B212" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C212" s="7" t="s">
+      <c r="B212" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D212" s="7" t="s">
+      <c r="D212" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E212" s="7"/>
-      <c r="F212" s="7"/>
-      <c r="G212" s="7"/>
-      <c r="H212" s="7"/>
+      <c r="E212" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="6">
         <v>212</v>
       </c>
-      <c r="B213" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C213" s="6" t="s">
+      <c r="B213" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D213" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E213" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F213" s="6"/>
-      <c r="G213" s="6"/>
-      <c r="H213" s="6"/>
+      <c r="D213" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="6">
         <v>213</v>
       </c>
-      <c r="B214" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E214" s="7"/>
-      <c r="F214" s="7"/>
-      <c r="G214" s="7"/>
-      <c r="H214" s="7"/>
+      <c r="B214" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6">
+        <v>10</v>
+      </c>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="6">
         <v>214</v>
       </c>
-      <c r="B215" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
-      <c r="E215" s="6">
-        <v>10</v>
-      </c>
-      <c r="F215" s="6"/>
-      <c r="G215" s="6"/>
-      <c r="H215" s="6"/>
+      <c r="B215" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H215" s="7"/>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="6">
         <v>215</v>
       </c>
-      <c r="B216" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C216" s="7"/>
-      <c r="D216" s="7"/>
-      <c r="E216" s="7"/>
-      <c r="F216" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G216" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H216" s="7"/>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" s="6">
-        <v>216</v>
-      </c>
-      <c r="B217" s="6" t="s">
+      <c r="B216" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C217" s="6"/>
-      <c r="D217" s="6"/>
-      <c r="E217" s="6">
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6">
         <v>10</v>
       </c>
-      <c r="F217" s="6"/>
-      <c r="G217" s="6"/>
-      <c r="H217" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B13 B14 B15 B16 B67 B145 B165 B166 B171 B191 B192 B193 B196 B197 B198 B199 B1:B6 B7:B8 B9:B11 B17:B24 B28:B65 B69:B144 B146:B155 B156:B164 B167:B168 B169:B170 B172:B173 B174:B183 B184:B190 B194:B195 B201:B210 B211:B217 B218:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B13 B14 B15 B16 B66 B144 B164 B165 B170 B190 B191 B192 B195 B196 B197 B198 B1:B6 B7:B8 B9:B11 B17:B24 B28:B36 B37:B64 B68:B143 B145:B154 B155:B163 B166:B167 B168:B169 B171:B172 B173:B182 B183:B189 B193:B194 B200:B209 B210:B216 B217:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C13 C14 C15 C16 C145 C165 C171 C172 C191 C192 C198 C199 C1:C6 C7:C8 C9:C11 C17:C24 C28:C144 C146:C155 C156:C164 C166:C168 C169:C170 C174:C183 C184:C190 C193:C195 C196:C197 C201:C210 C211:C217 C218:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C13 C14 C15 C16 C144 C164 C170 C171 C190 C191 C197 C198 C1:C6 C7:C8 C9:C11 C17:C24 C28:C36 C37:C143 C145:C154 C155:C163 C165:C167 C168:C169 C173:C182 C183:C189 C192:C194 C195:C196 C200:C209 C210:C216 C217:C1048576">
       <formula1>DataList!$A$2:$A$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65 B67">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B200">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B199">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B27 C25:C27">
@@ -56077,7 +56052,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -56085,20 +56060,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" t="s">
         <v>324</v>
-      </c>
-      <c r="C3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -56109,20 +56084,20 @@
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" t="s">
         <v>328</v>
-      </c>
-      <c r="C6" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -56130,47 +56105,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
         <v>331</v>
-      </c>
-      <c r="C8" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" t="s">
         <v>336</v>
-      </c>
-      <c r="C10" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" t="s">
         <v>338</v>
-      </c>
-      <c r="C11" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -56180,12 +56155,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -56195,55 +56170,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -56253,359 +56228,359 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -56615,17 +56590,17 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -14,7 +14,6 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -1290,8 +1289,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -1325,19 +1324,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1346,13 +1336,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1366,6 +1349,68 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1387,52 +1432,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,7 +1441,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1496,7 +1495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,7 +1507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,13 +1531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,13 +1549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,37 +1567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,31 +1603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,24 +1621,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1753,35 +1752,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1795,11 +1768,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1820,16 +1799,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1851,6 +1830,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1862,13 +1850,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1880,130 +1868,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2024,7 +2012,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2117,21 +2105,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="DataList"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2424,8 +2397,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A216"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -52361,7 +52334,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>12</v>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -2397,8 +2397,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -52580,7 +52580,7 @@
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>12</v>
@@ -52856,7 +52856,7 @@
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>12</v>
@@ -53298,7 +53298,7 @@
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>12</v>
@@ -53358,7 +53358,7 @@
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>12</v>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -2397,8 +2397,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -2397,8 +2397,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -53358,7 +53358,7 @@
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>12</v>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419">
   <si>
     <t>Step No</t>
   </si>
@@ -861,7 +861,13 @@
     <t>Submit button clicked</t>
   </si>
   <si>
-    <t>AlertOk</t>
+    <t>NEW_CLOSE_BUTTON</t>
+  </si>
+  <si>
+    <t>Close the popup</t>
+  </si>
+  <si>
+    <t>Popup closed</t>
   </si>
   <si>
     <t>BACK_BUTTON</t>
@@ -916,12 +922,6 @@
   </si>
   <si>
     <t>1. Payable to Provider submitted</t>
-  </si>
-  <si>
-    <t>Click ok to Pcase alert</t>
-  </si>
-  <si>
-    <t>Pcase alert clicked</t>
   </si>
   <si>
     <t>POE_ID</t>
@@ -1114,6 +1114,9 @@
   </si>
   <si>
     <t>Forward</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
   </si>
   <si>
     <t>DismissAlert</t>
@@ -1995,7 +1998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2013,6 +2016,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2397,8 +2401,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215:G215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -54327,13 +54331,21 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
+      <c r="F131" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:8">
@@ -54367,14 +54379,14 @@
         <v>15</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H133" s="7"/>
     </row>
@@ -54523,14 +54535,14 @@
         <v>15</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H141" s="7"/>
     </row>
@@ -54561,14 +54573,14 @@
         <v>33</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H143" s="7"/>
     </row>
@@ -54599,7 +54611,7 @@
         <v>33</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
@@ -54617,7 +54629,7 @@
         <v>33</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
@@ -54639,7 +54651,7 @@
         <v>33</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -54657,7 +54669,7 @@
         <v>33</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
@@ -54679,7 +54691,7 @@
         <v>33</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E149" s="7">
         <v>200</v>
@@ -54699,7 +54711,7 @@
         <v>33</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6" t="s">
@@ -54781,7 +54793,7 @@
         <v>33</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6" t="s">
@@ -54819,7 +54831,7 @@
         <v>33</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -54837,7 +54849,7 @@
         <v>33</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E157" s="7" t="s">
         <v>99</v>
@@ -54857,11 +54869,11 @@
         <v>33</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
@@ -54886,17 +54898,21 @@
       <c r="A160" s="6">
         <v>159</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D160" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>297</v>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="H160" s="6"/>
     </row>
@@ -54971,14 +54987,14 @@
         <v>33</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H164" s="6"/>
     </row>
@@ -55139,7 +55155,7 @@
         <v>33</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
@@ -55157,7 +55173,7 @@
         <v>33</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
@@ -55179,7 +55195,7 @@
         <v>33</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
@@ -55197,7 +55213,7 @@
         <v>33</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
@@ -55219,7 +55235,7 @@
         <v>33</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E177" s="7">
         <v>200</v>
@@ -55239,7 +55255,7 @@
         <v>33</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6" t="s">
@@ -55321,7 +55337,7 @@
         <v>33</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6" t="s">
@@ -55359,7 +55375,7 @@
         <v>33</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
@@ -55377,7 +55393,7 @@
         <v>33</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E185" s="7" t="s">
         <v>99</v>
@@ -55397,7 +55413,7 @@
         <v>33</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
@@ -55424,17 +55440,21 @@
       <c r="A188" s="6">
         <v>187</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D188" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>297</v>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="H188" s="6"/>
     </row>
@@ -55487,14 +55507,14 @@
         <v>33</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H191" s="7"/>
     </row>
@@ -55665,7 +55685,7 @@
         <v>33</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -55683,7 +55703,7 @@
         <v>33</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="7" t="s">
@@ -55705,7 +55725,7 @@
         <v>33</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
@@ -55723,7 +55743,7 @@
         <v>33</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="7" t="s">
@@ -55745,7 +55765,7 @@
         <v>33</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E204" s="6">
         <v>200</v>
@@ -55765,7 +55785,7 @@
         <v>33</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E205" s="7"/>
       <c r="F205" s="7" t="s">
@@ -55847,7 +55867,7 @@
         <v>33</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E209" s="7"/>
       <c r="F209" s="7" t="s">
@@ -55885,7 +55905,7 @@
         <v>33</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
@@ -55903,7 +55923,7 @@
         <v>33</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>99</v>
@@ -55923,7 +55943,7 @@
         <v>33</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
@@ -55951,16 +55971,20 @@
         <v>214</v>
       </c>
       <c r="B215" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D215" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C215" s="7"/>
-      <c r="D215" s="7"/>
       <c r="E215" s="7"/>
       <c r="F215" s="7" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="H215" s="7"/>
     </row>
@@ -55982,10 +56006,10 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B13 B14 B15 B16 B66 B144 B164 B165 B170 B190 B191 B192 B195 B196 B197 B198 B1:B6 B7:B8 B9:B11 B17:B24 B28:B36 B37:B64 B68:B143 B145:B154 B155:B163 B166:B167 B168:B169 B171:B172 B173:B182 B183:B189 B193:B194 B200:B209 B210:B216 B217:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B13 B14 B15 B16 B66 B144 B160 B164 B165 B170 B188 B189 B190 B191 B192 B195 B196 B197 B198 B215 B216 B1:B6 B7:B8 B9:B11 B17:B24 B28:B36 B37:B64 B68:B143 B145:B154 B155:B159 B161:B163 B166:B167 B168:B169 B171:B172 B173:B182 B183:B187 B193:B194 B200:B209 B210:B214 B217:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C13 C14 C15 C16 C144 C164 C170 C171 C190 C191 C197 C198 C1:C6 C7:C8 C9:C11 C17:C24 C28:C36 C37:C143 C145:C154 C155:C163 C165:C167 C168:C169 C173:C182 C183:C189 C192:C194 C195:C196 C200:C209 C210:C216 C217:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C13 C14 C15 C16 C144 C160 C164 C170 C171 C188 C189 C190 C191 C197 C198 C215 C216 C1:C6 C7:C8 C9:C11 C17:C24 C28:C36 C37:C143 C145:C154 C155:C159 C161:C163 C165:C167 C168:C169 C173:C182 C183:C187 C192:C194 C195:C196 C200:C209 C210:C214 C217:C1048576">
       <formula1>DataList!$A$2:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65 B67">
@@ -56261,92 +56285,92 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>277</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -56356,37 +56380,37 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -56396,22 +56420,22 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>334</v>
@@ -56419,12 +56443,12 @@
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>334</v>
@@ -56432,27 +56456,27 @@
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>334</v>
@@ -56460,7 +56484,7 @@
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>334</v>
@@ -56468,87 +56492,87 @@
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -56563,17 +56587,17 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx
@@ -1292,10 +1292,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1327,10 +1327,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1342,9 +1343,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1366,25 +1441,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1397,68 +1456,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1516,13 +1516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,7 +1534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,19 +1558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,7 +1576,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,13 +1618,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,73 +1666,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,24 +1753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1786,6 +1768,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1796,21 +1787,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1842,6 +1818,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1850,10 +1835,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1871,134 +1871,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2016,7 +2016,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2401,8 +2400,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215:G215"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -54336,7 +54335,7 @@
       <c r="C131" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="8" t="s">
         <v>277</v>
       </c>
       <c r="E131" s="7"/>
@@ -54904,7 +54903,7 @@
       <c r="C160" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D160" s="17" t="s">
+      <c r="D160" s="8" t="s">
         <v>277</v>
       </c>
       <c r="E160" s="7"/>
@@ -55446,7 +55445,7 @@
       <c r="C188" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D188" s="17" t="s">
+      <c r="D188" s="8" t="s">
         <v>277</v>
       </c>
       <c r="E188" s="7"/>
@@ -55976,7 +55975,7 @@
       <c r="C215" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D215" s="17" t="s">
+      <c r="D215" s="8" t="s">
         <v>277</v>
       </c>
       <c r="E215" s="7"/>
